--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6C16F-8293-4C2E-9528-3E4D21BEEEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D34ED-1027-4738-ADA5-2B960DCDABB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="449" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="4" r:id="rId1"/>
-    <sheet name="mem" sheetId="5" r:id="rId2"/>
-    <sheet name="paging" sheetId="8" r:id="rId3"/>
-    <sheet name="sys layer" sheetId="1" r:id="rId4"/>
-    <sheet name="list" sheetId="6" r:id="rId5"/>
-    <sheet name="IO" sheetId="7" r:id="rId6"/>
+    <sheet name="descriptor" sheetId="9" r:id="rId2"/>
+    <sheet name="mem" sheetId="5" r:id="rId3"/>
+    <sheet name="paging" sheetId="8" r:id="rId4"/>
+    <sheet name="sys layer" sheetId="1" r:id="rId5"/>
+    <sheet name="list" sheetId="6" r:id="rId6"/>
+    <sheet name="IO" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Buses</t>
   </si>
@@ -188,9 +189,6 @@
     <t>CS DS ES FS GS SS</t>
   </si>
   <si>
-    <t>segment register (Seg selector)</t>
-  </si>
-  <si>
     <t>segment register (6)</t>
   </si>
   <si>
@@ -246,13 +244,96 @@
   </si>
   <si>
     <t xml:space="preserve">  16M + 640K</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <r>
+      <t>RPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>eax</t>
+  </si>
+  <si>
+    <t>edx</t>
+  </si>
+  <si>
+    <t>ecx</t>
+  </si>
+  <si>
+    <t>ebx</t>
+  </si>
+  <si>
+    <t>ebp</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>esi</t>
+  </si>
+  <si>
+    <t>EFLAGS</t>
+  </si>
+  <si>
+    <t>Main registers</t>
+  </si>
+  <si>
+    <t>Index registers</t>
+  </si>
+  <si>
+    <t>Program counter</t>
+  </si>
+  <si>
+    <t>Status register</t>
+  </si>
+  <si>
+    <t>Control registers</t>
+  </si>
+  <si>
+    <t>Segment registers (Seg selector)</t>
+  </si>
+  <si>
+    <t>Memory-Management Registers</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>Debug &amp; test registers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +341,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -456,19 +571,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -505,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -525,12 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -551,6 +648,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1448,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4A881-F80B-4EFE-96CB-6DA6A5FAA9AD}">
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,658 +1599,85 @@
     <col min="1" max="16384" width="2.6328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-    </row>
-    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50">
-        <v>15</v>
-      </c>
-      <c r="B3" s="50">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="63"/>
+      <c r="N14" s="61">
+        <v>1</v>
+      </c>
+      <c r="O14" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="N15" s="61">
+        <v>0</v>
+      </c>
+      <c r="O15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="50">
-        <v>12</v>
-      </c>
-      <c r="E3" s="50">
-        <v>11</v>
-      </c>
-      <c r="F3" s="50">
-        <v>10</v>
-      </c>
-      <c r="G3" s="50">
-        <v>9</v>
-      </c>
-      <c r="H3" s="50">
-        <v>8</v>
-      </c>
-      <c r="I3" s="50">
-        <v>7</v>
-      </c>
-      <c r="J3" s="50">
-        <v>6</v>
-      </c>
-      <c r="K3" s="50">
-        <v>5</v>
-      </c>
-      <c r="L3" s="50">
-        <v>4</v>
-      </c>
-      <c r="M3" s="50">
-        <v>3</v>
-      </c>
-      <c r="N3" s="50">
-        <v>2</v>
-      </c>
-      <c r="O3" s="50">
-        <v>1</v>
-      </c>
-      <c r="P3" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="51">
-        <v>31</v>
-      </c>
-      <c r="R3" s="52">
-        <v>30</v>
-      </c>
-      <c r="S3" s="52">
-        <v>29</v>
-      </c>
-      <c r="T3" s="52">
-        <v>28</v>
-      </c>
-      <c r="U3" s="52">
-        <v>27</v>
-      </c>
-      <c r="V3" s="52">
-        <v>26</v>
-      </c>
-      <c r="W3" s="52">
-        <v>25</v>
-      </c>
-      <c r="X3" s="52">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="52">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="52">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="52">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="52">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="52">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="52">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="52">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="52">
-        <v>16</v>
-      </c>
-      <c r="AG3" s="52">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="52">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="52">
-        <v>13</v>
-      </c>
-      <c r="AJ3" s="52">
-        <v>12</v>
-      </c>
-      <c r="AK3" s="52">
-        <v>11</v>
-      </c>
-      <c r="AL3" s="52">
-        <v>10</v>
-      </c>
-      <c r="AM3" s="52">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="52">
-        <v>8</v>
-      </c>
-      <c r="AO3" s="52">
-        <v>7</v>
-      </c>
-      <c r="AP3" s="52">
-        <v>6</v>
-      </c>
-      <c r="AQ3" s="52">
-        <v>5</v>
-      </c>
-      <c r="AR3" s="52">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="52">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="52">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="52">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-    </row>
-    <row r="6" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="50">
-        <v>15</v>
-      </c>
-      <c r="B6" s="50">
-        <v>14</v>
-      </c>
-      <c r="C6" s="50">
-        <v>13</v>
-      </c>
-      <c r="D6" s="50">
-        <v>12</v>
-      </c>
-      <c r="E6" s="50">
-        <v>11</v>
-      </c>
-      <c r="F6" s="50">
-        <v>10</v>
-      </c>
-      <c r="G6" s="50">
-        <v>9</v>
-      </c>
-      <c r="H6" s="50">
-        <v>8</v>
-      </c>
-      <c r="I6" s="50">
-        <v>7</v>
-      </c>
-      <c r="J6" s="50">
-        <v>6</v>
-      </c>
-      <c r="K6" s="50">
-        <v>5</v>
-      </c>
-      <c r="L6" s="50">
-        <v>4</v>
-      </c>
-      <c r="M6" s="50">
-        <v>3</v>
-      </c>
-      <c r="N6" s="50">
-        <v>2</v>
-      </c>
-      <c r="O6" s="50">
-        <v>1</v>
-      </c>
-      <c r="P6" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="51">
-        <v>31</v>
-      </c>
-      <c r="R6" s="52">
-        <v>30</v>
-      </c>
-      <c r="S6" s="52">
-        <v>29</v>
-      </c>
-      <c r="T6" s="52">
-        <v>28</v>
-      </c>
-      <c r="U6" s="52">
-        <v>27</v>
-      </c>
-      <c r="V6" s="52">
-        <v>26</v>
-      </c>
-      <c r="W6" s="52">
-        <v>25</v>
-      </c>
-      <c r="X6" s="52">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="52">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="52">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="52">
-        <v>21</v>
-      </c>
-      <c r="AB6" s="52">
-        <v>20</v>
-      </c>
-      <c r="AC6" s="52">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="52">
-        <v>18</v>
-      </c>
-      <c r="AE6" s="52">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="52">
-        <v>16</v>
-      </c>
-      <c r="AG6" s="52">
-        <v>15</v>
-      </c>
-      <c r="AH6" s="52">
-        <v>14</v>
-      </c>
-      <c r="AI6" s="52">
-        <v>13</v>
-      </c>
-      <c r="AJ6" s="52">
-        <v>12</v>
-      </c>
-      <c r="AK6" s="52">
-        <v>11</v>
-      </c>
-      <c r="AL6" s="52">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="52">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="52">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="52">
-        <v>7</v>
-      </c>
-      <c r="AP6" s="52">
-        <v>6</v>
-      </c>
-      <c r="AQ6" s="52">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="52">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="52">
-        <v>3</v>
-      </c>
-      <c r="AT6" s="52">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="52">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-    </row>
-    <row r="9" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50">
-        <v>15</v>
-      </c>
-      <c r="B9" s="50">
-        <v>14</v>
-      </c>
-      <c r="C9" s="50">
-        <v>13</v>
-      </c>
-      <c r="D9" s="50">
-        <v>12</v>
-      </c>
-      <c r="E9" s="50">
-        <v>11</v>
-      </c>
-      <c r="F9" s="50">
-        <v>10</v>
-      </c>
-      <c r="G9" s="50">
-        <v>9</v>
-      </c>
-      <c r="H9" s="50">
-        <v>8</v>
-      </c>
-      <c r="I9" s="50">
-        <v>7</v>
-      </c>
-      <c r="J9" s="50">
-        <v>6</v>
-      </c>
-      <c r="K9" s="50">
-        <v>5</v>
-      </c>
-      <c r="L9" s="50">
-        <v>4</v>
-      </c>
-      <c r="M9" s="50">
-        <v>3</v>
-      </c>
-      <c r="N9" s="50">
-        <v>2</v>
-      </c>
-      <c r="O9" s="50">
-        <v>1</v>
-      </c>
-      <c r="P9" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="51">
-        <v>31</v>
-      </c>
-      <c r="R9" s="52">
-        <v>30</v>
-      </c>
-      <c r="S9" s="52">
-        <v>29</v>
-      </c>
-      <c r="T9" s="52">
-        <v>28</v>
-      </c>
-      <c r="U9" s="52">
-        <v>27</v>
-      </c>
-      <c r="V9" s="52">
-        <v>26</v>
-      </c>
-      <c r="W9" s="52">
-        <v>25</v>
-      </c>
-      <c r="X9" s="52">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="52">
-        <v>23</v>
-      </c>
-      <c r="Z9" s="52">
-        <v>22</v>
-      </c>
-      <c r="AA9" s="52">
-        <v>21</v>
-      </c>
-      <c r="AB9" s="52">
-        <v>20</v>
-      </c>
-      <c r="AC9" s="52">
-        <v>19</v>
-      </c>
-      <c r="AD9" s="52">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="52">
-        <v>17</v>
-      </c>
-      <c r="AF9" s="52">
-        <v>16</v>
-      </c>
-      <c r="AG9" s="52">
-        <v>15</v>
-      </c>
-      <c r="AH9" s="52">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="52">
-        <v>13</v>
-      </c>
-      <c r="AJ9" s="52">
-        <v>12</v>
-      </c>
-      <c r="AK9" s="52">
-        <v>11</v>
-      </c>
-      <c r="AL9" s="52">
-        <v>10</v>
-      </c>
-      <c r="AM9" s="52">
-        <v>9</v>
-      </c>
-      <c r="AN9" s="52">
-        <v>8</v>
-      </c>
-      <c r="AO9" s="52">
-        <v>7</v>
-      </c>
-      <c r="AP9" s="52">
-        <v>6</v>
-      </c>
-      <c r="AQ9" s="52">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="52">
-        <v>4</v>
-      </c>
-      <c r="AS9" s="52">
-        <v>3</v>
-      </c>
-      <c r="AT9" s="52">
-        <v>2</v>
-      </c>
-      <c r="AU9" s="52">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="N14" s="9">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2160,359 +1727,821 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A22" s="49">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="O17" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="64"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" s="63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" s="63"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A25" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+    </row>
+    <row r="26" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="46">
         <v>15</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B26" s="46">
         <v>14</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C26" s="46">
         <v>13</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D26" s="46">
         <v>12</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E26" s="46">
         <v>11</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F26" s="46">
         <v>10</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G26" s="46">
         <v>9</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H26" s="46">
         <v>8</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I26" s="46">
         <v>7</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J26" s="46">
         <v>6</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K26" s="46">
         <v>5</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L26" s="46">
         <v>4</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M26" s="46">
         <v>3</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N26" s="46">
         <v>2</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O26" s="46">
         <v>1</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P26" s="46">
         <v>0</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q26" s="47">
+        <v>31</v>
+      </c>
+      <c r="R26" s="48">
+        <v>30</v>
+      </c>
+      <c r="S26" s="48">
+        <v>29</v>
+      </c>
+      <c r="T26" s="48">
+        <v>28</v>
+      </c>
+      <c r="U26" s="48">
+        <v>27</v>
+      </c>
+      <c r="V26" s="48">
+        <v>26</v>
+      </c>
+      <c r="W26" s="48">
+        <v>25</v>
+      </c>
+      <c r="X26" s="48">
+        <v>24</v>
+      </c>
+      <c r="Y26" s="48">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="48">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="48">
+        <v>21</v>
+      </c>
+      <c r="AB26" s="48">
+        <v>20</v>
+      </c>
+      <c r="AC26" s="48">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="48">
+        <v>18</v>
+      </c>
+      <c r="AE26" s="48">
+        <v>17</v>
+      </c>
+      <c r="AF26" s="48">
+        <v>16</v>
+      </c>
+      <c r="AG26" s="48">
         <v>15</v>
       </c>
-      <c r="R22" s="50">
+      <c r="AH26" s="48">
         <v>14</v>
       </c>
-      <c r="S22" s="50">
+      <c r="AI26" s="48">
         <v>13</v>
       </c>
-      <c r="T22" s="50">
+      <c r="AJ26" s="48">
         <v>12</v>
       </c>
-      <c r="U22" s="50">
+      <c r="AK26" s="48">
         <v>11</v>
       </c>
-      <c r="V22" s="50">
+      <c r="AL26" s="48">
         <v>10</v>
       </c>
-      <c r="W22" s="50">
+      <c r="AM26" s="48">
         <v>9</v>
       </c>
-      <c r="X22" s="50">
+      <c r="AN26" s="48">
         <v>8</v>
       </c>
-      <c r="Y22" s="50">
+      <c r="AO26" s="48">
         <v>7</v>
       </c>
-      <c r="Z22" s="50">
+      <c r="AP26" s="48">
         <v>6</v>
       </c>
-      <c r="AA22" s="50">
+      <c r="AQ26" s="48">
         <v>5</v>
       </c>
-      <c r="AB22" s="50">
+      <c r="AR26" s="48">
         <v>4</v>
       </c>
-      <c r="AC22" s="50">
+      <c r="AS26" s="48">
         <v>3</v>
       </c>
-      <c r="AD22" s="50">
+      <c r="AT26" s="48">
         <v>2</v>
       </c>
-      <c r="AE22" s="50">
+      <c r="AU26" s="48">
         <v>1</v>
       </c>
-      <c r="AF22" s="50">
+      <c r="AV26" s="49">
         <v>0</v>
       </c>
-      <c r="AG22" s="12">
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A28" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+    </row>
+    <row r="29" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="46">
         <v>15</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="B29" s="46">
         <v>14</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="C29" s="46">
         <v>13</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="D29" s="46">
         <v>12</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="E29" s="46">
         <v>11</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="F29" s="46">
         <v>10</v>
       </c>
-      <c r="AM22" s="12">
+      <c r="G29" s="46">
         <v>9</v>
       </c>
-      <c r="AN22" s="12">
+      <c r="H29" s="46">
         <v>8</v>
       </c>
-      <c r="AO22" s="12">
+      <c r="I29" s="46">
         <v>7</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="J29" s="46">
         <v>6</v>
       </c>
-      <c r="AQ22" s="12">
+      <c r="K29" s="46">
         <v>5</v>
       </c>
-      <c r="AR22" s="12">
+      <c r="L29" s="46">
         <v>4</v>
       </c>
-      <c r="AS22" s="12">
+      <c r="M29" s="46">
         <v>3</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="N29" s="46">
         <v>2</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="P29" s="46">
         <v>0</v>
       </c>
-      <c r="AW22" s="10">
+      <c r="Q29" s="47">
+        <v>31</v>
+      </c>
+      <c r="R29" s="48">
+        <v>30</v>
+      </c>
+      <c r="S29" s="48">
+        <v>29</v>
+      </c>
+      <c r="T29" s="48">
+        <v>28</v>
+      </c>
+      <c r="U29" s="48">
+        <v>27</v>
+      </c>
+      <c r="V29" s="48">
+        <v>26</v>
+      </c>
+      <c r="W29" s="48">
+        <v>25</v>
+      </c>
+      <c r="X29" s="48">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="48">
+        <v>23</v>
+      </c>
+      <c r="Z29" s="48">
+        <v>22</v>
+      </c>
+      <c r="AA29" s="48">
+        <v>21</v>
+      </c>
+      <c r="AB29" s="48">
+        <v>20</v>
+      </c>
+      <c r="AC29" s="48">
+        <v>19</v>
+      </c>
+      <c r="AD29" s="48">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="48">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="48">
+        <v>16</v>
+      </c>
+      <c r="AG29" s="48">
         <v>15</v>
       </c>
-      <c r="AX22" s="10">
+      <c r="AH29" s="48">
         <v>14</v>
       </c>
-      <c r="AY22" s="10">
+      <c r="AI29" s="48">
         <v>13</v>
       </c>
-      <c r="AZ22" s="10">
+      <c r="AJ29" s="48">
         <v>12</v>
       </c>
-      <c r="BA22" s="10">
+      <c r="AK29" s="48">
         <v>11</v>
       </c>
-      <c r="BB22" s="10">
+      <c r="AL29" s="48">
         <v>10</v>
       </c>
-      <c r="BC22" s="10">
+      <c r="AM29" s="48">
         <v>9</v>
       </c>
-      <c r="BD22" s="10">
+      <c r="AN29" s="48">
         <v>8</v>
       </c>
-      <c r="BE22" s="10">
+      <c r="AO29" s="48">
         <v>7</v>
       </c>
-      <c r="BF22" s="10">
+      <c r="AP29" s="48">
         <v>6</v>
       </c>
-      <c r="BG22" s="10">
+      <c r="AQ29" s="48">
         <v>5</v>
       </c>
-      <c r="BH22" s="10">
+      <c r="AR29" s="48">
         <v>4</v>
       </c>
-      <c r="BI22" s="10">
+      <c r="AS29" s="48">
         <v>3</v>
       </c>
-      <c r="BJ22" s="10">
+      <c r="AT29" s="48">
         <v>2</v>
       </c>
-      <c r="BK22" s="10">
+      <c r="AU29" s="48">
         <v>1</v>
       </c>
-      <c r="BL22" s="10">
+      <c r="AV29" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A31" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+    </row>
+    <row r="32" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="46">
+        <v>15</v>
+      </c>
+      <c r="B32" s="46">
+        <v>14</v>
+      </c>
+      <c r="C32" s="46">
+        <v>13</v>
+      </c>
+      <c r="D32" s="46">
+        <v>12</v>
+      </c>
+      <c r="E32" s="46">
+        <v>11</v>
+      </c>
+      <c r="F32" s="46">
+        <v>10</v>
+      </c>
+      <c r="G32" s="46">
+        <v>9</v>
+      </c>
+      <c r="H32" s="46">
+        <v>8</v>
+      </c>
+      <c r="I32" s="46">
+        <v>7</v>
+      </c>
+      <c r="J32" s="46">
+        <v>6</v>
+      </c>
+      <c r="K32" s="46">
+        <v>5</v>
+      </c>
+      <c r="L32" s="46">
+        <v>4</v>
+      </c>
+      <c r="M32" s="46">
+        <v>3</v>
+      </c>
+      <c r="N32" s="46">
+        <v>2</v>
+      </c>
+      <c r="O32" s="46">
+        <v>1</v>
+      </c>
+      <c r="P32" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="47">
+        <v>31</v>
+      </c>
+      <c r="R32" s="48">
+        <v>30</v>
+      </c>
+      <c r="S32" s="48">
+        <v>29</v>
+      </c>
+      <c r="T32" s="48">
+        <v>28</v>
+      </c>
+      <c r="U32" s="48">
+        <v>27</v>
+      </c>
+      <c r="V32" s="48">
+        <v>26</v>
+      </c>
+      <c r="W32" s="48">
+        <v>25</v>
+      </c>
+      <c r="X32" s="48">
+        <v>24</v>
+      </c>
+      <c r="Y32" s="48">
+        <v>23</v>
+      </c>
+      <c r="Z32" s="48">
+        <v>22</v>
+      </c>
+      <c r="AA32" s="48">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="48">
+        <v>20</v>
+      </c>
+      <c r="AC32" s="48">
+        <v>19</v>
+      </c>
+      <c r="AD32" s="48">
+        <v>18</v>
+      </c>
+      <c r="AE32" s="48">
+        <v>17</v>
+      </c>
+      <c r="AF32" s="48">
+        <v>16</v>
+      </c>
+      <c r="AG32" s="48">
+        <v>15</v>
+      </c>
+      <c r="AH32" s="48">
+        <v>14</v>
+      </c>
+      <c r="AI32" s="48">
+        <v>13</v>
+      </c>
+      <c r="AJ32" s="48">
+        <v>12</v>
+      </c>
+      <c r="AK32" s="48">
+        <v>11</v>
+      </c>
+      <c r="AL32" s="48">
+        <v>10</v>
+      </c>
+      <c r="AM32" s="48">
+        <v>9</v>
+      </c>
+      <c r="AN32" s="48">
+        <v>8</v>
+      </c>
+      <c r="AO32" s="48">
+        <v>7</v>
+      </c>
+      <c r="AP32" s="48">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="48">
+        <v>5</v>
+      </c>
+      <c r="AR32" s="48">
+        <v>4</v>
+      </c>
+      <c r="AS32" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT32" s="48">
+        <v>2</v>
+      </c>
+      <c r="AU32" s="48">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="63"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="51">
+    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="47">
         <v>31</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B41" s="48">
         <v>30</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C41" s="48">
         <v>29</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D41" s="48">
         <v>28</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E41" s="48">
         <v>27</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F41" s="48">
         <v>26</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G41" s="48">
         <v>25</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H41" s="48">
         <v>24</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I41" s="48">
         <v>23</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J41" s="48">
         <v>22</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K41" s="48">
         <v>21</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L41" s="48">
         <v>20</v>
       </c>
-      <c r="M32" s="52">
+      <c r="M41" s="48">
         <v>19</v>
       </c>
-      <c r="N32" s="52">
+      <c r="N41" s="48">
         <v>18</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O41" s="48">
         <v>17</v>
       </c>
-      <c r="P32" s="52">
+      <c r="P41" s="48">
         <v>16</v>
       </c>
-      <c r="Q32" s="52">
+      <c r="Q41" s="48">
         <v>15</v>
       </c>
-      <c r="R32" s="52">
+      <c r="R41" s="48">
         <v>14</v>
       </c>
-      <c r="S32" s="52">
+      <c r="S41" s="48">
         <v>13</v>
       </c>
-      <c r="T32" s="52">
+      <c r="T41" s="48">
         <v>12</v>
       </c>
-      <c r="U32" s="52">
+      <c r="U41" s="48">
         <v>11</v>
       </c>
-      <c r="V32" s="52">
+      <c r="V41" s="48">
         <v>10</v>
       </c>
-      <c r="W32" s="52">
+      <c r="W41" s="48">
         <v>9</v>
       </c>
-      <c r="X32" s="52">
+      <c r="X41" s="48">
         <v>8</v>
       </c>
-      <c r="Y32" s="52">
+      <c r="Y41" s="48">
         <v>7</v>
       </c>
-      <c r="Z32" s="52">
+      <c r="Z41" s="48">
         <v>6</v>
       </c>
-      <c r="AA32" s="52">
+      <c r="AA41" s="48">
         <v>5</v>
       </c>
-      <c r="AB32" s="52">
+      <c r="AB41" s="48">
         <v>4</v>
       </c>
-      <c r="AC32" s="52">
+      <c r="AC41" s="48">
         <v>3</v>
       </c>
-      <c r="AD32" s="52">
+      <c r="AD41" s="48">
         <v>2</v>
       </c>
-      <c r="AE32" s="52">
+      <c r="AE41" s="48">
         <v>1</v>
       </c>
-      <c r="AF32" s="53">
+      <c r="AF41" s="49">
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="63"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q2:AV2"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="Q5:AV5"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:AV8"/>
+  <mergeCells count="7">
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q25:AV25"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="Q28:AV28"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="Q31:AV31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -2520,18 +2549,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E0DF2-8A95-4FC9-B451-93711BBBA99F}">
+  <dimension ref="A1:BL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45">
+        <v>15</v>
+      </c>
+      <c r="B2" s="45">
+        <v>14</v>
+      </c>
+      <c r="C2" s="45">
+        <v>13</v>
+      </c>
+      <c r="D2" s="45">
+        <v>12</v>
+      </c>
+      <c r="E2" s="45">
+        <v>11</v>
+      </c>
+      <c r="F2" s="45">
+        <v>10</v>
+      </c>
+      <c r="G2" s="45">
+        <v>9</v>
+      </c>
+      <c r="H2" s="45">
+        <v>8</v>
+      </c>
+      <c r="I2" s="45">
+        <v>7</v>
+      </c>
+      <c r="J2" s="45">
+        <v>6</v>
+      </c>
+      <c r="K2" s="45">
+        <v>5</v>
+      </c>
+      <c r="L2" s="45">
+        <v>4</v>
+      </c>
+      <c r="M2" s="45">
+        <v>3</v>
+      </c>
+      <c r="N2" s="45">
+        <v>2</v>
+      </c>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>15</v>
+      </c>
+      <c r="R2" s="46">
+        <v>14</v>
+      </c>
+      <c r="S2" s="46">
+        <v>13</v>
+      </c>
+      <c r="T2" s="46">
+        <v>12</v>
+      </c>
+      <c r="U2" s="46">
+        <v>11</v>
+      </c>
+      <c r="V2" s="46">
+        <v>10</v>
+      </c>
+      <c r="W2" s="46">
+        <v>9</v>
+      </c>
+      <c r="X2" s="46">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="46">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="46">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="46">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="46">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="46">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="46">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX2" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ2" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA2" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB2" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE2" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF2" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH2" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI2" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.36328125" customWidth="1"/>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="50" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.08984375" customWidth="1"/>
@@ -2541,300 +2786,300 @@
     <col min="10" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="10.7265625" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" style="20" customWidth="1"/>
     <col min="15" max="15" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="14"/>
       <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="47"/>
+      <c r="N15" s="66"/>
     </row>
     <row r="16" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="47"/>
+      <c r="N16" s="66"/>
     </row>
     <row r="17" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="18" t="s">
+      <c r="J17" s="44"/>
+      <c r="K17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="47"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="47"/>
+      <c r="N18" s="66"/>
       <c r="O18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="66" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="47"/>
+      <c r="N20" s="66"/>
     </row>
     <row r="21" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="47"/>
+      <c r="N21" s="66"/>
       <c r="O21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="68"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O22" t="s">
@@ -2842,13 +3087,13 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="68"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="20" t="s">
         <v>39</v>
       </c>
       <c r="O23" t="s">
@@ -2856,17 +3101,17 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="69"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="20" t="s">
         <v>8</v>
       </c>
       <c r="O24" t="s">
@@ -2874,108 +3119,121 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="25"/>
-      <c r="M25" s="24" t="s">
+      <c r="I25" s="22"/>
+      <c r="M25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="25"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="29"/>
-      <c r="M26" s="28" t="s">
+      <c r="H26" s="19"/>
+      <c r="I26" s="26"/>
+      <c r="M26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="30" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="30" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="31" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="51">
         <v>0</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="52">
+        <v>0</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="58">
-        <v>0</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C34" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C35" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D35" s="56" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2990,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112F238-A3C0-4767-9158-5E3CEE8F19C2}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
@@ -3001,7 +3259,7 @@
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -3032,515 +3290,515 @@
       <c r="AC1" s="15"/>
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="16" t="s">
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="55"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="70"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="55"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="70"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="55"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="70"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="68"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="55"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="70"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="68"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="55"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="19"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="70"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="68"/>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="55"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="70"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="68"/>
     </row>
     <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="55"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="22"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="70"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="69"/>
       <c r="AO8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="55"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="16" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="70"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="67" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="55"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="19"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="70"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="68"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="55"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="19"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="70"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="68"/>
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>31</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>30</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>29</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>28</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <v>27</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <v>26</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="28">
         <v>25</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="28">
         <v>24</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="28">
         <v>23</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="28">
         <v>22</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="28">
         <v>21</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="28">
         <v>20</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="28">
         <v>19</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="28">
         <v>18</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="28">
         <v>17</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="28">
         <v>16</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="28">
         <v>15</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="28">
         <v>14</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="28">
         <v>13</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="28">
         <v>12</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="28">
         <v>11</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="28">
         <v>10</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="28">
         <v>9</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="28">
         <v>8</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="28">
         <v>7</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z12" s="28">
         <v>6</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA12" s="28">
         <v>5</v>
       </c>
-      <c r="AB12" s="31">
+      <c r="AB12" s="28">
         <v>4</v>
       </c>
-      <c r="AC12" s="31">
+      <c r="AC12" s="28">
         <v>3</v>
       </c>
-      <c r="AD12" s="31">
+      <c r="AD12" s="28">
         <v>2</v>
       </c>
-      <c r="AE12" s="31">
+      <c r="AE12" s="28">
         <v>1</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AF12" s="29">
         <v>0</v>
       </c>
-      <c r="AG12" s="55"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="19"/>
+      <c r="AG12" s="70"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="68"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="19"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="68"/>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="19"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="68"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -3571,648 +3829,648 @@
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="19"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="68"/>
     </row>
     <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="55"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="70"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="69"/>
       <c r="AO16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="55"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="16" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="70"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="55"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="19"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="70"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="68"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="55"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="19"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="70"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="68"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="55"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="19"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="70"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="68"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="55"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="19"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="70"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="68"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>31</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="28">
         <v>30</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="28">
         <v>29</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="28">
         <v>28</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <v>27</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="28">
         <v>26</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="28">
         <v>25</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="28">
         <v>24</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="28">
         <v>23</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="28">
         <v>22</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="28">
         <v>21</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="28">
         <v>20</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="28">
         <v>19</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="28">
         <v>18</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="28">
         <v>17</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="28">
         <v>16</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="28">
         <v>15</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="28">
         <v>14</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="28">
         <v>13</v>
       </c>
-      <c r="T22" s="31">
+      <c r="T22" s="28">
         <v>12</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="28">
         <v>11</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="28">
         <v>10</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="28">
         <v>9</v>
       </c>
-      <c r="X22" s="31">
+      <c r="X22" s="28">
         <v>8</v>
       </c>
-      <c r="Y22" s="31">
+      <c r="Y22" s="28">
         <v>7</v>
       </c>
-      <c r="Z22" s="31">
+      <c r="Z22" s="28">
         <v>6</v>
       </c>
-      <c r="AA22" s="31">
+      <c r="AA22" s="28">
         <v>5</v>
       </c>
-      <c r="AB22" s="31">
+      <c r="AB22" s="28">
         <v>4</v>
       </c>
-      <c r="AC22" s="31">
+      <c r="AC22" s="28">
         <v>3</v>
       </c>
-      <c r="AD22" s="31">
+      <c r="AD22" s="28">
         <v>2</v>
       </c>
-      <c r="AE22" s="31">
+      <c r="AE22" s="28">
         <v>1</v>
       </c>
-      <c r="AF22" s="32">
+      <c r="AF22" s="29">
         <v>0</v>
       </c>
-      <c r="AG22" s="55"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="19"/>
+      <c r="AG22" s="70"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="68"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="19"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="68"/>
     </row>
     <row r="24" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="22"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="69"/>
       <c r="AO24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="16" t="s">
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="68"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="38"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="19"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="35"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="68"/>
     </row>
     <row r="28" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="30">
+      <c r="A28" s="27">
         <v>31</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="28">
         <v>30</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="28">
         <v>29</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="28">
         <v>28</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="28">
         <v>27</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="28">
         <v>26</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="28">
         <v>25</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="28">
         <v>24</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="28">
         <v>23</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="28">
         <v>22</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="28">
         <v>21</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="28">
         <v>20</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="28">
         <v>19</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="28">
         <v>18</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="28">
         <v>17</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="28">
         <v>16</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="28">
         <v>15</v>
       </c>
-      <c r="R28" s="31">
+      <c r="R28" s="28">
         <v>14</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="28">
         <v>13</v>
       </c>
-      <c r="T28" s="31">
+      <c r="T28" s="28">
         <v>12</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="28">
         <v>11</v>
       </c>
-      <c r="V28" s="31">
+      <c r="V28" s="28">
         <v>10</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W28" s="28">
         <v>9</v>
       </c>
-      <c r="X28" s="31">
+      <c r="X28" s="28">
         <v>8</v>
       </c>
-      <c r="Y28" s="31">
+      <c r="Y28" s="28">
         <v>7</v>
       </c>
-      <c r="Z28" s="31">
+      <c r="Z28" s="28">
         <v>6</v>
       </c>
-      <c r="AA28" s="31">
+      <c r="AA28" s="28">
         <v>5</v>
       </c>
-      <c r="AB28" s="31">
+      <c r="AB28" s="28">
         <v>4</v>
       </c>
-      <c r="AC28" s="31">
+      <c r="AC28" s="28">
         <v>3</v>
       </c>
-      <c r="AD28" s="31">
+      <c r="AD28" s="28">
         <v>2</v>
       </c>
-      <c r="AE28" s="31">
+      <c r="AE28" s="28">
         <v>1</v>
       </c>
-      <c r="AF28" s="32">
+      <c r="AF28" s="29">
         <v>0</v>
       </c>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="19"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="68"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="19"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="68"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="19"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="68"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="19"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="68"/>
     </row>
     <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="22"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="69"/>
       <c r="AO32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="16" t="s">
+      <c r="AL33" s="21"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="67" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="19"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="68"/>
     </row>
     <row r="35" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="19"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="68"/>
     </row>
     <row r="36" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="19"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="68"/>
     </row>
     <row r="37" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="19"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="68"/>
     </row>
     <row r="38" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="19"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="68"/>
     </row>
     <row r="39" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="19"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="68"/>
     </row>
     <row r="40" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="22"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="69"/>
       <c r="AO40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL41" s="24"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="16" t="s">
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="67" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="19"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="68"/>
     </row>
     <row r="43" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="19"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="68"/>
     </row>
     <row r="44" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="19"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="68"/>
     </row>
     <row r="45" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="19"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="68"/>
     </row>
     <row r="46" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="19"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="68"/>
     </row>
     <row r="47" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL47" s="26"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="19"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="68"/>
     </row>
     <row r="48" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="29"/>
-      <c r="AN48" s="22"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="26"/>
+      <c r="AN48" s="69"/>
       <c r="AO48" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AN25:AN32"/>
+    <mergeCell ref="AN33:AN40"/>
+    <mergeCell ref="AN41:AN48"/>
     <mergeCell ref="AG1:AG12"/>
     <mergeCell ref="AG15:AG22"/>
     <mergeCell ref="AN1:AN8"/>
     <mergeCell ref="AN9:AN16"/>
     <mergeCell ref="AN17:AN24"/>
-    <mergeCell ref="AN25:AN32"/>
-    <mergeCell ref="AN33:AN40"/>
-    <mergeCell ref="AN41:AN48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
@@ -4252,7 +4510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC671F-1688-475C-9272-017C8108145F}">
   <dimension ref="B5:C8"/>
   <sheetViews>
@@ -4290,7 +4548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1486DB-0A26-46D6-A9D5-2957CBBFE03E}">
   <dimension ref="B1:B3"/>
   <sheetViews>

--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D34ED-1027-4738-ADA5-2B960DCDABB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509C40B-3A44-46B1-9FBE-B594AF2FB1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registers" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>Buses</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>IDTR</t>
-  </si>
-  <si>
-    <t>descriptor</t>
   </si>
   <si>
     <t>base address</t>
@@ -327,6 +324,111 @@
   </si>
   <si>
     <t>Debug &amp; test registers</t>
+  </si>
+  <si>
+    <t>IDT - interrupt gate</t>
+  </si>
+  <si>
+    <t>bit 0 - 15 for handler address</t>
+  </si>
+  <si>
+    <t>bit 16 - 31 for handler address</t>
+  </si>
+  <si>
+    <t>Segment selector</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>DPL</t>
+  </si>
+  <si>
+    <t>IDT - trap gate</t>
+  </si>
+  <si>
+    <t>Segment descriptor - general</t>
+  </si>
+  <si>
+    <t>Base address 0 - 15</t>
+  </si>
+  <si>
+    <t>Base address 24 - 31</t>
+  </si>
+  <si>
+    <t>Base address 16 - 23</t>
+  </si>
+  <si>
+    <t>Segment limit 0-15</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Seg lmt 16-19</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVL - system </t>
+  </si>
+  <si>
+    <t>B/D</t>
+  </si>
+  <si>
+    <t>0 - 16 bit, 1 - 32 bit</t>
+  </si>
+  <si>
+    <t>DPL - Descriptor privilege</t>
+  </si>
+  <si>
+    <t>G - size</t>
+  </si>
+  <si>
+    <t>P-exist</t>
+  </si>
+  <si>
+    <t>S- type, 0 for system, 1 for data or code</t>
+  </si>
+  <si>
+    <t>Segment descriptor - data</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Segment descriptor - code</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Segment descriptor - system</t>
   </si>
 </sst>
 </file>
@@ -433,12 +535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -617,9 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,14 +749,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -669,11 +765,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,8 +799,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1590,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4A881-F80B-4EFE-96CB-6DA6A5FAA9AD}">
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1600,80 +1714,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>86</v>
+      <c r="A1" s="62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
-        <v>87</v>
+      <c r="A6" s="62" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="71" t="s">
-        <v>91</v>
+      <c r="A12" s="62" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>51</v>
+      <c r="A13" s="61" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
-      <c r="N14" s="61">
+      <c r="A14" s="61"/>
+      <c r="N14" s="59">
         <v>1</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
-      <c r="N15" s="61">
+      <c r="A15" s="61"/>
+      <c r="N15" s="59">
         <v>0</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="O15" s="61" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1729,37 +1843,37 @@
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="64"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="71" t="s">
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="71" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="63" t="s">
-        <v>85</v>
+      <c r="A21" s="61" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="71" t="s">
-        <v>92</v>
+      <c r="A23" s="62" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.35">
@@ -1770,202 +1884,202 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65" t="s">
+      <c r="A25" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
     </row>
     <row r="26" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="46">
+        <v>31</v>
+      </c>
+      <c r="B26" s="47">
+        <v>30</v>
+      </c>
+      <c r="C26" s="47">
+        <v>29</v>
+      </c>
+      <c r="D26" s="47">
+        <v>28</v>
+      </c>
+      <c r="E26" s="47">
+        <v>27</v>
+      </c>
+      <c r="F26" s="47">
+        <v>26</v>
+      </c>
+      <c r="G26" s="47">
+        <v>25</v>
+      </c>
+      <c r="H26" s="47">
+        <v>24</v>
+      </c>
+      <c r="I26" s="47">
+        <v>23</v>
+      </c>
+      <c r="J26" s="47">
+        <v>22</v>
+      </c>
+      <c r="K26" s="47">
+        <v>21</v>
+      </c>
+      <c r="L26" s="47">
+        <v>20</v>
+      </c>
+      <c r="M26" s="47">
+        <v>19</v>
+      </c>
+      <c r="N26" s="47">
+        <v>18</v>
+      </c>
+      <c r="O26" s="47">
+        <v>17</v>
+      </c>
+      <c r="P26" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="47">
         <v>15</v>
       </c>
-      <c r="B26" s="46">
+      <c r="R26" s="47">
         <v>14</v>
       </c>
-      <c r="C26" s="46">
+      <c r="S26" s="47">
         <v>13</v>
       </c>
-      <c r="D26" s="46">
+      <c r="T26" s="47">
         <v>12</v>
       </c>
-      <c r="E26" s="46">
+      <c r="U26" s="47">
         <v>11</v>
       </c>
-      <c r="F26" s="46">
+      <c r="V26" s="47">
         <v>10</v>
       </c>
-      <c r="G26" s="46">
+      <c r="W26" s="47">
         <v>9</v>
       </c>
-      <c r="H26" s="46">
+      <c r="X26" s="47">
         <v>8</v>
       </c>
-      <c r="I26" s="46">
+      <c r="Y26" s="47">
         <v>7</v>
       </c>
-      <c r="J26" s="46">
+      <c r="Z26" s="47">
         <v>6</v>
       </c>
-      <c r="K26" s="46">
+      <c r="AA26" s="47">
         <v>5</v>
       </c>
-      <c r="L26" s="46">
+      <c r="AB26" s="47">
         <v>4</v>
       </c>
-      <c r="M26" s="46">
+      <c r="AC26" s="47">
         <v>3</v>
       </c>
-      <c r="N26" s="46">
+      <c r="AD26" s="47">
         <v>2</v>
       </c>
-      <c r="O26" s="46">
+      <c r="AE26" s="47">
         <v>1</v>
       </c>
-      <c r="P26" s="46">
+      <c r="AF26" s="48">
         <v>0</v>
       </c>
-      <c r="Q26" s="47">
-        <v>31</v>
-      </c>
-      <c r="R26" s="48">
-        <v>30</v>
-      </c>
-      <c r="S26" s="48">
-        <v>29</v>
-      </c>
-      <c r="T26" s="48">
-        <v>28</v>
-      </c>
-      <c r="U26" s="48">
-        <v>27</v>
-      </c>
-      <c r="V26" s="48">
-        <v>26</v>
-      </c>
-      <c r="W26" s="48">
-        <v>25</v>
-      </c>
-      <c r="X26" s="48">
-        <v>24</v>
-      </c>
-      <c r="Y26" s="48">
-        <v>23</v>
-      </c>
-      <c r="Z26" s="48">
-        <v>22</v>
-      </c>
-      <c r="AA26" s="48">
-        <v>21</v>
-      </c>
-      <c r="AB26" s="48">
-        <v>20</v>
-      </c>
-      <c r="AC26" s="48">
-        <v>19</v>
-      </c>
-      <c r="AD26" s="48">
-        <v>18</v>
-      </c>
-      <c r="AE26" s="48">
-        <v>17</v>
-      </c>
-      <c r="AF26" s="48">
-        <v>16</v>
-      </c>
-      <c r="AG26" s="48">
+      <c r="AG26" s="45">
         <v>15</v>
       </c>
-      <c r="AH26" s="48">
+      <c r="AH26" s="45">
         <v>14</v>
       </c>
-      <c r="AI26" s="48">
+      <c r="AI26" s="45">
         <v>13</v>
       </c>
-      <c r="AJ26" s="48">
+      <c r="AJ26" s="45">
         <v>12</v>
       </c>
-      <c r="AK26" s="48">
+      <c r="AK26" s="45">
         <v>11</v>
       </c>
-      <c r="AL26" s="48">
+      <c r="AL26" s="45">
         <v>10</v>
       </c>
-      <c r="AM26" s="48">
+      <c r="AM26" s="45">
         <v>9</v>
       </c>
-      <c r="AN26" s="48">
+      <c r="AN26" s="45">
         <v>8</v>
       </c>
-      <c r="AO26" s="48">
+      <c r="AO26" s="45">
         <v>7</v>
       </c>
-      <c r="AP26" s="48">
+      <c r="AP26" s="45">
         <v>6</v>
       </c>
-      <c r="AQ26" s="48">
+      <c r="AQ26" s="45">
         <v>5</v>
       </c>
-      <c r="AR26" s="48">
+      <c r="AR26" s="45">
         <v>4</v>
       </c>
-      <c r="AS26" s="48">
+      <c r="AS26" s="45">
         <v>3</v>
       </c>
-      <c r="AT26" s="48">
+      <c r="AT26" s="45">
         <v>2</v>
       </c>
-      <c r="AU26" s="48">
+      <c r="AU26" s="45">
         <v>1</v>
       </c>
-      <c r="AV26" s="49">
+      <c r="AV26" s="45">
         <v>0</v>
       </c>
     </row>
@@ -1975,202 +2089,202 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65" t="s">
+      <c r="A28" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
     </row>
     <row r="29" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="46">
+        <v>31</v>
+      </c>
+      <c r="B29" s="47">
+        <v>30</v>
+      </c>
+      <c r="C29" s="47">
+        <v>29</v>
+      </c>
+      <c r="D29" s="47">
+        <v>28</v>
+      </c>
+      <c r="E29" s="47">
+        <v>27</v>
+      </c>
+      <c r="F29" s="47">
+        <v>26</v>
+      </c>
+      <c r="G29" s="47">
+        <v>25</v>
+      </c>
+      <c r="H29" s="47">
+        <v>24</v>
+      </c>
+      <c r="I29" s="47">
+        <v>23</v>
+      </c>
+      <c r="J29" s="47">
+        <v>22</v>
+      </c>
+      <c r="K29" s="47">
+        <v>21</v>
+      </c>
+      <c r="L29" s="47">
+        <v>20</v>
+      </c>
+      <c r="M29" s="47">
+        <v>19</v>
+      </c>
+      <c r="N29" s="47">
+        <v>18</v>
+      </c>
+      <c r="O29" s="47">
+        <v>17</v>
+      </c>
+      <c r="P29" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="47">
         <v>15</v>
       </c>
-      <c r="B29" s="46">
+      <c r="R29" s="47">
         <v>14</v>
       </c>
-      <c r="C29" s="46">
+      <c r="S29" s="47">
         <v>13</v>
       </c>
-      <c r="D29" s="46">
+      <c r="T29" s="47">
         <v>12</v>
       </c>
-      <c r="E29" s="46">
+      <c r="U29" s="47">
         <v>11</v>
       </c>
-      <c r="F29" s="46">
+      <c r="V29" s="47">
         <v>10</v>
       </c>
-      <c r="G29" s="46">
+      <c r="W29" s="47">
         <v>9</v>
       </c>
-      <c r="H29" s="46">
+      <c r="X29" s="47">
         <v>8</v>
       </c>
-      <c r="I29" s="46">
+      <c r="Y29" s="47">
         <v>7</v>
       </c>
-      <c r="J29" s="46">
+      <c r="Z29" s="47">
         <v>6</v>
       </c>
-      <c r="K29" s="46">
+      <c r="AA29" s="47">
         <v>5</v>
       </c>
-      <c r="L29" s="46">
+      <c r="AB29" s="47">
         <v>4</v>
       </c>
-      <c r="M29" s="46">
+      <c r="AC29" s="47">
         <v>3</v>
       </c>
-      <c r="N29" s="46">
+      <c r="AD29" s="47">
         <v>2</v>
       </c>
-      <c r="O29" s="46">
+      <c r="AE29" s="47">
         <v>1</v>
       </c>
-      <c r="P29" s="46">
+      <c r="AF29" s="48">
         <v>0</v>
       </c>
-      <c r="Q29" s="47">
-        <v>31</v>
-      </c>
-      <c r="R29" s="48">
-        <v>30</v>
-      </c>
-      <c r="S29" s="48">
-        <v>29</v>
-      </c>
-      <c r="T29" s="48">
-        <v>28</v>
-      </c>
-      <c r="U29" s="48">
-        <v>27</v>
-      </c>
-      <c r="V29" s="48">
-        <v>26</v>
-      </c>
-      <c r="W29" s="48">
-        <v>25</v>
-      </c>
-      <c r="X29" s="48">
-        <v>24</v>
-      </c>
-      <c r="Y29" s="48">
-        <v>23</v>
-      </c>
-      <c r="Z29" s="48">
-        <v>22</v>
-      </c>
-      <c r="AA29" s="48">
-        <v>21</v>
-      </c>
-      <c r="AB29" s="48">
-        <v>20</v>
-      </c>
-      <c r="AC29" s="48">
-        <v>19</v>
-      </c>
-      <c r="AD29" s="48">
-        <v>18</v>
-      </c>
-      <c r="AE29" s="48">
-        <v>17</v>
-      </c>
-      <c r="AF29" s="48">
-        <v>16</v>
-      </c>
-      <c r="AG29" s="48">
+      <c r="AG29" s="45">
         <v>15</v>
       </c>
-      <c r="AH29" s="48">
+      <c r="AH29" s="45">
         <v>14</v>
       </c>
-      <c r="AI29" s="48">
+      <c r="AI29" s="45">
         <v>13</v>
       </c>
-      <c r="AJ29" s="48">
+      <c r="AJ29" s="45">
         <v>12</v>
       </c>
-      <c r="AK29" s="48">
+      <c r="AK29" s="45">
         <v>11</v>
       </c>
-      <c r="AL29" s="48">
+      <c r="AL29" s="45">
         <v>10</v>
       </c>
-      <c r="AM29" s="48">
+      <c r="AM29" s="45">
         <v>9</v>
       </c>
-      <c r="AN29" s="48">
+      <c r="AN29" s="45">
         <v>8</v>
       </c>
-      <c r="AO29" s="48">
+      <c r="AO29" s="45">
         <v>7</v>
       </c>
-      <c r="AP29" s="48">
+      <c r="AP29" s="45">
         <v>6</v>
       </c>
-      <c r="AQ29" s="48">
+      <c r="AQ29" s="45">
         <v>5</v>
       </c>
-      <c r="AR29" s="48">
+      <c r="AR29" s="45">
         <v>4</v>
       </c>
-      <c r="AS29" s="48">
+      <c r="AS29" s="45">
         <v>3</v>
       </c>
-      <c r="AT29" s="48">
+      <c r="AT29" s="45">
         <v>2</v>
       </c>
-      <c r="AU29" s="48">
+      <c r="AU29" s="45">
         <v>1</v>
       </c>
-      <c r="AV29" s="49">
+      <c r="AV29" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2180,202 +2294,202 @@
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65" t="s">
+      <c r="A31" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
     </row>
     <row r="32" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="46">
+        <v>31</v>
+      </c>
+      <c r="B32" s="47">
+        <v>30</v>
+      </c>
+      <c r="C32" s="47">
+        <v>29</v>
+      </c>
+      <c r="D32" s="47">
+        <v>28</v>
+      </c>
+      <c r="E32" s="47">
+        <v>27</v>
+      </c>
+      <c r="F32" s="47">
+        <v>26</v>
+      </c>
+      <c r="G32" s="47">
+        <v>25</v>
+      </c>
+      <c r="H32" s="47">
+        <v>24</v>
+      </c>
+      <c r="I32" s="47">
+        <v>23</v>
+      </c>
+      <c r="J32" s="47">
+        <v>22</v>
+      </c>
+      <c r="K32" s="47">
+        <v>21</v>
+      </c>
+      <c r="L32" s="47">
+        <v>20</v>
+      </c>
+      <c r="M32" s="47">
+        <v>19</v>
+      </c>
+      <c r="N32" s="47">
+        <v>18</v>
+      </c>
+      <c r="O32" s="47">
+        <v>17</v>
+      </c>
+      <c r="P32" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="47">
         <v>15</v>
       </c>
-      <c r="B32" s="46">
+      <c r="R32" s="47">
         <v>14</v>
       </c>
-      <c r="C32" s="46">
+      <c r="S32" s="47">
         <v>13</v>
       </c>
-      <c r="D32" s="46">
+      <c r="T32" s="47">
         <v>12</v>
       </c>
-      <c r="E32" s="46">
+      <c r="U32" s="47">
         <v>11</v>
       </c>
-      <c r="F32" s="46">
+      <c r="V32" s="47">
         <v>10</v>
       </c>
-      <c r="G32" s="46">
+      <c r="W32" s="47">
         <v>9</v>
       </c>
-      <c r="H32" s="46">
+      <c r="X32" s="47">
         <v>8</v>
       </c>
-      <c r="I32" s="46">
+      <c r="Y32" s="47">
         <v>7</v>
       </c>
-      <c r="J32" s="46">
+      <c r="Z32" s="47">
         <v>6</v>
       </c>
-      <c r="K32" s="46">
+      <c r="AA32" s="47">
         <v>5</v>
       </c>
-      <c r="L32" s="46">
+      <c r="AB32" s="47">
         <v>4</v>
       </c>
-      <c r="M32" s="46">
+      <c r="AC32" s="47">
         <v>3</v>
       </c>
-      <c r="N32" s="46">
+      <c r="AD32" s="47">
         <v>2</v>
       </c>
-      <c r="O32" s="46">
+      <c r="AE32" s="47">
         <v>1</v>
       </c>
-      <c r="P32" s="46">
+      <c r="AF32" s="48">
         <v>0</v>
       </c>
-      <c r="Q32" s="47">
-        <v>31</v>
-      </c>
-      <c r="R32" s="48">
-        <v>30</v>
-      </c>
-      <c r="S32" s="48">
-        <v>29</v>
-      </c>
-      <c r="T32" s="48">
-        <v>28</v>
-      </c>
-      <c r="U32" s="48">
-        <v>27</v>
-      </c>
-      <c r="V32" s="48">
-        <v>26</v>
-      </c>
-      <c r="W32" s="48">
-        <v>25</v>
-      </c>
-      <c r="X32" s="48">
-        <v>24</v>
-      </c>
-      <c r="Y32" s="48">
-        <v>23</v>
-      </c>
-      <c r="Z32" s="48">
-        <v>22</v>
-      </c>
-      <c r="AA32" s="48">
-        <v>21</v>
-      </c>
-      <c r="AB32" s="48">
-        <v>20</v>
-      </c>
-      <c r="AC32" s="48">
-        <v>19</v>
-      </c>
-      <c r="AD32" s="48">
-        <v>18</v>
-      </c>
-      <c r="AE32" s="48">
-        <v>17</v>
-      </c>
-      <c r="AF32" s="48">
-        <v>16</v>
-      </c>
-      <c r="AG32" s="48">
+      <c r="AG32" s="45">
         <v>15</v>
       </c>
-      <c r="AH32" s="48">
+      <c r="AH32" s="45">
         <v>14</v>
       </c>
-      <c r="AI32" s="48">
+      <c r="AI32" s="45">
         <v>13</v>
       </c>
-      <c r="AJ32" s="48">
+      <c r="AJ32" s="45">
         <v>12</v>
       </c>
-      <c r="AK32" s="48">
+      <c r="AK32" s="45">
         <v>11</v>
       </c>
-      <c r="AL32" s="48">
+      <c r="AL32" s="45">
         <v>10</v>
       </c>
-      <c r="AM32" s="48">
+      <c r="AM32" s="45">
         <v>9</v>
       </c>
-      <c r="AN32" s="48">
+      <c r="AN32" s="45">
         <v>8</v>
       </c>
-      <c r="AO32" s="48">
+      <c r="AO32" s="45">
         <v>7</v>
       </c>
-      <c r="AP32" s="48">
+      <c r="AP32" s="45">
         <v>6</v>
       </c>
-      <c r="AQ32" s="48">
+      <c r="AQ32" s="45">
         <v>5</v>
       </c>
-      <c r="AR32" s="48">
+      <c r="AR32" s="45">
         <v>4</v>
       </c>
-      <c r="AS32" s="48">
+      <c r="AS32" s="45">
         <v>3</v>
       </c>
-      <c r="AT32" s="48">
+      <c r="AT32" s="45">
         <v>2</v>
       </c>
-      <c r="AU32" s="48">
+      <c r="AU32" s="45">
         <v>1</v>
       </c>
-      <c r="AV32" s="49">
+      <c r="AV32" s="45">
         <v>0</v>
       </c>
     </row>
@@ -2385,11 +2499,11 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="63"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="71" t="s">
-        <v>90</v>
+      <c r="A35" s="62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -2408,12 +2522,12 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="63" t="s">
-        <v>58</v>
+      <c r="A39" s="61" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
@@ -2425,123 +2539,120 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="47">
+      <c r="A41" s="46">
         <v>31</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="47">
         <v>30</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="47">
         <v>29</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="47">
         <v>28</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="47">
         <v>27</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="47">
         <v>26</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="47">
         <v>25</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="47">
         <v>24</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="47">
         <v>23</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="47">
         <v>22</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="47">
         <v>21</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="47">
         <v>20</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="47">
         <v>19</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="47">
         <v>18</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="47">
         <v>17</v>
       </c>
-      <c r="P41" s="48">
+      <c r="P41" s="47">
         <v>16</v>
       </c>
-      <c r="Q41" s="48">
+      <c r="Q41" s="47">
         <v>15</v>
       </c>
-      <c r="R41" s="48">
+      <c r="R41" s="47">
         <v>14</v>
       </c>
-      <c r="S41" s="48">
+      <c r="S41" s="47">
         <v>13</v>
       </c>
-      <c r="T41" s="48">
+      <c r="T41" s="47">
         <v>12</v>
       </c>
-      <c r="U41" s="48">
+      <c r="U41" s="47">
         <v>11</v>
       </c>
-      <c r="V41" s="48">
+      <c r="V41" s="47">
         <v>10</v>
       </c>
-      <c r="W41" s="48">
+      <c r="W41" s="47">
         <v>9</v>
       </c>
-      <c r="X41" s="48">
+      <c r="X41" s="47">
         <v>8</v>
       </c>
-      <c r="Y41" s="48">
+      <c r="Y41" s="47">
         <v>7</v>
       </c>
-      <c r="Z41" s="48">
+      <c r="Z41" s="47">
         <v>6</v>
       </c>
-      <c r="AA41" s="48">
+      <c r="AA41" s="47">
         <v>5</v>
       </c>
-      <c r="AB41" s="48">
+      <c r="AB41" s="47">
         <v>4</v>
       </c>
-      <c r="AC41" s="48">
+      <c r="AC41" s="47">
         <v>3</v>
       </c>
-      <c r="AD41" s="48">
+      <c r="AD41" s="47">
         <v>2</v>
       </c>
-      <c r="AE41" s="48">
+      <c r="AE41" s="47">
         <v>1</v>
       </c>
-      <c r="AF41" s="49">
+      <c r="AF41" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="71" t="s">
-        <v>94</v>
+      <c r="A43" s="62" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="63"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
+      <c r="A45" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
+    <mergeCell ref="AG25:AV25"/>
+    <mergeCell ref="AG28:AV28"/>
+    <mergeCell ref="AG31:AV31"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q25:AV25"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="Q28:AV28"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="Q31:AV31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -2550,165 +2661,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E0DF2-8A95-4FC9-B451-93711BBBA99F}">
-  <dimension ref="A1:BL2"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="12" max="12" width="4.453125" customWidth="1"/>
+    <col min="16" max="16" width="4.6328125" customWidth="1"/>
+    <col min="20" max="20" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>63</v>
+      </c>
+      <c r="B2" s="12">
+        <v>62</v>
+      </c>
+      <c r="C2" s="12">
+        <v>61</v>
+      </c>
+      <c r="D2" s="12">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12">
+        <v>58</v>
+      </c>
+      <c r="G2" s="12">
+        <v>57</v>
+      </c>
+      <c r="H2" s="12">
+        <v>56</v>
+      </c>
+      <c r="I2" s="12">
+        <v>55</v>
+      </c>
+      <c r="J2" s="12">
+        <v>54</v>
+      </c>
+      <c r="K2" s="12">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12">
+        <v>52</v>
+      </c>
+      <c r="M2" s="12">
+        <v>51</v>
+      </c>
+      <c r="N2" s="12">
+        <v>50</v>
+      </c>
+      <c r="O2" s="12">
+        <v>49</v>
+      </c>
+      <c r="P2" s="12">
         <v>48</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45">
-        <v>15</v>
-      </c>
-      <c r="B2" s="45">
-        <v>14</v>
-      </c>
-      <c r="C2" s="45">
-        <v>13</v>
-      </c>
-      <c r="D2" s="45">
-        <v>12</v>
-      </c>
-      <c r="E2" s="45">
-        <v>11</v>
-      </c>
-      <c r="F2" s="45">
-        <v>10</v>
-      </c>
-      <c r="G2" s="45">
-        <v>9</v>
-      </c>
-      <c r="H2" s="45">
-        <v>8</v>
-      </c>
-      <c r="I2" s="45">
-        <v>7</v>
-      </c>
-      <c r="J2" s="45">
-        <v>6</v>
-      </c>
-      <c r="K2" s="45">
-        <v>5</v>
-      </c>
-      <c r="L2" s="45">
-        <v>4</v>
-      </c>
-      <c r="M2" s="45">
-        <v>3</v>
-      </c>
-      <c r="N2" s="45">
-        <v>2</v>
-      </c>
-      <c r="O2" s="45">
-        <v>1</v>
-      </c>
-      <c r="P2" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="46">
-        <v>15</v>
-      </c>
-      <c r="R2" s="46">
-        <v>14</v>
-      </c>
-      <c r="S2" s="46">
-        <v>13</v>
-      </c>
-      <c r="T2" s="46">
-        <v>12</v>
-      </c>
-      <c r="U2" s="46">
-        <v>11</v>
-      </c>
-      <c r="V2" s="46">
-        <v>10</v>
-      </c>
-      <c r="W2" s="46">
-        <v>9</v>
-      </c>
-      <c r="X2" s="46">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="46">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="46">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="46">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="46">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="46">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="46">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="46">
-        <v>0</v>
+      <c r="Q2" s="10">
+        <v>47</v>
+      </c>
+      <c r="R2" s="10">
+        <v>46</v>
+      </c>
+      <c r="S2" s="10">
+        <v>45</v>
+      </c>
+      <c r="T2" s="10">
+        <v>44</v>
+      </c>
+      <c r="U2" s="10">
+        <v>43</v>
+      </c>
+      <c r="V2" s="10">
+        <v>42</v>
+      </c>
+      <c r="W2" s="10">
+        <v>41</v>
+      </c>
+      <c r="X2" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>32</v>
       </c>
       <c r="AG2" s="12">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AH2" s="12">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AI2" s="12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AJ2" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AK2" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AL2" s="12">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AM2" s="12">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AN2" s="12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="12">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AP2" s="12">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AR2" s="12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="12">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AT2" s="12">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AU2" s="12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AV2" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW2" s="10">
         <v>15</v>
@@ -2759,8 +2874,1685 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="65">
+        <v>0</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>63</v>
+      </c>
+      <c r="B14" s="12">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12">
+        <v>61</v>
+      </c>
+      <c r="D14" s="12">
+        <v>60</v>
+      </c>
+      <c r="E14" s="12">
+        <v>59</v>
+      </c>
+      <c r="F14" s="12">
+        <v>58</v>
+      </c>
+      <c r="G14" s="12">
+        <v>57</v>
+      </c>
+      <c r="H14" s="12">
+        <v>56</v>
+      </c>
+      <c r="I14" s="12">
+        <v>55</v>
+      </c>
+      <c r="J14" s="12">
+        <v>54</v>
+      </c>
+      <c r="K14" s="12">
+        <v>53</v>
+      </c>
+      <c r="L14" s="12">
+        <v>52</v>
+      </c>
+      <c r="M14" s="12">
+        <v>51</v>
+      </c>
+      <c r="N14" s="12">
+        <v>50</v>
+      </c>
+      <c r="O14" s="12">
+        <v>49</v>
+      </c>
+      <c r="P14" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>47</v>
+      </c>
+      <c r="R14" s="10">
+        <v>46</v>
+      </c>
+      <c r="S14" s="10">
+        <v>45</v>
+      </c>
+      <c r="T14" s="10">
+        <v>44</v>
+      </c>
+      <c r="U14" s="10">
+        <v>43</v>
+      </c>
+      <c r="V14" s="10">
+        <v>42</v>
+      </c>
+      <c r="W14" s="10">
+        <v>41</v>
+      </c>
+      <c r="X14" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>29</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>28</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>26</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>25</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>23</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>22</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>21</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>19</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>18</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>17</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>16</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY14" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ14" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB14" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC14" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD14" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG14" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH14" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI14" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ14" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK14" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A15" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="65">
+        <v>0</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="68"/>
+      <c r="T15" s="75">
+        <v>1</v>
+      </c>
+      <c r="U15" s="76">
+        <v>0</v>
+      </c>
+      <c r="V15" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="W15" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y15" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>63</v>
+      </c>
+      <c r="B18" s="12">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12">
+        <v>61</v>
+      </c>
+      <c r="D18" s="12">
+        <v>60</v>
+      </c>
+      <c r="E18" s="12">
+        <v>59</v>
+      </c>
+      <c r="F18" s="12">
+        <v>58</v>
+      </c>
+      <c r="G18" s="12">
+        <v>57</v>
+      </c>
+      <c r="H18" s="12">
+        <v>56</v>
+      </c>
+      <c r="I18" s="12">
+        <v>55</v>
+      </c>
+      <c r="J18" s="12">
+        <v>54</v>
+      </c>
+      <c r="K18" s="12">
+        <v>53</v>
+      </c>
+      <c r="L18" s="12">
+        <v>52</v>
+      </c>
+      <c r="M18" s="12">
+        <v>51</v>
+      </c>
+      <c r="N18" s="12">
+        <v>50</v>
+      </c>
+      <c r="O18" s="12">
+        <v>49</v>
+      </c>
+      <c r="P18" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>47</v>
+      </c>
+      <c r="R18" s="10">
+        <v>46</v>
+      </c>
+      <c r="S18" s="10">
+        <v>45</v>
+      </c>
+      <c r="T18" s="10">
+        <v>44</v>
+      </c>
+      <c r="U18" s="10">
+        <v>43</v>
+      </c>
+      <c r="V18" s="10">
+        <v>42</v>
+      </c>
+      <c r="W18" s="10">
+        <v>41</v>
+      </c>
+      <c r="X18" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>29</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>28</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>26</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>25</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="12">
+        <v>23</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>22</v>
+      </c>
+      <c r="AQ18" s="12">
+        <v>21</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>19</v>
+      </c>
+      <c r="AT18" s="12">
+        <v>18</v>
+      </c>
+      <c r="AU18" s="12">
+        <v>17</v>
+      </c>
+      <c r="AV18" s="12">
+        <v>16</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ18" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC18" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG18" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH18" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI18" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ18" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK18" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A19" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="65">
+        <v>0</v>
+      </c>
+      <c r="L19" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="68"/>
+      <c r="T19" s="75">
+        <v>1</v>
+      </c>
+      <c r="U19" s="76">
+        <v>0</v>
+      </c>
+      <c r="V19" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="W19" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>63</v>
+      </c>
+      <c r="B22" s="12">
+        <v>62</v>
+      </c>
+      <c r="C22" s="12">
+        <v>61</v>
+      </c>
+      <c r="D22" s="12">
+        <v>60</v>
+      </c>
+      <c r="E22" s="12">
+        <v>59</v>
+      </c>
+      <c r="F22" s="12">
+        <v>58</v>
+      </c>
+      <c r="G22" s="12">
+        <v>57</v>
+      </c>
+      <c r="H22" s="12">
+        <v>56</v>
+      </c>
+      <c r="I22" s="12">
+        <v>55</v>
+      </c>
+      <c r="J22" s="12">
+        <v>54</v>
+      </c>
+      <c r="K22" s="12">
+        <v>53</v>
+      </c>
+      <c r="L22" s="12">
+        <v>52</v>
+      </c>
+      <c r="M22" s="12">
+        <v>51</v>
+      </c>
+      <c r="N22" s="12">
+        <v>50</v>
+      </c>
+      <c r="O22" s="12">
+        <v>49</v>
+      </c>
+      <c r="P22" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>47</v>
+      </c>
+      <c r="R22" s="10">
+        <v>46</v>
+      </c>
+      <c r="S22" s="10">
+        <v>45</v>
+      </c>
+      <c r="T22" s="10">
+        <v>44</v>
+      </c>
+      <c r="U22" s="10">
+        <v>43</v>
+      </c>
+      <c r="V22" s="10">
+        <v>42</v>
+      </c>
+      <c r="W22" s="10">
+        <v>41</v>
+      </c>
+      <c r="X22" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>29</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>28</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>26</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>25</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>23</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>22</v>
+      </c>
+      <c r="AQ22" s="12">
+        <v>21</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>19</v>
+      </c>
+      <c r="AT22" s="12">
+        <v>18</v>
+      </c>
+      <c r="AU22" s="12">
+        <v>17</v>
+      </c>
+      <c r="AV22" s="12">
+        <v>16</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ22" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA22" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB22" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC22" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD22" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE22" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF22" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG22" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH22" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI22" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ22" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A23" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="76"/>
+      <c r="K23" s="65">
+        <v>0</v>
+      </c>
+      <c r="L23" s="65"/>
+      <c r="M23" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="68"/>
+      <c r="T23" s="75">
+        <v>0</v>
+      </c>
+      <c r="U23" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="68"/>
+      <c r="AO23" s="68"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
+      <c r="AW23" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="68"/>
+      <c r="BC23" s="68"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="68"/>
+      <c r="BJ23" s="68"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+    </row>
+    <row r="25" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>63</v>
+      </c>
+      <c r="B26" s="12">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12">
+        <v>61</v>
+      </c>
+      <c r="D26" s="12">
+        <v>60</v>
+      </c>
+      <c r="E26" s="12">
+        <v>59</v>
+      </c>
+      <c r="F26" s="12">
+        <v>58</v>
+      </c>
+      <c r="G26" s="12">
+        <v>57</v>
+      </c>
+      <c r="H26" s="12">
+        <v>56</v>
+      </c>
+      <c r="I26" s="12">
+        <v>55</v>
+      </c>
+      <c r="J26" s="12">
+        <v>54</v>
+      </c>
+      <c r="K26" s="12">
+        <v>53</v>
+      </c>
+      <c r="L26" s="12">
+        <v>52</v>
+      </c>
+      <c r="M26" s="12">
+        <v>51</v>
+      </c>
+      <c r="N26" s="12">
+        <v>50</v>
+      </c>
+      <c r="O26" s="12">
+        <v>49</v>
+      </c>
+      <c r="P26" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>47</v>
+      </c>
+      <c r="R26" s="10">
+        <v>46</v>
+      </c>
+      <c r="S26" s="10">
+        <v>45</v>
+      </c>
+      <c r="T26" s="10">
+        <v>44</v>
+      </c>
+      <c r="U26" s="10">
+        <v>43</v>
+      </c>
+      <c r="V26" s="10">
+        <v>42</v>
+      </c>
+      <c r="W26" s="10">
+        <v>41</v>
+      </c>
+      <c r="X26" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>29</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>28</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>26</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>25</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>23</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>22</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>21</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>19</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>18</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>17</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>16</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY26" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ26" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA26" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB26" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC26" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD26" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE26" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF26" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG26" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH26" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI26" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ26" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK26" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A27" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S27" s="68"/>
+      <c r="T27" s="65">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="68"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="68"/>
+      <c r="BI27" s="68"/>
+      <c r="BJ27" s="68"/>
+      <c r="BK27" s="68"/>
+      <c r="BL27" s="68"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="65"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+    </row>
+    <row r="29" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="F29" s="63"/>
+    </row>
+    <row r="30" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>63</v>
+      </c>
+      <c r="B30" s="12">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12">
+        <v>61</v>
+      </c>
+      <c r="D30" s="12">
+        <v>60</v>
+      </c>
+      <c r="E30" s="12">
+        <v>59</v>
+      </c>
+      <c r="F30" s="12">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12">
+        <v>57</v>
+      </c>
+      <c r="H30" s="12">
+        <v>56</v>
+      </c>
+      <c r="I30" s="12">
+        <v>55</v>
+      </c>
+      <c r="J30" s="12">
+        <v>54</v>
+      </c>
+      <c r="K30" s="12">
+        <v>53</v>
+      </c>
+      <c r="L30" s="12">
+        <v>52</v>
+      </c>
+      <c r="M30" s="12">
+        <v>51</v>
+      </c>
+      <c r="N30" s="12">
+        <v>50</v>
+      </c>
+      <c r="O30" s="12">
+        <v>49</v>
+      </c>
+      <c r="P30" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>47</v>
+      </c>
+      <c r="R30" s="10">
+        <v>46</v>
+      </c>
+      <c r="S30" s="10">
+        <v>45</v>
+      </c>
+      <c r="T30" s="10">
+        <v>44</v>
+      </c>
+      <c r="U30" s="10">
+        <v>43</v>
+      </c>
+      <c r="V30" s="10">
+        <v>42</v>
+      </c>
+      <c r="W30" s="10">
+        <v>41</v>
+      </c>
+      <c r="X30" s="10">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>37</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>36</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>35</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>33</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>32</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>29</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>28</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>27</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>26</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>25</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>23</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>22</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>21</v>
+      </c>
+      <c r="AR30" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>19</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>18</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>17</v>
+      </c>
+      <c r="AV30" s="12">
+        <v>16</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>15</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY30" s="10">
+        <v>13</v>
+      </c>
+      <c r="AZ30" s="10">
+        <v>12</v>
+      </c>
+      <c r="BA30" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB30" s="10">
+        <v>10</v>
+      </c>
+      <c r="BC30" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD30" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE30" s="10">
+        <v>7</v>
+      </c>
+      <c r="BF30" s="10">
+        <v>6</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH30" s="10">
+        <v>4</v>
+      </c>
+      <c r="BI30" s="10">
+        <v>3</v>
+      </c>
+      <c r="BJ30" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK30" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A31" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S31" s="68"/>
+      <c r="T31" s="65">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="68"/>
+      <c r="AL31" s="68"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="68"/>
+      <c r="BI31" s="68"/>
+      <c r="BJ31" s="68"/>
+      <c r="BK31" s="68"/>
+      <c r="BL31" s="68"/>
+    </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AW23:BL23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AV23"/>
+    <mergeCell ref="AG15:AV15"/>
+    <mergeCell ref="AW15:BL15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AV19"/>
+    <mergeCell ref="AW19:BL19"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AG3:AV3"/>
+    <mergeCell ref="AW3:BL3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="AW27:BL27"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="AG31:AV31"/>
+    <mergeCell ref="AW31:BL31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2768,7 +4560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2776,7 +4568,7 @@
   <cols>
     <col min="1" max="1" width="6.36328125" customWidth="1"/>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="49" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.08984375" customWidth="1"/>
@@ -2797,7 +4589,7 @@
       <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="70" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="44"/>
@@ -2809,7 +4601,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="68"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -2819,7 +4611,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
@@ -2829,7 +4621,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="68"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
       <c r="L4" s="44"/>
@@ -2841,7 +4633,7 @@
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="68"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
@@ -2851,7 +4643,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="68"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
@@ -2861,14 +4653,14 @@
       <c r="F7" s="24"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>43</v>
@@ -2878,14 +4670,14 @@
       <c r="H8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
     <row r="9" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
@@ -2893,7 +4685,7 @@
       <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="70" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="44"/>
@@ -2902,46 +4694,46 @@
     </row>
     <row r="10" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="68"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="68"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
     </row>
     <row r="13" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24" t="s">
@@ -2949,7 +4741,7 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="68"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
@@ -2959,12 +4751,12 @@
       <c r="F14" s="24"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="66" t="s">
+      <c r="N14" s="69" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2973,12 +4765,12 @@
       <c r="F15" s="24"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="68"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="66"/>
+      <c r="N15" s="69"/>
     </row>
     <row r="16" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E16" s="25" t="s">
@@ -2989,12 +4781,12 @@
       <c r="H16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="69"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="66"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E17" s="21"/>
@@ -3003,7 +4795,7 @@
       <c r="H17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="70" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="44"/>
@@ -3012,19 +4804,19 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="66"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="68"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="69"/>
       <c r="O18" t="s">
         <v>15</v>
       </c>
@@ -3034,12 +4826,12 @@
       <c r="F19" s="24"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="68"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="66" t="s">
+      <c r="N19" s="69" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3048,12 +4840,12 @@
       <c r="F20" s="24"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="68"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="66"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="23"/>
@@ -3062,12 +4854,12 @@
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="68"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="66"/>
+      <c r="N21" s="69"/>
       <c r="O21" t="s">
         <v>41</v>
       </c>
@@ -3077,7 +4869,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="68"/>
+      <c r="I22" s="71"/>
       <c r="M22" s="7"/>
       <c r="N22" s="20" t="s">
         <v>40</v>
@@ -3091,7 +4883,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="68"/>
+      <c r="I23" s="71"/>
       <c r="M23" s="6"/>
       <c r="N23" s="20" t="s">
         <v>39</v>
@@ -3109,7 +4901,7 @@
       <c r="H24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="72"/>
       <c r="M24" s="5"/>
       <c r="N24" s="20" t="s">
         <v>8</v>
@@ -3153,17 +4945,17 @@
       <c r="P26" s="26"/>
     </row>
     <row r="30" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="C30" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="D30" s="58" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -3173,10 +4965,10 @@
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <v>0</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3185,12 +4977,12 @@
         <v>11</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="52">
+        <v>61</v>
+      </c>
+      <c r="C32" s="51">
         <v>0</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3199,13 +4991,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>70</v>
+      <c r="D33" s="54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -3213,13 +5005,13 @@
         <v>21</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3227,13 +5019,13 @@
         <v>21</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +5044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112F238-A3C0-4767-9158-5E3CEE8F19C2}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -3291,12 +5083,12 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="22"/>
-      <c r="AG1" s="70" t="s">
-        <v>60</v>
+      <c r="AG1" s="73" t="s">
+        <v>59</v>
       </c>
       <c r="AL1" s="21"/>
       <c r="AM1" s="22"/>
-      <c r="AN1" s="67" t="s">
+      <c r="AN1" s="70" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3333,10 +5125,10 @@
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="24"/>
-      <c r="AG2" s="70"/>
+      <c r="AG2" s="73"/>
       <c r="AL2" s="23"/>
       <c r="AM2" s="24"/>
-      <c r="AN2" s="68"/>
+      <c r="AN2" s="71"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
@@ -3371,10 +5163,10 @@
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="24"/>
-      <c r="AG3" s="70"/>
+      <c r="AG3" s="73"/>
       <c r="AL3" s="23"/>
       <c r="AM3" s="24"/>
-      <c r="AN3" s="68"/>
+      <c r="AN3" s="71"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
@@ -3409,10 +5201,10 @@
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="70"/>
+      <c r="AG4" s="73"/>
       <c r="AL4" s="23"/>
       <c r="AM4" s="24"/>
-      <c r="AN4" s="68"/>
+      <c r="AN4" s="71"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
@@ -3447,10 +5239,10 @@
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="24"/>
-      <c r="AG5" s="70"/>
+      <c r="AG5" s="73"/>
       <c r="AL5" s="23"/>
       <c r="AM5" s="24"/>
-      <c r="AN5" s="68"/>
+      <c r="AN5" s="71"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
@@ -3485,10 +5277,10 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="24"/>
-      <c r="AG6" s="70"/>
+      <c r="AG6" s="73"/>
       <c r="AL6" s="23"/>
       <c r="AM6" s="24"/>
-      <c r="AN6" s="68"/>
+      <c r="AN6" s="71"/>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
@@ -3523,10 +5315,10 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="24"/>
-      <c r="AG7" s="70"/>
+      <c r="AG7" s="73"/>
       <c r="AL7" s="23"/>
       <c r="AM7" s="24"/>
-      <c r="AN7" s="68"/>
+      <c r="AN7" s="71"/>
     </row>
     <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36"/>
@@ -3561,10 +5353,10 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="38"/>
-      <c r="AG8" s="70"/>
+      <c r="AG8" s="73"/>
       <c r="AL8" s="25"/>
       <c r="AM8" s="26"/>
-      <c r="AN8" s="69"/>
+      <c r="AN8" s="72"/>
       <c r="AO8" t="s">
         <v>30</v>
       </c>
@@ -3602,10 +5394,10 @@
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="41"/>
-      <c r="AG9" s="70"/>
+      <c r="AG9" s="73"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="22"/>
-      <c r="AN9" s="67" t="s">
+      <c r="AN9" s="70" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3642,10 +5434,10 @@
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="41"/>
-      <c r="AG10" s="70"/>
+      <c r="AG10" s="73"/>
       <c r="AL10" s="23"/>
       <c r="AM10" s="24"/>
-      <c r="AN10" s="68"/>
+      <c r="AN10" s="71"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
@@ -3680,10 +5472,10 @@
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="41"/>
-      <c r="AG11" s="70"/>
+      <c r="AG11" s="73"/>
       <c r="AL11" s="23"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="68"/>
+      <c r="AN11" s="71"/>
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27">
@@ -3782,20 +5574,20 @@
       <c r="AF12" s="29">
         <v>0</v>
       </c>
-      <c r="AG12" s="70"/>
+      <c r="AG12" s="73"/>
       <c r="AL12" s="23"/>
       <c r="AM12" s="24"/>
-      <c r="AN12" s="68"/>
+      <c r="AN12" s="71"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL13" s="23"/>
       <c r="AM13" s="24"/>
-      <c r="AN13" s="68"/>
+      <c r="AN13" s="71"/>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL14" s="23"/>
       <c r="AM14" s="24"/>
-      <c r="AN14" s="68"/>
+      <c r="AN14" s="71"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
@@ -3830,12 +5622,12 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="22"/>
-      <c r="AG15" s="70" t="s">
-        <v>59</v>
+      <c r="AG15" s="73" t="s">
+        <v>58</v>
       </c>
       <c r="AL15" s="23"/>
       <c r="AM15" s="24"/>
-      <c r="AN15" s="68"/>
+      <c r="AN15" s="71"/>
     </row>
     <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
@@ -3870,10 +5662,10 @@
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="24"/>
-      <c r="AG16" s="70"/>
+      <c r="AG16" s="73"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="26"/>
-      <c r="AN16" s="69"/>
+      <c r="AN16" s="72"/>
       <c r="AO16" t="s">
         <v>30</v>
       </c>
@@ -3911,10 +5703,10 @@
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
       <c r="AF17" s="24"/>
-      <c r="AG17" s="70"/>
+      <c r="AG17" s="73"/>
       <c r="AL17" s="21"/>
       <c r="AM17" s="22"/>
-      <c r="AN17" s="67" t="s">
+      <c r="AN17" s="70" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3951,10 +5743,10 @@
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="32"/>
-      <c r="AG18" s="70"/>
+      <c r="AG18" s="73"/>
       <c r="AL18" s="23"/>
       <c r="AM18" s="24"/>
-      <c r="AN18" s="68"/>
+      <c r="AN18" s="71"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
@@ -3989,10 +5781,10 @@
       <c r="AD19" s="34"/>
       <c r="AE19" s="34"/>
       <c r="AF19" s="35"/>
-      <c r="AG19" s="70"/>
+      <c r="AG19" s="73"/>
       <c r="AL19" s="23"/>
       <c r="AM19" s="24"/>
-      <c r="AN19" s="68"/>
+      <c r="AN19" s="71"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
@@ -4027,10 +5819,10 @@
       <c r="AD20" s="34"/>
       <c r="AE20" s="34"/>
       <c r="AF20" s="35"/>
-      <c r="AG20" s="70"/>
+      <c r="AG20" s="73"/>
       <c r="AL20" s="23"/>
       <c r="AM20" s="24"/>
-      <c r="AN20" s="68"/>
+      <c r="AN20" s="71"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
@@ -4065,10 +5857,10 @@
       <c r="AD21" s="34"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="70"/>
+      <c r="AG21" s="73"/>
       <c r="AL21" s="23"/>
       <c r="AM21" s="24"/>
-      <c r="AN21" s="68"/>
+      <c r="AN21" s="71"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="27">
@@ -4167,20 +5959,20 @@
       <c r="AF22" s="29">
         <v>0</v>
       </c>
-      <c r="AG22" s="70"/>
+      <c r="AG22" s="73"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="24"/>
-      <c r="AN22" s="68"/>
+      <c r="AN22" s="71"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL23" s="23"/>
       <c r="AM23" s="24"/>
-      <c r="AN23" s="68"/>
+      <c r="AN23" s="71"/>
     </row>
     <row r="24" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL24" s="25"/>
       <c r="AM24" s="26"/>
-      <c r="AN24" s="69"/>
+      <c r="AN24" s="72"/>
       <c r="AO24" t="s">
         <v>30</v>
       </c>
@@ -4188,17 +5980,17 @@
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL25" s="21"/>
       <c r="AM25" s="22"/>
-      <c r="AN25" s="67" t="s">
+      <c r="AN25" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="24"/>
-      <c r="AN26" s="68"/>
+      <c r="AN26" s="71"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
@@ -4235,7 +6027,7 @@
       <c r="AF27" s="35"/>
       <c r="AL27" s="23"/>
       <c r="AM27" s="24"/>
-      <c r="AN27" s="68"/>
+      <c r="AN27" s="71"/>
     </row>
     <row r="28" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="27">
@@ -4336,27 +6128,27 @@
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="24"/>
-      <c r="AN28" s="68"/>
+      <c r="AN28" s="71"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL29" s="23"/>
       <c r="AM29" s="24"/>
-      <c r="AN29" s="68"/>
+      <c r="AN29" s="71"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL30" s="23"/>
       <c r="AM30" s="24"/>
-      <c r="AN30" s="68"/>
+      <c r="AN30" s="71"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL31" s="23"/>
       <c r="AM31" s="24"/>
-      <c r="AN31" s="68"/>
+      <c r="AN31" s="71"/>
     </row>
     <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL32" s="25"/>
       <c r="AM32" s="26"/>
-      <c r="AN32" s="69"/>
+      <c r="AN32" s="72"/>
       <c r="AO32" t="s">
         <v>30</v>
       </c>
@@ -4364,44 +6156,44 @@
     <row r="33" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL33" s="21"/>
       <c r="AM33" s="22"/>
-      <c r="AN33" s="67" t="s">
+      <c r="AN33" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL34" s="23"/>
       <c r="AM34" s="24"/>
-      <c r="AN34" s="68"/>
+      <c r="AN34" s="71"/>
     </row>
     <row r="35" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL35" s="23"/>
       <c r="AM35" s="24"/>
-      <c r="AN35" s="68"/>
+      <c r="AN35" s="71"/>
     </row>
     <row r="36" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL36" s="23"/>
       <c r="AM36" s="24"/>
-      <c r="AN36" s="68"/>
+      <c r="AN36" s="71"/>
     </row>
     <row r="37" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL37" s="23"/>
       <c r="AM37" s="24"/>
-      <c r="AN37" s="68"/>
+      <c r="AN37" s="71"/>
     </row>
     <row r="38" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL38" s="23"/>
       <c r="AM38" s="24"/>
-      <c r="AN38" s="68"/>
+      <c r="AN38" s="71"/>
     </row>
     <row r="39" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL39" s="23"/>
       <c r="AM39" s="24"/>
-      <c r="AN39" s="68"/>
+      <c r="AN39" s="71"/>
     </row>
     <row r="40" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL40" s="25"/>
       <c r="AM40" s="26"/>
-      <c r="AN40" s="69"/>
+      <c r="AN40" s="72"/>
       <c r="AO40" t="s">
         <v>30</v>
       </c>
@@ -4409,44 +6201,44 @@
     <row r="41" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL41" s="21"/>
       <c r="AM41" s="22"/>
-      <c r="AN41" s="67" t="s">
+      <c r="AN41" s="70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL42" s="23"/>
       <c r="AM42" s="24"/>
-      <c r="AN42" s="68"/>
+      <c r="AN42" s="71"/>
     </row>
     <row r="43" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL43" s="23"/>
       <c r="AM43" s="24"/>
-      <c r="AN43" s="68"/>
+      <c r="AN43" s="71"/>
     </row>
     <row r="44" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL44" s="23"/>
       <c r="AM44" s="24"/>
-      <c r="AN44" s="68"/>
+      <c r="AN44" s="71"/>
     </row>
     <row r="45" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL45" s="23"/>
       <c r="AM45" s="24"/>
-      <c r="AN45" s="68"/>
+      <c r="AN45" s="71"/>
     </row>
     <row r="46" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL46" s="23"/>
       <c r="AM46" s="24"/>
-      <c r="AN46" s="68"/>
+      <c r="AN46" s="71"/>
     </row>
     <row r="47" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL47" s="23"/>
       <c r="AM47" s="24"/>
-      <c r="AN47" s="68"/>
+      <c r="AN47" s="71"/>
     </row>
     <row r="48" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL48" s="25"/>
       <c r="AM48" s="26"/>
-      <c r="AN48" s="69"/>
+      <c r="AN48" s="72"/>
       <c r="AO48" t="s">
         <v>31</v>
       </c>
@@ -4470,8 +6262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509C40B-3A44-46B1-9FBE-B594AF2FB1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B6BAD4-7B08-4A65-92C4-079D9F258AAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="489" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="registers" sheetId="4" r:id="rId1"/>
-    <sheet name="descriptor" sheetId="9" r:id="rId2"/>
+    <sheet name="list" sheetId="6" r:id="rId1"/>
+    <sheet name="reg" sheetId="4" r:id="rId2"/>
     <sheet name="mem" sheetId="5" r:id="rId3"/>
-    <sheet name="paging" sheetId="8" r:id="rId4"/>
-    <sheet name="sys layer" sheetId="1" r:id="rId5"/>
-    <sheet name="list" sheetId="6" r:id="rId6"/>
-    <sheet name="IO" sheetId="7" r:id="rId7"/>
+    <sheet name="des" sheetId="9" r:id="rId4"/>
+    <sheet name="pag" sheetId="8" r:id="rId5"/>
+    <sheet name="IO" sheetId="7" r:id="rId6"/>
+    <sheet name="arc" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
-  <si>
-    <t>Buses</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>I/O</t>
   </si>
@@ -184,24 +181,6 @@
   </si>
   <si>
     <t>CS DS ES FS GS SS</t>
-  </si>
-  <si>
-    <t>segment register (6)</t>
-  </si>
-  <si>
-    <t>seg selctor</t>
-  </si>
-  <si>
-    <t>segment Descriptor Table</t>
-  </si>
-  <si>
-    <t>segment Descriptor</t>
-  </si>
-  <si>
-    <t>seg base address</t>
-  </si>
-  <si>
-    <t>seg length</t>
   </si>
   <si>
     <t>CR0</t>
@@ -430,12 +409,27 @@
   <si>
     <t>Segment descriptor - system</t>
   </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>registers</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +461,31 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -552,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -640,11 +659,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -728,32 +785,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,6 +816,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,6 +831,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -799,16 +854,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1701,11 +1784,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC671F-1688-475C-9272-017C8108145F}">
+  <dimension ref="C1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" location="arc!A1" display="architecture" xr:uid="{37CF111B-50EA-4070-B7DF-B0E432006D1A}"/>
+    <hyperlink ref="C5" location="reg!A1" display="registers" xr:uid="{5AB876C7-A40D-4D97-8E82-03B912DD860C}"/>
+    <hyperlink ref="C6" location="mem!A1" display="memory" xr:uid="{0FCCC753-09AA-49AB-B164-459BC187861E}"/>
+    <hyperlink ref="C7" location="des!A1" display="descriptor" xr:uid="{4E5A5F89-EADD-4A9D-9B8D-0F2963058CE8}"/>
+    <hyperlink ref="C8" location="pag!A1" display="paging" xr:uid="{B0618A13-244F-495A-B088-B1B0B69C59F3}"/>
+    <hyperlink ref="C9" location="IO!A1" display="I/O" xr:uid="{2F7425C9-D203-4310-9688-CE6CD214FB8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4A881-F80B-4EFE-96CB-6DA6A5FAA9AD}">
-  <dimension ref="A1:AV45"/>
+  <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31:AW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,958 +1852,1450 @@
     <col min="1" max="16384" width="2.6328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="N15" s="53">
+        <v>1</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="N16" s="53">
+        <v>0</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>9</v>
+      </c>
+      <c r="H17" s="10">
+        <v>8</v>
+      </c>
+      <c r="I17" s="10">
+        <v>7</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6</v>
+      </c>
+      <c r="K17" s="10">
+        <v>5</v>
+      </c>
+      <c r="L17" s="10">
+        <v>4</v>
+      </c>
+      <c r="M17" s="10">
+        <v>3</v>
+      </c>
+      <c r="N17" s="11">
+        <v>2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="O18" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="65"/>
+    </row>
+    <row r="19" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" s="55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A24" s="55"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A25" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A27" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+    </row>
+    <row r="28" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="46">
+        <v>31</v>
+      </c>
+      <c r="B28" s="47">
+        <v>30</v>
+      </c>
+      <c r="C28" s="47">
+        <v>29</v>
+      </c>
+      <c r="D28" s="47">
+        <v>28</v>
+      </c>
+      <c r="E28" s="47">
+        <v>27</v>
+      </c>
+      <c r="F28" s="47">
+        <v>26</v>
+      </c>
+      <c r="G28" s="47">
+        <v>25</v>
+      </c>
+      <c r="H28" s="47">
+        <v>24</v>
+      </c>
+      <c r="I28" s="47">
+        <v>23</v>
+      </c>
+      <c r="J28" s="47">
+        <v>22</v>
+      </c>
+      <c r="K28" s="47">
+        <v>21</v>
+      </c>
+      <c r="L28" s="47">
+        <v>20</v>
+      </c>
+      <c r="M28" s="47">
+        <v>19</v>
+      </c>
+      <c r="N28" s="47">
+        <v>18</v>
+      </c>
+      <c r="O28" s="47">
+        <v>17</v>
+      </c>
+      <c r="P28" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="47">
+        <v>15</v>
+      </c>
+      <c r="R28" s="47">
+        <v>14</v>
+      </c>
+      <c r="S28" s="47">
+        <v>13</v>
+      </c>
+      <c r="T28" s="47">
+        <v>12</v>
+      </c>
+      <c r="U28" s="47">
+        <v>11</v>
+      </c>
+      <c r="V28" s="47">
+        <v>10</v>
+      </c>
+      <c r="W28" s="47">
+        <v>9</v>
+      </c>
+      <c r="X28" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="47">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="47">
+        <v>6</v>
+      </c>
+      <c r="AA28" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="47">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="47">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="47">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="45">
+        <v>15</v>
+      </c>
+      <c r="AH28" s="45">
+        <v>14</v>
+      </c>
+      <c r="AI28" s="45">
+        <v>13</v>
+      </c>
+      <c r="AJ28" s="45">
+        <v>12</v>
+      </c>
+      <c r="AK28" s="45">
+        <v>11</v>
+      </c>
+      <c r="AL28" s="45">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="45">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="45">
+        <v>8</v>
+      </c>
+      <c r="AO28" s="45">
+        <v>7</v>
+      </c>
+      <c r="AP28" s="45">
+        <v>6</v>
+      </c>
+      <c r="AQ28" s="45">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="45">
+        <v>4</v>
+      </c>
+      <c r="AS28" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT28" s="45">
+        <v>2</v>
+      </c>
+      <c r="AU28" s="45">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+    </row>
+    <row r="31" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="46">
+        <v>31</v>
+      </c>
+      <c r="B31" s="47">
+        <v>30</v>
+      </c>
+      <c r="C31" s="47">
+        <v>29</v>
+      </c>
+      <c r="D31" s="47">
+        <v>28</v>
+      </c>
+      <c r="E31" s="47">
+        <v>27</v>
+      </c>
+      <c r="F31" s="47">
+        <v>26</v>
+      </c>
+      <c r="G31" s="47">
+        <v>25</v>
+      </c>
+      <c r="H31" s="47">
+        <v>24</v>
+      </c>
+      <c r="I31" s="47">
+        <v>23</v>
+      </c>
+      <c r="J31" s="47">
+        <v>22</v>
+      </c>
+      <c r="K31" s="47">
+        <v>21</v>
+      </c>
+      <c r="L31" s="47">
+        <v>20</v>
+      </c>
+      <c r="M31" s="47">
+        <v>19</v>
+      </c>
+      <c r="N31" s="47">
+        <v>18</v>
+      </c>
+      <c r="O31" s="47">
+        <v>17</v>
+      </c>
+      <c r="P31" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="47">
+        <v>15</v>
+      </c>
+      <c r="R31" s="47">
+        <v>14</v>
+      </c>
+      <c r="S31" s="47">
+        <v>13</v>
+      </c>
+      <c r="T31" s="47">
+        <v>12</v>
+      </c>
+      <c r="U31" s="47">
+        <v>11</v>
+      </c>
+      <c r="V31" s="47">
+        <v>10</v>
+      </c>
+      <c r="W31" s="47">
+        <v>9</v>
+      </c>
+      <c r="X31" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="47">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="47">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="47">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="47">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="47">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="45">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="45">
+        <v>14</v>
+      </c>
+      <c r="AI31" s="45">
+        <v>13</v>
+      </c>
+      <c r="AJ31" s="45">
+        <v>12</v>
+      </c>
+      <c r="AK31" s="45">
+        <v>11</v>
+      </c>
+      <c r="AL31" s="45">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="45">
+        <v>9</v>
+      </c>
+      <c r="AN31" s="45">
+        <v>8</v>
+      </c>
+      <c r="AO31" s="45">
+        <v>7</v>
+      </c>
+      <c r="AP31" s="45">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="45">
+        <v>5</v>
+      </c>
+      <c r="AR31" s="45">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT31" s="45">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="45">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A33" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+    </row>
+    <row r="34" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="46">
+        <v>31</v>
+      </c>
+      <c r="B34" s="47">
+        <v>30</v>
+      </c>
+      <c r="C34" s="47">
+        <v>29</v>
+      </c>
+      <c r="D34" s="47">
+        <v>28</v>
+      </c>
+      <c r="E34" s="47">
+        <v>27</v>
+      </c>
+      <c r="F34" s="47">
+        <v>26</v>
+      </c>
+      <c r="G34" s="47">
+        <v>25</v>
+      </c>
+      <c r="H34" s="47">
+        <v>24</v>
+      </c>
+      <c r="I34" s="47">
+        <v>23</v>
+      </c>
+      <c r="J34" s="47">
+        <v>22</v>
+      </c>
+      <c r="K34" s="47">
+        <v>21</v>
+      </c>
+      <c r="L34" s="47">
+        <v>20</v>
+      </c>
+      <c r="M34" s="47">
+        <v>19</v>
+      </c>
+      <c r="N34" s="47">
+        <v>18</v>
+      </c>
+      <c r="O34" s="47">
+        <v>17</v>
+      </c>
+      <c r="P34" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="47">
+        <v>15</v>
+      </c>
+      <c r="R34" s="47">
+        <v>14</v>
+      </c>
+      <c r="S34" s="47">
+        <v>13</v>
+      </c>
+      <c r="T34" s="47">
+        <v>12</v>
+      </c>
+      <c r="U34" s="47">
+        <v>11</v>
+      </c>
+      <c r="V34" s="47">
+        <v>10</v>
+      </c>
+      <c r="W34" s="47">
+        <v>9</v>
+      </c>
+      <c r="X34" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y34" s="47">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="47">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="47">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="47">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="47">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="45">
+        <v>15</v>
+      </c>
+      <c r="AH34" s="45">
+        <v>14</v>
+      </c>
+      <c r="AI34" s="45">
+        <v>13</v>
+      </c>
+      <c r="AJ34" s="45">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="45">
+        <v>11</v>
+      </c>
+      <c r="AL34" s="45">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="45">
+        <v>9</v>
+      </c>
+      <c r="AN34" s="45">
+        <v>8</v>
+      </c>
+      <c r="AO34" s="45">
+        <v>7</v>
+      </c>
+      <c r="AP34" s="45">
+        <v>6</v>
+      </c>
+      <c r="AQ34" s="45">
+        <v>5</v>
+      </c>
+      <c r="AR34" s="45">
+        <v>4</v>
+      </c>
+      <c r="AS34" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT34" s="45">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="45">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A36" s="55"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A37" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A41" s="55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="46">
+        <v>31</v>
+      </c>
+      <c r="B43" s="47">
+        <v>30</v>
+      </c>
+      <c r="C43" s="47">
+        <v>29</v>
+      </c>
+      <c r="D43" s="47">
+        <v>28</v>
+      </c>
+      <c r="E43" s="47">
+        <v>27</v>
+      </c>
+      <c r="F43" s="47">
+        <v>26</v>
+      </c>
+      <c r="G43" s="47">
+        <v>25</v>
+      </c>
+      <c r="H43" s="47">
+        <v>24</v>
+      </c>
+      <c r="I43" s="47">
+        <v>23</v>
+      </c>
+      <c r="J43" s="47">
+        <v>22</v>
+      </c>
+      <c r="K43" s="47">
+        <v>21</v>
+      </c>
+      <c r="L43" s="47">
+        <v>20</v>
+      </c>
+      <c r="M43" s="47">
+        <v>19</v>
+      </c>
+      <c r="N43" s="47">
+        <v>18</v>
+      </c>
+      <c r="O43" s="47">
+        <v>17</v>
+      </c>
+      <c r="P43" s="47">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="47">
+        <v>15</v>
+      </c>
+      <c r="R43" s="47">
+        <v>14</v>
+      </c>
+      <c r="S43" s="47">
+        <v>13</v>
+      </c>
+      <c r="T43" s="47">
+        <v>12</v>
+      </c>
+      <c r="U43" s="47">
+        <v>11</v>
+      </c>
+      <c r="V43" s="47">
+        <v>10</v>
+      </c>
+      <c r="W43" s="47">
+        <v>9</v>
+      </c>
+      <c r="X43" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="47">
+        <v>7</v>
+      </c>
+      <c r="Z43" s="47">
+        <v>6</v>
+      </c>
+      <c r="AA43" s="47">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="47">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="47">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="47">
+        <v>2</v>
+      </c>
+      <c r="AE43" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A45" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="N14" s="59">
-        <v>1</v>
-      </c>
-      <c r="O14" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="N15" s="59">
-        <v>0</v>
-      </c>
-      <c r="O15" s="61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10">
-        <v>13</v>
-      </c>
-      <c r="D16" s="10">
-        <v>12</v>
-      </c>
-      <c r="E16" s="10">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10">
-        <v>10</v>
-      </c>
-      <c r="G16" s="10">
-        <v>9</v>
-      </c>
-      <c r="H16" s="10">
-        <v>8</v>
-      </c>
-      <c r="I16" s="10">
-        <v>7</v>
-      </c>
-      <c r="J16" s="10">
-        <v>6</v>
-      </c>
-      <c r="K16" s="10">
-        <v>5</v>
-      </c>
-      <c r="L16" s="10">
-        <v>4</v>
-      </c>
-      <c r="M16" s="10">
-        <v>3</v>
-      </c>
-      <c r="N16" s="11">
-        <v>2</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="O17" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="67"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-    </row>
-    <row r="26" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46">
-        <v>31</v>
-      </c>
-      <c r="B26" s="47">
-        <v>30</v>
-      </c>
-      <c r="C26" s="47">
-        <v>29</v>
-      </c>
-      <c r="D26" s="47">
-        <v>28</v>
-      </c>
-      <c r="E26" s="47">
-        <v>27</v>
-      </c>
-      <c r="F26" s="47">
-        <v>26</v>
-      </c>
-      <c r="G26" s="47">
-        <v>25</v>
-      </c>
-      <c r="H26" s="47">
-        <v>24</v>
-      </c>
-      <c r="I26" s="47">
-        <v>23</v>
-      </c>
-      <c r="J26" s="47">
-        <v>22</v>
-      </c>
-      <c r="K26" s="47">
-        <v>21</v>
-      </c>
-      <c r="L26" s="47">
-        <v>20</v>
-      </c>
-      <c r="M26" s="47">
-        <v>19</v>
-      </c>
-      <c r="N26" s="47">
-        <v>18</v>
-      </c>
-      <c r="O26" s="47">
-        <v>17</v>
-      </c>
-      <c r="P26" s="47">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="47">
-        <v>15</v>
-      </c>
-      <c r="R26" s="47">
-        <v>14</v>
-      </c>
-      <c r="S26" s="47">
-        <v>13</v>
-      </c>
-      <c r="T26" s="47">
-        <v>12</v>
-      </c>
-      <c r="U26" s="47">
-        <v>11</v>
-      </c>
-      <c r="V26" s="47">
-        <v>10</v>
-      </c>
-      <c r="W26" s="47">
-        <v>9</v>
-      </c>
-      <c r="X26" s="47">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="47">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="47">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="47">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="47">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="47">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="47">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="48">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="45">
-        <v>15</v>
-      </c>
-      <c r="AH26" s="45">
-        <v>14</v>
-      </c>
-      <c r="AI26" s="45">
-        <v>13</v>
-      </c>
-      <c r="AJ26" s="45">
-        <v>12</v>
-      </c>
-      <c r="AK26" s="45">
-        <v>11</v>
-      </c>
-      <c r="AL26" s="45">
-        <v>10</v>
-      </c>
-      <c r="AM26" s="45">
-        <v>9</v>
-      </c>
-      <c r="AN26" s="45">
-        <v>8</v>
-      </c>
-      <c r="AO26" s="45">
-        <v>7</v>
-      </c>
-      <c r="AP26" s="45">
-        <v>6</v>
-      </c>
-      <c r="AQ26" s="45">
-        <v>5</v>
-      </c>
-      <c r="AR26" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS26" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT26" s="45">
-        <v>2</v>
-      </c>
-      <c r="AU26" s="45">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-    </row>
-    <row r="29" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="46">
-        <v>31</v>
-      </c>
-      <c r="B29" s="47">
-        <v>30</v>
-      </c>
-      <c r="C29" s="47">
-        <v>29</v>
-      </c>
-      <c r="D29" s="47">
-        <v>28</v>
-      </c>
-      <c r="E29" s="47">
-        <v>27</v>
-      </c>
-      <c r="F29" s="47">
-        <v>26</v>
-      </c>
-      <c r="G29" s="47">
-        <v>25</v>
-      </c>
-      <c r="H29" s="47">
-        <v>24</v>
-      </c>
-      <c r="I29" s="47">
-        <v>23</v>
-      </c>
-      <c r="J29" s="47">
-        <v>22</v>
-      </c>
-      <c r="K29" s="47">
-        <v>21</v>
-      </c>
-      <c r="L29" s="47">
-        <v>20</v>
-      </c>
-      <c r="M29" s="47">
-        <v>19</v>
-      </c>
-      <c r="N29" s="47">
-        <v>18</v>
-      </c>
-      <c r="O29" s="47">
-        <v>17</v>
-      </c>
-      <c r="P29" s="47">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="47">
-        <v>15</v>
-      </c>
-      <c r="R29" s="47">
-        <v>14</v>
-      </c>
-      <c r="S29" s="47">
-        <v>13</v>
-      </c>
-      <c r="T29" s="47">
-        <v>12</v>
-      </c>
-      <c r="U29" s="47">
-        <v>11</v>
-      </c>
-      <c r="V29" s="47">
-        <v>10</v>
-      </c>
-      <c r="W29" s="47">
-        <v>9</v>
-      </c>
-      <c r="X29" s="47">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="47">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="47">
-        <v>6</v>
-      </c>
-      <c r="AA29" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="47">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="47">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="47">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="47">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="48">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="45">
-        <v>15</v>
-      </c>
-      <c r="AH29" s="45">
-        <v>14</v>
-      </c>
-      <c r="AI29" s="45">
-        <v>13</v>
-      </c>
-      <c r="AJ29" s="45">
-        <v>12</v>
-      </c>
-      <c r="AK29" s="45">
-        <v>11</v>
-      </c>
-      <c r="AL29" s="45">
-        <v>10</v>
-      </c>
-      <c r="AM29" s="45">
-        <v>9</v>
-      </c>
-      <c r="AN29" s="45">
-        <v>8</v>
-      </c>
-      <c r="AO29" s="45">
-        <v>7</v>
-      </c>
-      <c r="AP29" s="45">
-        <v>6</v>
-      </c>
-      <c r="AQ29" s="45">
-        <v>5</v>
-      </c>
-      <c r="AR29" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS29" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT29" s="45">
-        <v>2</v>
-      </c>
-      <c r="AU29" s="45">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A31" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-    </row>
-    <row r="32" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="46">
-        <v>31</v>
-      </c>
-      <c r="B32" s="47">
-        <v>30</v>
-      </c>
-      <c r="C32" s="47">
-        <v>29</v>
-      </c>
-      <c r="D32" s="47">
-        <v>28</v>
-      </c>
-      <c r="E32" s="47">
-        <v>27</v>
-      </c>
-      <c r="F32" s="47">
-        <v>26</v>
-      </c>
-      <c r="G32" s="47">
-        <v>25</v>
-      </c>
-      <c r="H32" s="47">
-        <v>24</v>
-      </c>
-      <c r="I32" s="47">
-        <v>23</v>
-      </c>
-      <c r="J32" s="47">
-        <v>22</v>
-      </c>
-      <c r="K32" s="47">
-        <v>21</v>
-      </c>
-      <c r="L32" s="47">
-        <v>20</v>
-      </c>
-      <c r="M32" s="47">
-        <v>19</v>
-      </c>
-      <c r="N32" s="47">
-        <v>18</v>
-      </c>
-      <c r="O32" s="47">
-        <v>17</v>
-      </c>
-      <c r="P32" s="47">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="47">
-        <v>15</v>
-      </c>
-      <c r="R32" s="47">
-        <v>14</v>
-      </c>
-      <c r="S32" s="47">
-        <v>13</v>
-      </c>
-      <c r="T32" s="47">
-        <v>12</v>
-      </c>
-      <c r="U32" s="47">
-        <v>11</v>
-      </c>
-      <c r="V32" s="47">
-        <v>10</v>
-      </c>
-      <c r="W32" s="47">
-        <v>9</v>
-      </c>
-      <c r="X32" s="47">
-        <v>8</v>
-      </c>
-      <c r="Y32" s="47">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="47">
-        <v>6</v>
-      </c>
-      <c r="AA32" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="47">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="47">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="47">
-        <v>2</v>
-      </c>
-      <c r="AE32" s="47">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="48">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="45">
-        <v>15</v>
-      </c>
-      <c r="AH32" s="45">
-        <v>14</v>
-      </c>
-      <c r="AI32" s="45">
-        <v>13</v>
-      </c>
-      <c r="AJ32" s="45">
-        <v>12</v>
-      </c>
-      <c r="AK32" s="45">
-        <v>11</v>
-      </c>
-      <c r="AL32" s="45">
-        <v>10</v>
-      </c>
-      <c r="AM32" s="45">
-        <v>9</v>
-      </c>
-      <c r="AN32" s="45">
-        <v>8</v>
-      </c>
-      <c r="AO32" s="45">
-        <v>7</v>
-      </c>
-      <c r="AP32" s="45">
-        <v>6</v>
-      </c>
-      <c r="AQ32" s="45">
-        <v>5</v>
-      </c>
-      <c r="AR32" s="45">
-        <v>4</v>
-      </c>
-      <c r="AS32" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT32" s="45">
-        <v>2</v>
-      </c>
-      <c r="AU32" s="45">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="46">
-        <v>31</v>
-      </c>
-      <c r="B41" s="47">
-        <v>30</v>
-      </c>
-      <c r="C41" s="47">
-        <v>29</v>
-      </c>
-      <c r="D41" s="47">
-        <v>28</v>
-      </c>
-      <c r="E41" s="47">
-        <v>27</v>
-      </c>
-      <c r="F41" s="47">
-        <v>26</v>
-      </c>
-      <c r="G41" s="47">
-        <v>25</v>
-      </c>
-      <c r="H41" s="47">
-        <v>24</v>
-      </c>
-      <c r="I41" s="47">
-        <v>23</v>
-      </c>
-      <c r="J41" s="47">
-        <v>22</v>
-      </c>
-      <c r="K41" s="47">
-        <v>21</v>
-      </c>
-      <c r="L41" s="47">
-        <v>20</v>
-      </c>
-      <c r="M41" s="47">
-        <v>19</v>
-      </c>
-      <c r="N41" s="47">
-        <v>18</v>
-      </c>
-      <c r="O41" s="47">
-        <v>17</v>
-      </c>
-      <c r="P41" s="47">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="47">
-        <v>15</v>
-      </c>
-      <c r="R41" s="47">
-        <v>14</v>
-      </c>
-      <c r="S41" s="47">
-        <v>13</v>
-      </c>
-      <c r="T41" s="47">
-        <v>12</v>
-      </c>
-      <c r="U41" s="47">
-        <v>11</v>
-      </c>
-      <c r="V41" s="47">
-        <v>10</v>
-      </c>
-      <c r="W41" s="47">
-        <v>9</v>
-      </c>
-      <c r="X41" s="47">
-        <v>8</v>
-      </c>
-      <c r="Y41" s="47">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="47">
-        <v>6</v>
-      </c>
-      <c r="AA41" s="47">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="47">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="47">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="47">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="47">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="60"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A46" s="55"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AG25:AV25"/>
-    <mergeCell ref="AG28:AV28"/>
-    <mergeCell ref="AG31:AV31"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="AG30:AV30"/>
+    <mergeCell ref="AG33:AV33"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="I1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="69"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="69"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="69"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="69"/>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="69"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="69"/>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="72"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="15"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="19"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="72"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+    </row>
+    <row r="18" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="44"/>
+    </row>
+    <row r="19" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="20" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+    </row>
+    <row r="21" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+    </row>
+    <row r="22" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="23"/>
+      <c r="G22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+    </row>
+    <row r="23" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="72"/>
+    </row>
+    <row r="26" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="I26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="30" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="49">
+        <v>0</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="80">
+        <v>0</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="K10:K17"/>
+    <mergeCell ref="K18:K25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E0DF2-8A95-4FC9-B451-93711BBBA99F}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2676,11 +3307,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>63</v>
       </c>
@@ -2875,141 +3506,141 @@
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="65">
+      <c r="K3" s="59">
         <v>0</v>
       </c>
-      <c r="L3" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="L3" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
       <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="66"/>
+      <c r="T3" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="68"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>63</v>
       </c>
@@ -3204,109 +3835,109 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="65">
+      <c r="A15" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="59">
         <v>0</v>
       </c>
-      <c r="L15" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+      <c r="L15" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
       <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="66"/>
+      <c r="T15" s="62">
+        <v>1</v>
+      </c>
+      <c r="U15" s="63">
+        <v>0</v>
+      </c>
+      <c r="V15" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="75">
-        <v>1</v>
-      </c>
-      <c r="U15" s="76">
-        <v>0</v>
-      </c>
-      <c r="V15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="W15" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y15" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="66"/>
+      <c r="BD15" s="66"/>
+      <c r="BE15" s="66"/>
+      <c r="BF15" s="66"/>
+      <c r="BG15" s="66"/>
+      <c r="BH15" s="66"/>
+      <c r="BI15" s="66"/>
+      <c r="BJ15" s="66"/>
+      <c r="BK15" s="66"/>
+      <c r="BL15" s="66"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>63</v>
       </c>
@@ -3501,109 +4132,109 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="65">
+      <c r="A19" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="59">
         <v>0</v>
       </c>
-      <c r="L19" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
+      <c r="L19" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
       <c r="Q19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="66"/>
+      <c r="T19" s="62">
+        <v>1</v>
+      </c>
+      <c r="U19" s="63">
+        <v>0</v>
+      </c>
+      <c r="V19" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="W19" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y19" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="R19" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="75">
-        <v>1</v>
-      </c>
-      <c r="U19" s="76">
-        <v>0</v>
-      </c>
-      <c r="V19" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="W19" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="X19" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y19" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66"/>
+      <c r="BK19" s="66"/>
+      <c r="BL19" s="66"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:64" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>63</v>
       </c>
@@ -3798,99 +4429,99 @@
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="76"/>
-      <c r="K23" s="65">
+      <c r="A23" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="59">
         <v>0</v>
       </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
       <c r="Q23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S23" s="66"/>
+      <c r="T23" s="62">
+        <v>0</v>
+      </c>
+      <c r="U23" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="R23" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="68"/>
-      <c r="T23" s="75">
-        <v>0</v>
-      </c>
-      <c r="U23" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="68"/>
-      <c r="AK23" s="68"/>
-      <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="68"/>
-      <c r="AO23" s="68"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="68"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="66"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="66"/>
+      <c r="BF23" s="66"/>
+      <c r="BG23" s="66"/>
+      <c r="BH23" s="66"/>
+      <c r="BI23" s="66"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="66"/>
+      <c r="BL23" s="66"/>
     </row>
     <row r="25" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="A25" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
@@ -4087,32 +4718,32 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
+      <c r="A27" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
       <c r="Q27" t="s">
-        <v>98</v>
-      </c>
-      <c r="R27" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27" s="68"/>
-      <c r="T27" s="65">
+        <v>91</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S27" s="66"/>
+      <c r="T27" s="59">
         <v>0</v>
       </c>
       <c r="U27">
@@ -4136,42 +4767,42 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AG27" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="68"/>
-      <c r="BG27" s="68"/>
-      <c r="BH27" s="68"/>
-      <c r="BI27" s="68"/>
-      <c r="BJ27" s="68"/>
-      <c r="BK27" s="68"/>
-      <c r="BL27" s="68"/>
+      <c r="AG27" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="66"/>
+      <c r="AW27" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="66"/>
+      <c r="AZ27" s="66"/>
+      <c r="BA27" s="66"/>
+      <c r="BB27" s="66"/>
+      <c r="BC27" s="66"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="66"/>
+      <c r="BF27" s="66"/>
+      <c r="BG27" s="66"/>
+      <c r="BH27" s="66"/>
+      <c r="BI27" s="66"/>
+      <c r="BJ27" s="66"/>
+      <c r="BK27" s="66"/>
+      <c r="BL27" s="66"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
@@ -4192,7 +4823,7 @@
       <c r="P28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="65"/>
+      <c r="T28" s="59"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
@@ -4227,11 +4858,11 @@
       <c r="BL28" s="9"/>
     </row>
     <row r="29" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="A29" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
@@ -4428,32 +5059,32 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
+      <c r="A31" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
       <c r="Q31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R31" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="S31" s="68"/>
-      <c r="T31" s="65">
+        <v>91</v>
+      </c>
+      <c r="R31" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="66"/>
+      <c r="T31" s="59">
         <v>0</v>
       </c>
       <c r="U31">
@@ -4477,52 +5108,60 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AG31" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
+      <c r="AG31" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="66"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="66"/>
+      <c r="BF31" s="66"/>
+      <c r="BG31" s="66"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="66"/>
+      <c r="BJ31" s="66"/>
+      <c r="BK31" s="66"/>
+      <c r="BL31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AW23:BL23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AV23"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="AW27:BL27"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="AG31:AV31"/>
+    <mergeCell ref="AW31:BL31"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AG3:AV3"/>
+    <mergeCell ref="AW3:BL3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="AG15:AV15"/>
     <mergeCell ref="AW15:BL15"/>
     <mergeCell ref="A19:H19"/>
@@ -4535,517 +5174,25 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AG3:AV3"/>
-    <mergeCell ref="AW3:BL3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="AW27:BL27"/>
-    <mergeCell ref="AG27:AV27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="AG31:AV31"/>
-    <mergeCell ref="AW31:BL31"/>
+    <mergeCell ref="AW23:BL23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AV23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.1796875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" customWidth="1"/>
-    <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="11" width="10.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-    </row>
-    <row r="2" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-    </row>
-    <row r="4" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-    </row>
-    <row r="5" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-    </row>
-    <row r="7" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-    </row>
-    <row r="14" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="69"/>
-    </row>
-    <row r="16" spans="2:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="69"/>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="69"/>
-    </row>
-    <row r="21" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="23"/>
-      <c r="F21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="69"/>
-      <c r="O21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="71"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="71"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="72"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="22"/>
-      <c r="M25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="26"/>
-      <c r="M26" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="30" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="50">
-        <v>0</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="51">
-        <v>0</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="I1:I8"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="I17:I24"/>
-    <mergeCell ref="N19:N21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112F238-A3C0-4767-9158-5E3CEE8F19C2}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5084,12 +5231,12 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="22"/>
       <c r="AG1" s="73" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="21"/>
       <c r="AM1" s="22"/>
       <c r="AN1" s="70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -5358,7 +5505,7 @@
       <c r="AM8" s="26"/>
       <c r="AN8" s="72"/>
       <c r="AO8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -5398,7 +5545,7 @@
       <c r="AL9" s="21"/>
       <c r="AM9" s="22"/>
       <c r="AN9" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -5623,7 +5770,7 @@
       <c r="AE15" s="15"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="73" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AL15" s="23"/>
       <c r="AM15" s="24"/>
@@ -5667,7 +5814,7 @@
       <c r="AM16" s="26"/>
       <c r="AN16" s="72"/>
       <c r="AO16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5707,7 +5854,7 @@
       <c r="AL17" s="21"/>
       <c r="AM17" s="22"/>
       <c r="AN17" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
@@ -5974,19 +6121,19 @@
       <c r="AM24" s="26"/>
       <c r="AN24" s="72"/>
       <c r="AO24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL25" s="21"/>
       <c r="AM25" s="22"/>
       <c r="AN25" s="70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="24"/>
@@ -6150,14 +6297,14 @@
       <c r="AM32" s="26"/>
       <c r="AN32" s="72"/>
       <c r="AO32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL33" s="21"/>
       <c r="AM33" s="22"/>
       <c r="AN33" s="70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="38:41" x14ac:dyDescent="0.35">
@@ -6195,14 +6342,14 @@
       <c r="AM40" s="26"/>
       <c r="AN40" s="72"/>
       <c r="AO40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL41" s="21"/>
       <c r="AM41" s="22"/>
       <c r="AN41" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="38:41" x14ac:dyDescent="0.35">
@@ -6240,7 +6387,7 @@
       <c r="AM48" s="26"/>
       <c r="AN48" s="72"/>
       <c r="AO48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6258,12 +6405,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1486DB-0A26-46D6-A9D5-2957CBBFE03E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="4">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:E171"/>
+  <dimension ref="C7:F171"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6276,96 +6471,53 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C168" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C169" s="3" t="s">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C165" s="86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C170" s="3" t="s">
+      <c r="D165" s="86"/>
+      <c r="E165" s="86"/>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C166" s="87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C171" s="3" t="s">
+      <c r="D166" s="87"/>
+      <c r="E166" s="87"/>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C167" s="86" t="s">
         <v>7</v>
       </c>
+      <c r="D167" s="86"/>
+      <c r="E167" s="86"/>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C168" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F170" s="90"/>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D171" s="89" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D171" location="list!A1" display="list" xr:uid="{3BAC1074-D7F4-47D5-989C-64E4D4536F2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC671F-1688-475C-9272-017C8108145F}">
-  <dimension ref="B5:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1486DB-0A26-46D6-A9D5-2957CBBFE03E}">
-  <dimension ref="B1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="4">
-        <v>8237</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B6BAD4-7B08-4A65-92C4-079D9F258AAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE35BA-EEC3-4183-A293-B1F6446F2BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="489" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="827" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="6" r:id="rId1"/>
-    <sheet name="reg" sheetId="4" r:id="rId2"/>
-    <sheet name="mem" sheetId="5" r:id="rId3"/>
-    <sheet name="des" sheetId="9" r:id="rId4"/>
-    <sheet name="pag" sheetId="8" r:id="rId5"/>
-    <sheet name="IO" sheetId="7" r:id="rId6"/>
-    <sheet name="arc" sheetId="1" r:id="rId7"/>
+    <sheet name="workflow" sheetId="10" r:id="rId2"/>
+    <sheet name="wf2" sheetId="12" r:id="rId3"/>
+    <sheet name="wf1" sheetId="11" r:id="rId4"/>
+    <sheet name="reg" sheetId="4" r:id="rId5"/>
+    <sheet name="mem" sheetId="5" r:id="rId6"/>
+    <sheet name="des" sheetId="9" r:id="rId7"/>
+    <sheet name="pag" sheetId="8" r:id="rId8"/>
+    <sheet name="IO" sheetId="7" r:id="rId9"/>
+    <sheet name="arc" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t>I/O</t>
   </si>
@@ -424,12 +427,45 @@
   <si>
     <t>descriptor</t>
   </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>Part 1: Our First Assembly Program</t>
+  </si>
+  <si>
+    <t>Part 2: Multi-tasking Program in Protect Mode</t>
+  </si>
+  <si>
+    <t>Part 3: Start Examining An Operating System</t>
+  </si>
+  <si>
+    <t>Part 4: Understanding the Workflow</t>
+  </si>
+  <si>
+    <t>We are going to draw some charts to  depict the operating system. So we can gain a deeper understanding.</t>
+  </si>
+  <si>
+    <t>flow chart of part 1: bootsect</t>
+  </si>
+  <si>
+    <t>main function of part 2: setup</t>
+  </si>
+  <si>
+    <t>start of part 3: head</t>
+  </si>
+  <si>
+    <t>initiliation: the main()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +522,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -701,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -825,34 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -876,6 +891,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,10 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -908,6 +957,3801 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52804D63-A47E-4F0D-A9D0-339E451E0383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="184150"/>
+          <a:ext cx="1574800" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" baseline="0"/>
+            <a:t> application</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B394D5-80D4-4057-83A9-5FAE22AC919E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="552450"/>
+          <a:ext cx="1574800" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Operating system</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34501C0C-B34C-49AE-A33A-91A1602EE19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="920750"/>
+          <a:ext cx="1574800" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400"/>
+            <a:t>Hardware</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8201FF67-DDD2-4D18-ACB9-69C2C269D4E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="1473200"/>
+          <a:ext cx="1181100" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>bootsect</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEC0F4B-F9CD-4CF4-9F33-D7EBE862B1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377950" y="1473200"/>
+          <a:ext cx="1181100" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>setup</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36BB148-F6E8-41AF-9C9F-CFCF2341C464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="1473200"/>
+          <a:ext cx="1181100" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>system</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EE2127-DBAF-4E71-B0A6-080C48EE1815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="2393950"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Copies the whole boot sector (512 bytes) from address 0x7c00 to 0x90000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400E579A-7F60-495C-9702-22FD09948094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="3130550"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Jumps to 0x90000 and initializes the segments registers: ds, es, ss and stack pointer sp.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E17AE7-1850-4A35-A859-654D67A72509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="3867150"/>
+          <a:ext cx="11023600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Copies the floppy parameter table from 0x78 to 0x9fef4. Patches the sector number to 18. Resets the floppy disk controller.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A012B890-E2AE-4463-85DD-00944766470D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="4419600"/>
+          <a:ext cx="10039350" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Loads the setup-sectors (4 sectors which is 2KiB) directly after the boot block (0x90200). Setup program is the next part just after the boot loader program. We are going to talk it very shortly.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC66A815-F843-421C-9C5D-CB8D144554AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="5340350"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Gets disk drive parameters, specifically number of sectors/track, and saves it.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE126AB-7DCD-4767-8B6E-3B6C44F4FE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="5892800"/>
+          <a:ext cx="10039350" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Loads the system to 0x10000. System module here refers to the the main part of the operating system, which is also running in 32-bit protected mode. Both the boot loader and the setup program are running in 16-bit real mode.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2078DB1C-E848-4EE2-9B97-964E4308636C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="6813550"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Sets root device number and swap device number.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1C3385-15C8-43BE-989B-04B7F28B720A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="7366000"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Finishes. Jumps to the 0x90200, which is the beginning of program setup.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FF96D4-F4FC-4D17-A2DD-589757EBADF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="2762250"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0277F479-D9C1-46A9-BF83-C3B84F111A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="3498850"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5C9AE4-23C0-4E0A-9C56-8B7344E03975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="4235450"/>
+          <a:ext cx="0" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E710EB0D-394E-4103-A89C-4F90982F739F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="5156200"/>
+          <a:ext cx="12700" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BDC790-A9E3-4D6C-B3B9-B5D8F19F8489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5216525" y="5708650"/>
+          <a:ext cx="12700" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBADEB6-6483-488F-9269-3C20130EC8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5216525" y="6629400"/>
+          <a:ext cx="6350" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6729A7D-CC02-4214-B1E1-1B8403E27CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5216525" y="7181850"/>
+          <a:ext cx="6350" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4764F758-6E6C-4989-B783-A089BFBC3BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="8464550"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Program setup.S reads in information from BIOS and put it in memory from 0x90000.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDF44C2-2462-4C4C-BA0A-D63458AA768F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="9017000"/>
+          <a:ext cx="10039350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>At last of the program it switched to 32-bit protected mode.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0979D0CD-B14D-4433-9FF2-DD57F86382D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5210175" y="8832850"/>
+          <a:ext cx="6350" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Flowchart: Process 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A97E5A-0BBA-49D8-B794-90FBD8359A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="9944100"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Loads IDT and GDT.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Flowchart: Process 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DE5862-FD61-4D52-99A5-5C0A2D0E84B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="10699750"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Sets all the segment registers.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Flowchart: Process 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08102381-D2AC-4C69-9BE3-AC8025CB3B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="11417300"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Checks A20 line.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Flowchart: Process 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A8789A-58D5-46FA-86AE-CFBD19818C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="12172950"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Checks math chip.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Flowchart: Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44598720-4C6B-413E-9D21-A0E8B4533E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="12890500"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Setups the page tables and page directory.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Flowchart: Process 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1AC347-CEF0-4641-AEE0-7861F3FE3F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="13646150"/>
+          <a:ext cx="3149600" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600"/>
+            <a:t>Jumps to function main.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF89B259-22E0-4B5C-AAEB-D4C9540039C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="10312400"/>
+          <a:ext cx="19050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5440AFF-9E9B-449A-BEF8-B333EC1CEA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="11068050"/>
+          <a:ext cx="19050" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E036BB1C-06C7-494C-B8CD-64B76CC0F8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="11785600"/>
+          <a:ext cx="19050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308863F4-8372-4820-AADF-4CA898A2C047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="12541250"/>
+          <a:ext cx="19050" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA18DEF2-58F1-4CD3-A00F-EB5F1DCF71EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="13258800"/>
+          <a:ext cx="19050" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9231" name="Flowchart: Process 9230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4DE5F4-6262-48F1-9E28-1CCF1DCC58F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="14732000"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>enable the math emulator</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Flowchart: Process 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BC83EF-E01C-4D55-9147-71036103EAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="15487650"/>
+          <a:ext cx="5905500" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>some public variables setup:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>root file device &amp; swap device number </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>formats console terminal cols and rows</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>saves term into env</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>drive_info = loads hard drive info</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Flowchart: Process 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E76697-CC3E-494B-A68C-26849B11FC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="17145000"/>
+          <a:ext cx="5905500" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>memory:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>memory_end = size of memory 16MiB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>buffer_memory_end = 4MiB = main_memory_start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Flowchart: Process 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC5F6E2-E89D-4A27-A675-C8EDB1CC8BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="18783300"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>rd_init: ramdisk init, which can be ignored</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Flowchart: Process 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE68783-EFD3-4F32-A749-7DCF2BA32B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="19519900"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>a couple of initialation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Flowchart: Process 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2AD8C8-CEC8-4C89-99DE-19B0953973AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="20256500"/>
+          <a:ext cx="5905500" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>mem_init: main memory init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>paging pages = 3840 which is 15 MiB * 256 pages/MiB, 1MiB to 16MiB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>buffer pages = 256 * 3 = 762 pages, 1MiB to 4MiB, set 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>main memory pages = 256 * 12 = 3048 pages, 4MiB to 16 MiB, set 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>mem_map array to mark: 0 available, 100 used</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Flowchart: Process 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EF5780-42F9-4F33-AF45-6DD668041381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="21932900"/>
+          <a:ext cx="5905500" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>trap_init: 255 interruputs or exception in total, index of IDT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>0 - 31 by Intel, exception: Abort, trap, fault eg. Page-fault. 1 for interrupt </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>32 - 47 for hardware interruput </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>gates 48-255 for operating system, soft interrupt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Flowchart: Process 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E11AD83-B2C0-4FAC-93B4-1DC3EDAF2D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="23590250"/>
+          <a:ext cx="5905500" cy="2006600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>when exception happens say for </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>0 divide_error: CPU searches the IDT, locates and run the handler, prints error message, and do_exit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>1 debug: do_int3, prints message and iret</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>2 nmi: same as 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>3 int3 same as 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>4-13,15,17 die as well</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>14: page_fault speicial </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>16: coprocessor_error</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>39: parallel_interrupt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>45: irq13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Flowchart: Process 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631F3237-B456-41E6-8769-AFC09543266A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="25965150"/>
+          <a:ext cx="5905500" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>block device init:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>set -1 to all request.dev, and null to request.next</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>character device init: none</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Flowchart: Process 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3933A43A-4F61-4ED5-91E0-A5BE075AB187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="27438350"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>tty_init: see later for more details</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Flowchart: Process 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E84492-9513-4F73-9711-C20A89A7C659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="28174950"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>time_init: set the startup_time in seconds</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Flowchart: Process 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4FEC0C-ABA7-4F06-BD6F-219049E6E306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="28911550"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>sched_init:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9235" name="Thought Bubble: Cloud 9234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB027F18-0495-4F49-9589-A141F50E0143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="23571200"/>
+          <a:ext cx="4724400" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>two pins INTR and NMI on the processor chip</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>IF in EFLAGS can mask all the maskable hardware interrupts but not soft interrupts like INT 80</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>exception includes software exception and processor exception</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9237" name="Straight Arrow Connector 9236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F860AAA8-DEED-49E5-BE69-6D161564205A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9231" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="15100300"/>
+          <a:ext cx="0" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9239" name="Straight Arrow Connector 9238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1026A69F-4120-4F8F-813F-19B5C2DE7F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="16757650"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9241" name="Straight Arrow Connector 9240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675BF1EB-5F8D-4972-AE37-155E14333EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="18415000"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9243" name="Straight Arrow Connector 9242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322323B5-5D01-4420-8691-D1E464CCDCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="19151600"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9245" name="Straight Arrow Connector 9244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4770885-9EE0-4DDE-ABFB-435C3AB3E443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="19888200"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9247" name="Straight Arrow Connector 9246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D08DC79-2189-4B2B-A5F2-F3F849BC3AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="21526500"/>
+          <a:ext cx="0" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242DDCF0-4BCD-4042-9661-5F6C416A19F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="23202900"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C15C5D9-0306-4828-97DF-06764AC8C323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="89" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="25596850"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C761A3-D095-4895-B4E9-322FF2E8306B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="27070050"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E1C6FF-1D44-474E-B8E2-502CD78DE14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="27806650"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0725F78-B4F4-43C3-9394-873A7D2A4196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="28543250"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1785,66 +5629,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC671F-1688-475C-9272-017C8108145F}">
-  <dimension ref="C1:C9"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C1" s="85" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="76"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="76"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="76"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="64">
+        <v>1</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="80"/>
+      <c r="C6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="80"/>
+      <c r="C7" s="79"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="79"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="80"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="76"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="80"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="76"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="80"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="76"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="80"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="80"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="80"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="80"/>
+      <c r="C15" s="79"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="64">
+        <v>2</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="85" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="79"/>
+      <c r="D17" s="76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="85" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="79"/>
+      <c r="D18" s="76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="85" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="79"/>
+      <c r="D19" s="76" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="85" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="79"/>
+      <c r="D20" s="76" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="85" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="79"/>
+      <c r="D21" s="76" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="79"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="79"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="79"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="79"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="79"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="79"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="79"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="79"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="79"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" location="arc!A1" display="architecture" xr:uid="{37CF111B-50EA-4070-B7DF-B0E432006D1A}"/>
-    <hyperlink ref="C5" location="reg!A1" display="registers" xr:uid="{5AB876C7-A40D-4D97-8E82-03B912DD860C}"/>
-    <hyperlink ref="C6" location="mem!A1" display="memory" xr:uid="{0FCCC753-09AA-49AB-B164-459BC187861E}"/>
-    <hyperlink ref="C7" location="des!A1" display="descriptor" xr:uid="{4E5A5F89-EADD-4A9D-9B8D-0F2963058CE8}"/>
-    <hyperlink ref="C8" location="pag!A1" display="paging" xr:uid="{B0618A13-244F-495A-B088-B1B0B69C59F3}"/>
-    <hyperlink ref="C9" location="IO!A1" display="I/O" xr:uid="{2F7425C9-D203-4310-9688-CE6CD214FB8A}"/>
+    <hyperlink ref="C5" location="workflow!A1" display="workflow" xr:uid="{A01BDF3D-B6F5-400E-BACF-C417E41B25EA}"/>
+    <hyperlink ref="D17" location="reg!A1" display="registers" xr:uid="{30FAB881-7E22-4B07-9B82-2D2B4E1CF9BB}"/>
+    <hyperlink ref="D18" location="mem!A1" display="memory" xr:uid="{D6CB455F-33DA-4D05-A76A-4246811F550C}"/>
+    <hyperlink ref="D19" location="des!A1" display="descriptor" xr:uid="{5C4A5DB1-5D3B-41BA-9BEA-2C707C800726}"/>
+    <hyperlink ref="D20" location="pag!A1" display="paging" xr:uid="{0C6D7901-2E4D-4609-9C33-E091E093A512}"/>
+    <hyperlink ref="D21" location="IO!A1" display="I/O" xr:uid="{60F6A6DF-41CB-4045-BADC-13CF2E9FA13A}"/>
+    <hyperlink ref="D16" location="arc!A1" display="architecture" xr:uid="{1BF8896B-B753-4C8F-BC26-4871A1D3F925}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{2112E7C4-6A56-43D8-A88D-17B5E4F8BC31}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C1705F75-0254-420F-8170-D13C445DDC5E}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{84F2B6B7-FC9A-453D-9D5C-17513344CD95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C7:F171"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C165" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="91"/>
+      <c r="E165" s="91"/>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C166" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C167" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="91"/>
+      <c r="E167" s="91"/>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C168" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="93"/>
+      <c r="E168" s="93"/>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F170" s="78"/>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D171" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D171" location="list!A1" display="list" xr:uid="{3BAC1074-D7F4-47D5-989C-64E4D4536F2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33672328-E12E-4BD0-9AE0-CD336D023842}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3DDEE8-563D-4E95-90EC-756CE1DA9B7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500290FB-4AFC-447C-90F6-1819C409E5B1}">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="AO127" sqref="AO127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4A881-F80B-4EFE-96CB-6DA6A5FAA9AD}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG31" sqref="AG31:AW31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1983,10 +6091,10 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="65"/>
+      <c r="P18" s="82"/>
     </row>
     <row r="19" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
@@ -2063,24 +6171,24 @@
       <c r="AD27" s="57"/>
       <c r="AE27" s="57"/>
       <c r="AF27" s="57"/>
-      <c r="AG27" s="64" t="s">
+      <c r="AG27" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="81"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="81"/>
+      <c r="AO27" s="81"/>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="81"/>
+      <c r="AR27" s="81"/>
+      <c r="AS27" s="81"/>
+      <c r="AT27" s="81"/>
+      <c r="AU27" s="81"/>
+      <c r="AV27" s="81"/>
     </row>
     <row r="28" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="46">
@@ -2268,24 +6376,24 @@
       <c r="AD30" s="57"/>
       <c r="AE30" s="57"/>
       <c r="AF30" s="57"/>
-      <c r="AG30" s="64" t="s">
+      <c r="AG30" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="81"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="81"/>
+      <c r="AR30" s="81"/>
+      <c r="AS30" s="81"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="81"/>
     </row>
     <row r="31" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="46">
@@ -2473,24 +6581,24 @@
       <c r="AD33" s="57"/>
       <c r="AE33" s="57"/>
       <c r="AF33" s="57"/>
-      <c r="AG33" s="64" t="s">
+      <c r="AG33" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="81"/>
+      <c r="AV33" s="81"/>
     </row>
     <row r="34" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="46">
@@ -2804,7 +6912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
   <dimension ref="A1:N36"/>
   <sheetViews>
@@ -2840,7 +6948,7 @@
     </row>
     <row r="2" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="21"/>
@@ -2850,7 +6958,7 @@
       <c r="J2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="84" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="44"/>
@@ -2859,46 +6967,46 @@
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="69"/>
+      <c r="B3" s="83"/>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
       <c r="H3" s="44"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="83"/>
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
       <c r="H4" s="44"/>
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="71"/>
+      <c r="K4" s="85"/>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="69"/>
+      <c r="B5" s="83"/>
       <c r="F5" s="23"/>
       <c r="G5" s="24"/>
       <c r="H5" s="44"/>
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="71"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="69"/>
+      <c r="B6" s="83"/>
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -2909,14 +7017,14 @@
       <c r="H6" s="44"/>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="71"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="23"/>
@@ -2924,27 +7032,27 @@
       <c r="H7" s="44"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="71"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
-      <c r="B8" s="69"/>
+      <c r="B8" s="83"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
       <c r="H8" s="44"/>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="71"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
-      <c r="B9" s="69"/>
+      <c r="B9" s="83"/>
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -2957,7 +7065,7 @@
       <c r="J9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="72"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
@@ -2977,7 +7085,7 @@
       <c r="J10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="84" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="44"/>
@@ -2997,7 +7105,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="71"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
@@ -3015,7 +7123,7 @@
       <c r="H12" s="44"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="85"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
@@ -3031,7 +7139,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="85"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
@@ -3047,7 +7155,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
@@ -3058,7 +7166,7 @@
       <c r="H15" s="44"/>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="71"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
@@ -3069,7 +7177,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
@@ -3084,7 +7192,7 @@
       <c r="J17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -3097,7 +7205,7 @@
       <c r="J18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="84" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="44"/>
@@ -3110,7 +7218,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="71"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
@@ -3121,7 +7229,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="16"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="71"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
@@ -3132,7 +7240,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="16"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="71"/>
+      <c r="K21" s="85"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
@@ -3145,7 +7253,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
@@ -3155,14 +7263,14 @@
       <c r="G23" s="24"/>
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="85"/>
     </row>
     <row r="24" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" s="25" t="s">
@@ -3173,7 +7281,7 @@
       <c r="J25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="72"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="21" t="s">
@@ -3195,16 +7303,16 @@
     </row>
     <row r="30" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="68" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3265,16 +7373,16 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="79" t="s">
+      <c r="G36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="80">
+      <c r="H36" s="71">
         <v>0</v>
       </c>
-      <c r="I36" s="81" t="s">
+      <c r="I36" s="72" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3290,11 +7398,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E0DF2-8A95-4FC9-B451-93711BBBA99F}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3307,7 +7415,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="73" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3506,16 +7614,16 @@
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="59" t="s">
         <v>102</v>
       </c>
@@ -3528,74 +7636,74 @@
       <c r="L3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
       <c r="Q3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="R3" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="66"/>
+      <c r="S3" s="87"/>
       <c r="T3" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="U3" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66" t="s">
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66" t="s">
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66" t="s">
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="87"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="87"/>
+      <c r="BH3" s="87"/>
+      <c r="BI3" s="87"/>
+      <c r="BJ3" s="87"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="87"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -3636,7 +7744,7 @@
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="74" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3835,16 +7943,16 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="59" t="s">
         <v>102</v>
       </c>
@@ -3857,19 +7965,19 @@
       <c r="L15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
       <c r="Q15" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="66" t="s">
+      <c r="R15" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="66"/>
+      <c r="S15" s="87"/>
       <c r="T15" s="62">
         <v>1</v>
       </c>
@@ -3885,55 +7993,55 @@
       <c r="X15" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="66" t="s">
+      <c r="Y15" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66" t="s">
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66" t="s">
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="66"/>
-      <c r="BJ15" s="66"/>
-      <c r="BK15" s="66"/>
-      <c r="BL15" s="66"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="87"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="87"/>
+      <c r="BD15" s="87"/>
+      <c r="BE15" s="87"/>
+      <c r="BF15" s="87"/>
+      <c r="BG15" s="87"/>
+      <c r="BH15" s="87"/>
+      <c r="BI15" s="87"/>
+      <c r="BJ15" s="87"/>
+      <c r="BK15" s="87"/>
+      <c r="BL15" s="87"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="74" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4132,16 +8240,16 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="59" t="s">
         <v>102</v>
       </c>
@@ -4154,19 +8262,19 @@
       <c r="L19" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
       <c r="Q19" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="66" t="s">
+      <c r="R19" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="66"/>
+      <c r="S19" s="87"/>
       <c r="T19" s="62">
         <v>1</v>
       </c>
@@ -4182,55 +8290,55 @@
       <c r="X19" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="Y19" s="66" t="s">
+      <c r="Y19" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66" t="s">
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66" t="s">
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="66"/>
-      <c r="BK19" s="66"/>
-      <c r="BL19" s="66"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="87"/>
+      <c r="BA19" s="87"/>
+      <c r="BB19" s="87"/>
+      <c r="BC19" s="87"/>
+      <c r="BD19" s="87"/>
+      <c r="BE19" s="87"/>
+      <c r="BF19" s="87"/>
+      <c r="BG19" s="87"/>
+      <c r="BH19" s="87"/>
+      <c r="BI19" s="87"/>
+      <c r="BJ19" s="87"/>
+      <c r="BK19" s="87"/>
+      <c r="BL19" s="87"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="73" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4429,16 +8537,16 @@
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="59" t="s">
         <v>102</v>
       </c>
@@ -4447,77 +8555,77 @@
         <v>0</v>
       </c>
       <c r="L23" s="59"/>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
       <c r="Q23" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="66" t="s">
+      <c r="R23" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S23" s="66"/>
+      <c r="S23" s="87"/>
       <c r="T23" s="62">
         <v>0</v>
       </c>
-      <c r="U23" s="67" t="s">
+      <c r="U23" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="66" t="s">
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66" t="s">
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66" t="s">
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="87"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
-      <c r="BD23" s="66"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="66"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="66"/>
-      <c r="BL23" s="66"/>
+      <c r="AX23" s="87"/>
+      <c r="AY23" s="87"/>
+      <c r="AZ23" s="87"/>
+      <c r="BA23" s="87"/>
+      <c r="BB23" s="87"/>
+      <c r="BC23" s="87"/>
+      <c r="BD23" s="87"/>
+      <c r="BE23" s="87"/>
+      <c r="BF23" s="87"/>
+      <c r="BG23" s="87"/>
+      <c r="BH23" s="87"/>
+      <c r="BI23" s="87"/>
+      <c r="BJ23" s="87"/>
+      <c r="BK23" s="87"/>
+      <c r="BL23" s="87"/>
     </row>
     <row r="25" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="75" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="57"/>
@@ -4718,31 +8826,31 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
       <c r="Q27" t="s">
         <v>91</v>
       </c>
-      <c r="R27" s="66" t="s">
+      <c r="R27" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S27" s="66"/>
+      <c r="S27" s="87"/>
       <c r="T27" s="59">
         <v>0</v>
       </c>
@@ -4767,42 +8875,42 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AG27" s="66" t="s">
+      <c r="AG27" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66" t="s">
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
-      <c r="AZ27" s="66"/>
-      <c r="BA27" s="66"/>
-      <c r="BB27" s="66"/>
-      <c r="BC27" s="66"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="66"/>
-      <c r="BF27" s="66"/>
-      <c r="BG27" s="66"/>
-      <c r="BH27" s="66"/>
-      <c r="BI27" s="66"/>
-      <c r="BJ27" s="66"/>
-      <c r="BK27" s="66"/>
-      <c r="BL27" s="66"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="87"/>
+      <c r="BG27" s="87"/>
+      <c r="BH27" s="87"/>
+      <c r="BI27" s="87"/>
+      <c r="BJ27" s="87"/>
+      <c r="BK27" s="87"/>
+      <c r="BL27" s="87"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
@@ -4858,7 +8966,7 @@
       <c r="BL28" s="9"/>
     </row>
     <row r="29" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="75" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="57"/>
@@ -5059,31 +9167,31 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
       <c r="Q31" t="s">
         <v>91</v>
       </c>
-      <c r="R31" s="66" t="s">
+      <c r="R31" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="66"/>
+      <c r="S31" s="87"/>
       <c r="T31" s="59">
         <v>0</v>
       </c>
@@ -5108,42 +9216,42 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AG31" s="66" t="s">
+      <c r="AG31" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66" t="s">
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
+      <c r="AS31" s="87"/>
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="66"/>
-      <c r="BA31" s="66"/>
-      <c r="BB31" s="66"/>
-      <c r="BC31" s="66"/>
-      <c r="BD31" s="66"/>
-      <c r="BE31" s="66"/>
-      <c r="BF31" s="66"/>
-      <c r="BG31" s="66"/>
-      <c r="BH31" s="66"/>
-      <c r="BI31" s="66"/>
-      <c r="BJ31" s="66"/>
-      <c r="BK31" s="66"/>
-      <c r="BL31" s="66"/>
+      <c r="AX31" s="87"/>
+      <c r="AY31" s="87"/>
+      <c r="AZ31" s="87"/>
+      <c r="BA31" s="87"/>
+      <c r="BB31" s="87"/>
+      <c r="BC31" s="87"/>
+      <c r="BD31" s="87"/>
+      <c r="BE31" s="87"/>
+      <c r="BF31" s="87"/>
+      <c r="BG31" s="87"/>
+      <c r="BH31" s="87"/>
+      <c r="BI31" s="87"/>
+      <c r="BJ31" s="87"/>
+      <c r="BK31" s="87"/>
+      <c r="BL31" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5187,7 +9295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112F238-A3C0-4767-9158-5E3CEE8F19C2}">
   <dimension ref="A1:AO48"/>
   <sheetViews>
@@ -5230,12 +9338,12 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="22"/>
-      <c r="AG1" s="73" t="s">
+      <c r="AG1" s="90" t="s">
         <v>52</v>
       </c>
       <c r="AL1" s="21"/>
       <c r="AM1" s="22"/>
-      <c r="AN1" s="70" t="s">
+      <c r="AN1" s="84" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5272,10 +9380,10 @@
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
       <c r="AF2" s="24"/>
-      <c r="AG2" s="73"/>
+      <c r="AG2" s="90"/>
       <c r="AL2" s="23"/>
       <c r="AM2" s="24"/>
-      <c r="AN2" s="71"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
@@ -5310,10 +9418,10 @@
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="24"/>
-      <c r="AG3" s="73"/>
+      <c r="AG3" s="90"/>
       <c r="AL3" s="23"/>
       <c r="AM3" s="24"/>
-      <c r="AN3" s="71"/>
+      <c r="AN3" s="85"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
@@ -5348,10 +9456,10 @@
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="73"/>
+      <c r="AG4" s="90"/>
       <c r="AL4" s="23"/>
       <c r="AM4" s="24"/>
-      <c r="AN4" s="71"/>
+      <c r="AN4" s="85"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
@@ -5386,10 +9494,10 @@
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="24"/>
-      <c r="AG5" s="73"/>
+      <c r="AG5" s="90"/>
       <c r="AL5" s="23"/>
       <c r="AM5" s="24"/>
-      <c r="AN5" s="71"/>
+      <c r="AN5" s="85"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
@@ -5424,10 +9532,10 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="24"/>
-      <c r="AG6" s="73"/>
+      <c r="AG6" s="90"/>
       <c r="AL6" s="23"/>
       <c r="AM6" s="24"/>
-      <c r="AN6" s="71"/>
+      <c r="AN6" s="85"/>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
@@ -5462,10 +9570,10 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="24"/>
-      <c r="AG7" s="73"/>
+      <c r="AG7" s="90"/>
       <c r="AL7" s="23"/>
       <c r="AM7" s="24"/>
-      <c r="AN7" s="71"/>
+      <c r="AN7" s="85"/>
     </row>
     <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36"/>
@@ -5500,10 +9608,10 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="38"/>
-      <c r="AG8" s="73"/>
+      <c r="AG8" s="90"/>
       <c r="AL8" s="25"/>
       <c r="AM8" s="26"/>
-      <c r="AN8" s="72"/>
+      <c r="AN8" s="86"/>
       <c r="AO8" t="s">
         <v>29</v>
       </c>
@@ -5541,10 +9649,10 @@
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="41"/>
-      <c r="AG9" s="73"/>
+      <c r="AG9" s="90"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="22"/>
-      <c r="AN9" s="70" t="s">
+      <c r="AN9" s="84" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5581,10 +9689,10 @@
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="41"/>
-      <c r="AG10" s="73"/>
+      <c r="AG10" s="90"/>
       <c r="AL10" s="23"/>
       <c r="AM10" s="24"/>
-      <c r="AN10" s="71"/>
+      <c r="AN10" s="85"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
@@ -5619,10 +9727,10 @@
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="41"/>
-      <c r="AG11" s="73"/>
+      <c r="AG11" s="90"/>
       <c r="AL11" s="23"/>
       <c r="AM11" s="24"/>
-      <c r="AN11" s="71"/>
+      <c r="AN11" s="85"/>
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27">
@@ -5721,20 +9829,20 @@
       <c r="AF12" s="29">
         <v>0</v>
       </c>
-      <c r="AG12" s="73"/>
+      <c r="AG12" s="90"/>
       <c r="AL12" s="23"/>
       <c r="AM12" s="24"/>
-      <c r="AN12" s="71"/>
+      <c r="AN12" s="85"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL13" s="23"/>
       <c r="AM13" s="24"/>
-      <c r="AN13" s="71"/>
+      <c r="AN13" s="85"/>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL14" s="23"/>
       <c r="AM14" s="24"/>
-      <c r="AN14" s="71"/>
+      <c r="AN14" s="85"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
@@ -5769,12 +9877,12 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
       <c r="AF15" s="22"/>
-      <c r="AG15" s="73" t="s">
+      <c r="AG15" s="90" t="s">
         <v>51</v>
       </c>
       <c r="AL15" s="23"/>
       <c r="AM15" s="24"/>
-      <c r="AN15" s="71"/>
+      <c r="AN15" s="85"/>
     </row>
     <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
@@ -5809,10 +9917,10 @@
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="24"/>
-      <c r="AG16" s="73"/>
+      <c r="AG16" s="90"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="26"/>
-      <c r="AN16" s="72"/>
+      <c r="AN16" s="86"/>
       <c r="AO16" t="s">
         <v>29</v>
       </c>
@@ -5850,10 +9958,10 @@
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
       <c r="AF17" s="24"/>
-      <c r="AG17" s="73"/>
+      <c r="AG17" s="90"/>
       <c r="AL17" s="21"/>
       <c r="AM17" s="22"/>
-      <c r="AN17" s="70" t="s">
+      <c r="AN17" s="84" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5890,10 +9998,10 @@
       <c r="AD18" s="31"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="32"/>
-      <c r="AG18" s="73"/>
+      <c r="AG18" s="90"/>
       <c r="AL18" s="23"/>
       <c r="AM18" s="24"/>
-      <c r="AN18" s="71"/>
+      <c r="AN18" s="85"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
@@ -5928,10 +10036,10 @@
       <c r="AD19" s="34"/>
       <c r="AE19" s="34"/>
       <c r="AF19" s="35"/>
-      <c r="AG19" s="73"/>
+      <c r="AG19" s="90"/>
       <c r="AL19" s="23"/>
       <c r="AM19" s="24"/>
-      <c r="AN19" s="71"/>
+      <c r="AN19" s="85"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
@@ -5966,10 +10074,10 @@
       <c r="AD20" s="34"/>
       <c r="AE20" s="34"/>
       <c r="AF20" s="35"/>
-      <c r="AG20" s="73"/>
+      <c r="AG20" s="90"/>
       <c r="AL20" s="23"/>
       <c r="AM20" s="24"/>
-      <c r="AN20" s="71"/>
+      <c r="AN20" s="85"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="33"/>
@@ -6004,10 +10112,10 @@
       <c r="AD21" s="34"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="35"/>
-      <c r="AG21" s="73"/>
+      <c r="AG21" s="90"/>
       <c r="AL21" s="23"/>
       <c r="AM21" s="24"/>
-      <c r="AN21" s="71"/>
+      <c r="AN21" s="85"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="27">
@@ -6106,20 +10214,20 @@
       <c r="AF22" s="29">
         <v>0</v>
       </c>
-      <c r="AG22" s="73"/>
+      <c r="AG22" s="90"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="24"/>
-      <c r="AN22" s="71"/>
+      <c r="AN22" s="85"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL23" s="23"/>
       <c r="AM23" s="24"/>
-      <c r="AN23" s="71"/>
+      <c r="AN23" s="85"/>
     </row>
     <row r="24" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL24" s="25"/>
       <c r="AM24" s="26"/>
-      <c r="AN24" s="72"/>
+      <c r="AN24" s="86"/>
       <c r="AO24" t="s">
         <v>29</v>
       </c>
@@ -6127,7 +10235,7 @@
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL25" s="21"/>
       <c r="AM25" s="22"/>
-      <c r="AN25" s="70" t="s">
+      <c r="AN25" s="84" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6137,7 +10245,7 @@
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="24"/>
-      <c r="AN26" s="71"/>
+      <c r="AN26" s="85"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
@@ -6174,7 +10282,7 @@
       <c r="AF27" s="35"/>
       <c r="AL27" s="23"/>
       <c r="AM27" s="24"/>
-      <c r="AN27" s="71"/>
+      <c r="AN27" s="85"/>
     </row>
     <row r="28" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="27">
@@ -6275,27 +10383,27 @@
       </c>
       <c r="AL28" s="23"/>
       <c r="AM28" s="24"/>
-      <c r="AN28" s="71"/>
+      <c r="AN28" s="85"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL29" s="23"/>
       <c r="AM29" s="24"/>
-      <c r="AN29" s="71"/>
+      <c r="AN29" s="85"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL30" s="23"/>
       <c r="AM30" s="24"/>
-      <c r="AN30" s="71"/>
+      <c r="AN30" s="85"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="AL31" s="23"/>
       <c r="AM31" s="24"/>
-      <c r="AN31" s="71"/>
+      <c r="AN31" s="85"/>
     </row>
     <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL32" s="25"/>
       <c r="AM32" s="26"/>
-      <c r="AN32" s="72"/>
+      <c r="AN32" s="86"/>
       <c r="AO32" t="s">
         <v>29</v>
       </c>
@@ -6303,44 +10411,44 @@
     <row r="33" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL33" s="21"/>
       <c r="AM33" s="22"/>
-      <c r="AN33" s="70" t="s">
+      <c r="AN33" s="84" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL34" s="23"/>
       <c r="AM34" s="24"/>
-      <c r="AN34" s="71"/>
+      <c r="AN34" s="85"/>
     </row>
     <row r="35" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL35" s="23"/>
       <c r="AM35" s="24"/>
-      <c r="AN35" s="71"/>
+      <c r="AN35" s="85"/>
     </row>
     <row r="36" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL36" s="23"/>
       <c r="AM36" s="24"/>
-      <c r="AN36" s="71"/>
+      <c r="AN36" s="85"/>
     </row>
     <row r="37" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL37" s="23"/>
       <c r="AM37" s="24"/>
-      <c r="AN37" s="71"/>
+      <c r="AN37" s="85"/>
     </row>
     <row r="38" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL38" s="23"/>
       <c r="AM38" s="24"/>
-      <c r="AN38" s="71"/>
+      <c r="AN38" s="85"/>
     </row>
     <row r="39" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL39" s="23"/>
       <c r="AM39" s="24"/>
-      <c r="AN39" s="71"/>
+      <c r="AN39" s="85"/>
     </row>
     <row r="40" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL40" s="25"/>
       <c r="AM40" s="26"/>
-      <c r="AN40" s="72"/>
+      <c r="AN40" s="86"/>
       <c r="AO40" t="s">
         <v>29</v>
       </c>
@@ -6348,44 +10456,44 @@
     <row r="41" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL41" s="21"/>
       <c r="AM41" s="22"/>
-      <c r="AN41" s="70" t="s">
+      <c r="AN41" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL42" s="23"/>
       <c r="AM42" s="24"/>
-      <c r="AN42" s="71"/>
+      <c r="AN42" s="85"/>
     </row>
     <row r="43" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL43" s="23"/>
       <c r="AM43" s="24"/>
-      <c r="AN43" s="71"/>
+      <c r="AN43" s="85"/>
     </row>
     <row r="44" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL44" s="23"/>
       <c r="AM44" s="24"/>
-      <c r="AN44" s="71"/>
+      <c r="AN44" s="85"/>
     </row>
     <row r="45" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL45" s="23"/>
       <c r="AM45" s="24"/>
-      <c r="AN45" s="71"/>
+      <c r="AN45" s="85"/>
     </row>
     <row r="46" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL46" s="23"/>
       <c r="AM46" s="24"/>
-      <c r="AN46" s="71"/>
+      <c r="AN46" s="85"/>
     </row>
     <row r="47" spans="38:41" x14ac:dyDescent="0.35">
       <c r="AL47" s="23"/>
       <c r="AM47" s="24"/>
-      <c r="AN47" s="71"/>
+      <c r="AN47" s="85"/>
     </row>
     <row r="48" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AL48" s="25"/>
       <c r="AM48" s="26"/>
-      <c r="AN48" s="72"/>
+      <c r="AN48" s="86"/>
       <c r="AO48" t="s">
         <v>30</v>
       </c>
@@ -6405,11 +10513,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1486DB-0A26-46D6-A9D5-2957CBBFE03E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -6451,73 +10559,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:F171"/>
-  <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C165" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="86"/>
-      <c r="E165" s="86"/>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C166" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="87"/>
-      <c r="E166" s="87"/>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C167" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C168" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="88"/>
-      <c r="E168" s="88"/>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F170" s="90"/>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D171" s="89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="C168:E168"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D171" location="list!A1" display="list" xr:uid="{3BAC1074-D7F4-47D5-989C-64E4D4536F2B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE35BA-EEC3-4183-A293-B1F6446F2BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6009E3AB-1371-4B51-A759-69CCB456A544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="827" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="152">
   <si>
     <t>I/O</t>
   </si>
@@ -459,6 +459,49 @@
   </si>
   <si>
     <t>initiliation: the main()</t>
+  </si>
+  <si>
+    <t>4 MiB</t>
+  </si>
+  <si>
+    <t>1KiB</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>1MiB</t>
+  </si>
+  <si>
+    <t>640KiB</t>
+  </si>
+  <si>
+    <t>16MiB</t>
+  </si>
+  <si>
+    <t>0KiB</t>
+  </si>
+  <si>
+    <t>end
+~200KiB</t>
+  </si>
+  <si>
+    <t>4MiB</t>
+  </si>
+  <si>
+    <t>1Kib for 1 buffer slot</t>
+  </si>
+  <si>
+    <t>bh</t>
+  </si>
+  <si>
+    <t>buffer memory layout</t>
+  </si>
+  <si>
+    <t>buffer head structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video &amp; BIOS, </t>
   </si>
 </sst>
 </file>
@@ -533,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,8 +655,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -738,12 +787,290 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -751,10 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,12 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -900,6 +1217,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,10 +1240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,6 +1258,131 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4009,8 +4454,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4026,7 +4471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="393700" y="28911550"/>
-          <a:ext cx="5905500" cy="368300"/>
+          <a:ext cx="5905500" cy="1098550"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4057,6 +4502,53 @@
             <a:rPr lang="en-AU" sz="1100"/>
             <a:t>sched_init:</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>fills the descriptor of TSS and LDT into the GDT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> for task 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>sets</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> all other descriptors to 0 for task 1 - 63;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>timer init;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>sets the interrupt handler of timer;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>sets the system call intterrupt.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4092,7 +4584,10 @@
           <a:ext cx="4724400" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54838"/>
+            <a:gd name="adj2" fmla="val 22500"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4748,10 +5243,889 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Flowchart: Process 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A779ADC-22CE-4A91-9694-7918DE61CFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="30384750"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>buffer_init</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB73F08-F007-44BD-956A-9A7F28E60191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="30010100"/>
+          <a:ext cx="0" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD8E6E6-188F-476E-8AEF-07E92645DAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="30746700"/>
+          <a:ext cx="0" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Flowchart: Process 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2452CE01-C9A3-4B47-88A5-31D30EB86DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412750" y="31121350"/>
+          <a:ext cx="5905500" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>buffer_init</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97FB026-6E87-4280-ABBF-1C4C210C74FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3835400"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B76F849-1F09-4F8D-AFAF-0E0E22E26409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="1981200"/>
+          <a:ext cx="609600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB21F5D6-A7DE-4774-85C6-9A8CB6D445F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2882900" y="1651000"/>
+          <a:ext cx="609600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA99A3F-9FEA-497B-AB78-A56AD532F532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2876550" y="1479550"/>
+          <a:ext cx="609600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A01B3A7-AAA1-4615-96C8-367597660769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2876550" y="977900"/>
+          <a:ext cx="609600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0985946C-57BF-4671-81B3-206CCD652F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3105150" y="190500"/>
+          <a:ext cx="609600" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F132E33-2E62-4D3A-9C96-D14AF3587533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831850" y="2851150"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3FDE4F-16D1-41E4-92F7-E5D7C982613B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="3225800"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F09094-F76E-4655-930F-86CEF513158E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="10229850"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D666888-8D27-4098-88A7-80BFFD558BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="615950" y="12204700"/>
+          <a:ext cx="946150" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD9A1C3-CB2B-4146-8021-8A425447D6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="5581650"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E84D16-6062-463F-8541-BBEBE1C447DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="4070350"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5631,164 +7005,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC671F-1688-475C-9272-017C8108145F}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.54296875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="58" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="76"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="64">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="70" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="80"/>
-      <c r="C6" s="79"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="80"/>
-      <c r="C7" s="79"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" s="79"/>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="80"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="80"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="80"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="80"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="76"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="80"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="80"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="73"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="64">
+      <c r="B16" s="58">
         <v>2</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="70" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="79"/>
-      <c r="D17" s="76" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="79"/>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="70" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="79"/>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="70" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="79"/>
-      <c r="D20" s="76" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="79"/>
-      <c r="D21" s="76" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="70" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="79"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="79"/>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="79"/>
+      <c r="C24" s="73"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="79"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="79"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="79"/>
+      <c r="C27" s="73"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="79"/>
+      <c r="C28" s="73"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="79"/>
+      <c r="C29" s="73"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="79"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="79"/>
+      <c r="C31" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5827,38 +7201,38 @@
       <c r="E7" s="3"/>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C165" s="91" t="s">
+      <c r="C165" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="91"/>
-      <c r="E165" s="91"/>
+      <c r="D165" s="86"/>
+      <c r="E165" s="86"/>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C166" s="92" t="s">
+      <c r="C166" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="92"/>
-      <c r="E166" s="92"/>
+      <c r="D166" s="87"/>
+      <c r="E166" s="87"/>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C167" s="91" t="s">
+      <c r="C167" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D167" s="91"/>
-      <c r="E167" s="91"/>
+      <c r="D167" s="86"/>
+      <c r="E167" s="86"/>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C168" s="93" t="s">
+      <c r="C168" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D168" s="93"/>
-      <c r="E168" s="93"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F170" s="78"/>
+      <c r="F170" s="72"/>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D171" s="77" t="s">
+      <c r="D171" s="71" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5909,8 +7283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500290FB-4AFC-447C-90F6-1819C409E5B1}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="AO127" sqref="AO127"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5951,181 +7325,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4A881-F80B-4EFE-96CB-6DA6A5FAA9AD}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="2.6328125" style="9"/>
+    <col min="1" max="16384" width="2.6328125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
-      <c r="N15" s="53">
+      <c r="A15" s="49"/>
+      <c r="N15" s="47">
         <v>1</v>
       </c>
-      <c r="O15" s="55" t="s">
+      <c r="O15" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
-      <c r="N16" s="53">
+      <c r="A16" s="49"/>
+      <c r="N16" s="47">
         <v>0</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>13</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>12</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>11</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>9</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>8</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>7</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="6">
         <v>5</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="6">
         <v>4</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="6">
         <v>3</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="7">
         <v>2</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="8">
         <v>1</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="O18" s="82" t="s">
+      <c r="A18" s="16"/>
+      <c r="O18" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="82"/>
-    </row>
-    <row r="19" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
+      <c r="P18" s="77"/>
+    </row>
+    <row r="19" spans="1:48" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A24" s="55"/>
+      <c r="A24" s="49"/>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="50" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6137,202 +7511,202 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="81" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="81"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="81"/>
-      <c r="AP27" s="81"/>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="81"/>
-      <c r="AS27" s="81"/>
-      <c r="AT27" s="81"/>
-      <c r="AU27" s="81"/>
-      <c r="AV27" s="81"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
     </row>
     <row r="28" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="46">
+      <c r="A28" s="40">
         <v>31</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="41">
         <v>30</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="41">
         <v>29</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="41">
         <v>28</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="41">
         <v>27</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="41">
         <v>26</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="41">
         <v>25</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="41">
         <v>24</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="41">
         <v>23</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="41">
         <v>22</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="41">
         <v>21</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="41">
         <v>20</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="41">
         <v>19</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="41">
         <v>18</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="41">
         <v>17</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="41">
         <v>16</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="41">
         <v>15</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="41">
         <v>14</v>
       </c>
-      <c r="S28" s="47">
+      <c r="S28" s="41">
         <v>13</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="41">
         <v>12</v>
       </c>
-      <c r="U28" s="47">
+      <c r="U28" s="41">
         <v>11</v>
       </c>
-      <c r="V28" s="47">
+      <c r="V28" s="41">
         <v>10</v>
       </c>
-      <c r="W28" s="47">
+      <c r="W28" s="41">
         <v>9</v>
       </c>
-      <c r="X28" s="47">
+      <c r="X28" s="41">
         <v>8</v>
       </c>
-      <c r="Y28" s="47">
+      <c r="Y28" s="41">
         <v>7</v>
       </c>
-      <c r="Z28" s="47">
+      <c r="Z28" s="41">
         <v>6</v>
       </c>
-      <c r="AA28" s="47">
+      <c r="AA28" s="41">
         <v>5</v>
       </c>
-      <c r="AB28" s="47">
+      <c r="AB28" s="41">
         <v>4</v>
       </c>
-      <c r="AC28" s="47">
+      <c r="AC28" s="41">
         <v>3</v>
       </c>
-      <c r="AD28" s="47">
+      <c r="AD28" s="41">
         <v>2</v>
       </c>
-      <c r="AE28" s="47">
+      <c r="AE28" s="41">
         <v>1</v>
       </c>
-      <c r="AF28" s="48">
+      <c r="AF28" s="42">
         <v>0</v>
       </c>
-      <c r="AG28" s="45">
+      <c r="AG28" s="39">
         <v>15</v>
       </c>
-      <c r="AH28" s="45">
+      <c r="AH28" s="39">
         <v>14</v>
       </c>
-      <c r="AI28" s="45">
+      <c r="AI28" s="39">
         <v>13</v>
       </c>
-      <c r="AJ28" s="45">
+      <c r="AJ28" s="39">
         <v>12</v>
       </c>
-      <c r="AK28" s="45">
+      <c r="AK28" s="39">
         <v>11</v>
       </c>
-      <c r="AL28" s="45">
+      <c r="AL28" s="39">
         <v>10</v>
       </c>
-      <c r="AM28" s="45">
+      <c r="AM28" s="39">
         <v>9</v>
       </c>
-      <c r="AN28" s="45">
+      <c r="AN28" s="39">
         <v>8</v>
       </c>
-      <c r="AO28" s="45">
+      <c r="AO28" s="39">
         <v>7</v>
       </c>
-      <c r="AP28" s="45">
+      <c r="AP28" s="39">
         <v>6</v>
       </c>
-      <c r="AQ28" s="45">
+      <c r="AQ28" s="39">
         <v>5</v>
       </c>
-      <c r="AR28" s="45">
+      <c r="AR28" s="39">
         <v>4</v>
       </c>
-      <c r="AS28" s="45">
+      <c r="AS28" s="39">
         <v>3</v>
       </c>
-      <c r="AT28" s="45">
+      <c r="AT28" s="39">
         <v>2</v>
       </c>
-      <c r="AU28" s="45">
+      <c r="AU28" s="39">
         <v>1</v>
       </c>
-      <c r="AV28" s="45">
+      <c r="AV28" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6342,202 +7716,202 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="81" t="s">
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="81"/>
-      <c r="AP30" s="81"/>
-      <c r="AQ30" s="81"/>
-      <c r="AR30" s="81"/>
-      <c r="AS30" s="81"/>
-      <c r="AT30" s="81"/>
-      <c r="AU30" s="81"/>
-      <c r="AV30" s="81"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
     </row>
     <row r="31" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="46">
+      <c r="A31" s="40">
         <v>31</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="41">
         <v>30</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="41">
         <v>29</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="41">
         <v>28</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="41">
         <v>27</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="41">
         <v>26</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="41">
         <v>25</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="41">
         <v>24</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="41">
         <v>23</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="41">
         <v>22</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="41">
         <v>21</v>
       </c>
-      <c r="L31" s="47">
+      <c r="L31" s="41">
         <v>20</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="41">
         <v>19</v>
       </c>
-      <c r="N31" s="47">
+      <c r="N31" s="41">
         <v>18</v>
       </c>
-      <c r="O31" s="47">
+      <c r="O31" s="41">
         <v>17</v>
       </c>
-      <c r="P31" s="47">
+      <c r="P31" s="41">
         <v>16</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="41">
         <v>15</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="41">
         <v>14</v>
       </c>
-      <c r="S31" s="47">
+      <c r="S31" s="41">
         <v>13</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="41">
         <v>12</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="41">
         <v>11</v>
       </c>
-      <c r="V31" s="47">
+      <c r="V31" s="41">
         <v>10</v>
       </c>
-      <c r="W31" s="47">
+      <c r="W31" s="41">
         <v>9</v>
       </c>
-      <c r="X31" s="47">
+      <c r="X31" s="41">
         <v>8</v>
       </c>
-      <c r="Y31" s="47">
+      <c r="Y31" s="41">
         <v>7</v>
       </c>
-      <c r="Z31" s="47">
+      <c r="Z31" s="41">
         <v>6</v>
       </c>
-      <c r="AA31" s="47">
+      <c r="AA31" s="41">
         <v>5</v>
       </c>
-      <c r="AB31" s="47">
+      <c r="AB31" s="41">
         <v>4</v>
       </c>
-      <c r="AC31" s="47">
+      <c r="AC31" s="41">
         <v>3</v>
       </c>
-      <c r="AD31" s="47">
+      <c r="AD31" s="41">
         <v>2</v>
       </c>
-      <c r="AE31" s="47">
+      <c r="AE31" s="41">
         <v>1</v>
       </c>
-      <c r="AF31" s="48">
+      <c r="AF31" s="42">
         <v>0</v>
       </c>
-      <c r="AG31" s="45">
+      <c r="AG31" s="39">
         <v>15</v>
       </c>
-      <c r="AH31" s="45">
+      <c r="AH31" s="39">
         <v>14</v>
       </c>
-      <c r="AI31" s="45">
+      <c r="AI31" s="39">
         <v>13</v>
       </c>
-      <c r="AJ31" s="45">
+      <c r="AJ31" s="39">
         <v>12</v>
       </c>
-      <c r="AK31" s="45">
+      <c r="AK31" s="39">
         <v>11</v>
       </c>
-      <c r="AL31" s="45">
+      <c r="AL31" s="39">
         <v>10</v>
       </c>
-      <c r="AM31" s="45">
+      <c r="AM31" s="39">
         <v>9</v>
       </c>
-      <c r="AN31" s="45">
+      <c r="AN31" s="39">
         <v>8</v>
       </c>
-      <c r="AO31" s="45">
+      <c r="AO31" s="39">
         <v>7</v>
       </c>
-      <c r="AP31" s="45">
+      <c r="AP31" s="39">
         <v>6</v>
       </c>
-      <c r="AQ31" s="45">
+      <c r="AQ31" s="39">
         <v>5</v>
       </c>
-      <c r="AR31" s="45">
+      <c r="AR31" s="39">
         <v>4</v>
       </c>
-      <c r="AS31" s="45">
+      <c r="AS31" s="39">
         <v>3</v>
       </c>
-      <c r="AT31" s="45">
+      <c r="AT31" s="39">
         <v>2</v>
       </c>
-      <c r="AU31" s="45">
+      <c r="AU31" s="39">
         <v>1</v>
       </c>
-      <c r="AV31" s="45">
+      <c r="AV31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6547,202 +7921,202 @@
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="81" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="81"/>
-      <c r="AP33" s="81"/>
-      <c r="AQ33" s="81"/>
-      <c r="AR33" s="81"/>
-      <c r="AS33" s="81"/>
-      <c r="AT33" s="81"/>
-      <c r="AU33" s="81"/>
-      <c r="AV33" s="81"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
     </row>
     <row r="34" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="46">
+      <c r="A34" s="40">
         <v>31</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="41">
         <v>30</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="41">
         <v>29</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="41">
         <v>28</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="41">
         <v>27</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="41">
         <v>26</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="41">
         <v>25</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="41">
         <v>24</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="41">
         <v>23</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="41">
         <v>22</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="41">
         <v>21</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="41">
         <v>20</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="41">
         <v>19</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="41">
         <v>18</v>
       </c>
-      <c r="O34" s="47">
+      <c r="O34" s="41">
         <v>17</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="41">
         <v>16</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="41">
         <v>15</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="41">
         <v>14</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="41">
         <v>13</v>
       </c>
-      <c r="T34" s="47">
+      <c r="T34" s="41">
         <v>12</v>
       </c>
-      <c r="U34" s="47">
+      <c r="U34" s="41">
         <v>11</v>
       </c>
-      <c r="V34" s="47">
+      <c r="V34" s="41">
         <v>10</v>
       </c>
-      <c r="W34" s="47">
+      <c r="W34" s="41">
         <v>9</v>
       </c>
-      <c r="X34" s="47">
+      <c r="X34" s="41">
         <v>8</v>
       </c>
-      <c r="Y34" s="47">
+      <c r="Y34" s="41">
         <v>7</v>
       </c>
-      <c r="Z34" s="47">
+      <c r="Z34" s="41">
         <v>6</v>
       </c>
-      <c r="AA34" s="47">
+      <c r="AA34" s="41">
         <v>5</v>
       </c>
-      <c r="AB34" s="47">
+      <c r="AB34" s="41">
         <v>4</v>
       </c>
-      <c r="AC34" s="47">
+      <c r="AC34" s="41">
         <v>3</v>
       </c>
-      <c r="AD34" s="47">
+      <c r="AD34" s="41">
         <v>2</v>
       </c>
-      <c r="AE34" s="47">
+      <c r="AE34" s="41">
         <v>1</v>
       </c>
-      <c r="AF34" s="48">
+      <c r="AF34" s="42">
         <v>0</v>
       </c>
-      <c r="AG34" s="45">
+      <c r="AG34" s="39">
         <v>15</v>
       </c>
-      <c r="AH34" s="45">
+      <c r="AH34" s="39">
         <v>14</v>
       </c>
-      <c r="AI34" s="45">
+      <c r="AI34" s="39">
         <v>13</v>
       </c>
-      <c r="AJ34" s="45">
+      <c r="AJ34" s="39">
         <v>12</v>
       </c>
-      <c r="AK34" s="45">
+      <c r="AK34" s="39">
         <v>11</v>
       </c>
-      <c r="AL34" s="45">
+      <c r="AL34" s="39">
         <v>10</v>
       </c>
-      <c r="AM34" s="45">
+      <c r="AM34" s="39">
         <v>9</v>
       </c>
-      <c r="AN34" s="45">
+      <c r="AN34" s="39">
         <v>8</v>
       </c>
-      <c r="AO34" s="45">
+      <c r="AO34" s="39">
         <v>7</v>
       </c>
-      <c r="AP34" s="45">
+      <c r="AP34" s="39">
         <v>6</v>
       </c>
-      <c r="AQ34" s="45">
+      <c r="AQ34" s="39">
         <v>5</v>
       </c>
-      <c r="AR34" s="45">
+      <c r="AR34" s="39">
         <v>4</v>
       </c>
-      <c r="AS34" s="45">
+      <c r="AS34" s="39">
         <v>3</v>
       </c>
-      <c r="AT34" s="45">
+      <c r="AT34" s="39">
         <v>2</v>
       </c>
-      <c r="AU34" s="45">
+      <c r="AU34" s="39">
         <v>1</v>
       </c>
-      <c r="AV34" s="45">
+      <c r="AV34" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6752,10 +8126,10 @@
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A36" s="55"/>
+      <c r="A36" s="49"/>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="50" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6763,8 +8137,8 @@
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6779,12 +8153,12 @@
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42" s="5">
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -6792,113 +8166,113 @@
       </c>
     </row>
     <row r="43" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="46">
+      <c r="A43" s="40">
         <v>31</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="41">
         <v>30</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="41">
         <v>29</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="41">
         <v>28</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="41">
         <v>27</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="41">
         <v>26</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="41">
         <v>25</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="41">
         <v>24</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="41">
         <v>23</v>
       </c>
-      <c r="J43" s="47">
+      <c r="J43" s="41">
         <v>22</v>
       </c>
-      <c r="K43" s="47">
+      <c r="K43" s="41">
         <v>21</v>
       </c>
-      <c r="L43" s="47">
+      <c r="L43" s="41">
         <v>20</v>
       </c>
-      <c r="M43" s="47">
+      <c r="M43" s="41">
         <v>19</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="41">
         <v>18</v>
       </c>
-      <c r="O43" s="47">
+      <c r="O43" s="41">
         <v>17</v>
       </c>
-      <c r="P43" s="47">
+      <c r="P43" s="41">
         <v>16</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="Q43" s="41">
         <v>15</v>
       </c>
-      <c r="R43" s="47">
+      <c r="R43" s="41">
         <v>14</v>
       </c>
-      <c r="S43" s="47">
+      <c r="S43" s="41">
         <v>13</v>
       </c>
-      <c r="T43" s="47">
+      <c r="T43" s="41">
         <v>12</v>
       </c>
-      <c r="U43" s="47">
+      <c r="U43" s="41">
         <v>11</v>
       </c>
-      <c r="V43" s="47">
+      <c r="V43" s="41">
         <v>10</v>
       </c>
-      <c r="W43" s="47">
+      <c r="W43" s="41">
         <v>9</v>
       </c>
-      <c r="X43" s="47">
+      <c r="X43" s="41">
         <v>8</v>
       </c>
-      <c r="Y43" s="47">
+      <c r="Y43" s="41">
         <v>7</v>
       </c>
-      <c r="Z43" s="47">
+      <c r="Z43" s="41">
         <v>6</v>
       </c>
-      <c r="AA43" s="47">
+      <c r="AA43" s="41">
         <v>5</v>
       </c>
-      <c r="AB43" s="47">
+      <c r="AB43" s="41">
         <v>4</v>
       </c>
-      <c r="AC43" s="47">
+      <c r="AC43" s="41">
         <v>3</v>
       </c>
-      <c r="AD43" s="47">
+      <c r="AD43" s="41">
         <v>2</v>
       </c>
-      <c r="AE43" s="47">
+      <c r="AE43" s="41">
         <v>1</v>
       </c>
-      <c r="AF43" s="48">
+      <c r="AF43" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A46" s="55"/>
+      <c r="A46" s="49"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A47" s="54"/>
+      <c r="A47" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6914,487 +8288,967 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADD5A36-7464-451C-A5AF-787812987DA6}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="15" width="10.1796875" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="119"/>
+      <c r="B1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22"/>
+      <c r="K1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="83" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="119"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="D2" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="M2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="83"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-    </row>
-    <row r="4" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="83"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-    </row>
-    <row r="5" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="83"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-    </row>
-    <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="83"/>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="119"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="119"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="119"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="119"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="83" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="119"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="83"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="83"/>
-      <c r="C9" t="s">
+      <c r="D7" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="119"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="119"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="121" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-    </row>
-    <row r="10" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="20" t="s">
+      <c r="M9" s="81"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="M10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-    </row>
-    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="20" t="s">
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="119"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="119"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-    </row>
-    <row r="12" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="20" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="119"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-    </row>
-    <row r="13" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="119"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="D17" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="81"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="132" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="80"/>
+    </row>
+    <row r="25" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="133"/>
+      <c r="D25" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="80"/>
+    </row>
+    <row r="26" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="133"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="81"/>
+    </row>
+    <row r="27" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="134"/>
+      <c r="D27" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="K27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="131"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="43">
+        <v>0</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="15"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="1:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="19"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-    </row>
-    <row r="15" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-    </row>
-    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-    </row>
-    <row r="17" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F17" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-    </row>
-    <row r="18" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="44"/>
-    </row>
-    <row r="19" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-    </row>
-    <row r="20" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="23"/>
-      <c r="G22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-    </row>
-    <row r="23" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="85"/>
-    </row>
-    <row r="24" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="85"/>
-    </row>
-    <row r="25" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="86"/>
-    </row>
-    <row r="26" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="I26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="26"/>
-    </row>
-    <row r="30" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="6:14" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F31" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="49">
+      <c r="I37" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="65">
         <v>0</v>
       </c>
-      <c r="I35" s="51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F36" s="69" t="s">
+      <c r="K37" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="71">
-        <v>0</v>
-      </c>
-      <c r="I36" s="72" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="131" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="D40" s="78"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="109"/>
+    </row>
+    <row r="43" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="109"/>
+    </row>
+    <row r="44" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="109"/>
+    </row>
+    <row r="45" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="118"/>
+    </row>
+    <row r="46" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="117"/>
+    </row>
+    <row r="49" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="118"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="118"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="118"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="118"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="32">
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E13"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="K2:K9"/>
-    <mergeCell ref="K10:K17"/>
-    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="M10:M18"/>
+    <mergeCell ref="M19:M26"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7402,7 +9256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E0DF2-8A95-4FC9-B451-93711BBBA99F}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -7415,295 +9269,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="67" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    <row r="2" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>63</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>62</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>61</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>60</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>59</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>58</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>57</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>56</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>55</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <v>54</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="8">
         <v>53</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="8">
         <v>52</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="8">
         <v>51</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="8">
         <v>50</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="8">
         <v>49</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="8">
         <v>48</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="6">
         <v>47</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="6">
         <v>46</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="6">
         <v>45</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="6">
         <v>44</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="6">
         <v>43</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="6">
         <v>42</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="6">
         <v>41</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="6">
         <v>40</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="6">
         <v>39</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="6">
         <v>38</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="6">
         <v>37</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="6">
         <v>36</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="6">
         <v>35</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="6">
         <v>34</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="6">
         <v>33</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="6">
         <v>32</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="8">
         <v>31</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="8">
         <v>30</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="8">
         <v>29</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="8">
         <v>28</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="8">
         <v>27</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="8">
         <v>26</v>
       </c>
-      <c r="AM2" s="12">
+      <c r="AM2" s="8">
         <v>25</v>
       </c>
-      <c r="AN2" s="12">
+      <c r="AN2" s="8">
         <v>24</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AO2" s="8">
         <v>23</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="8">
         <v>22</v>
       </c>
-      <c r="AQ2" s="12">
+      <c r="AQ2" s="8">
         <v>21</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AR2" s="8">
         <v>20</v>
       </c>
-      <c r="AS2" s="12">
+      <c r="AS2" s="8">
         <v>19</v>
       </c>
-      <c r="AT2" s="12">
+      <c r="AT2" s="8">
         <v>18</v>
       </c>
-      <c r="AU2" s="12">
+      <c r="AU2" s="8">
         <v>17</v>
       </c>
-      <c r="AV2" s="12">
+      <c r="AV2" s="8">
         <v>16</v>
       </c>
-      <c r="AW2" s="10">
+      <c r="AW2" s="6">
         <v>15</v>
       </c>
-      <c r="AX2" s="10">
+      <c r="AX2" s="6">
         <v>14</v>
       </c>
-      <c r="AY2" s="10">
+      <c r="AY2" s="6">
         <v>13</v>
       </c>
-      <c r="AZ2" s="10">
+      <c r="AZ2" s="6">
         <v>12</v>
       </c>
-      <c r="BA2" s="10">
+      <c r="BA2" s="6">
         <v>11</v>
       </c>
-      <c r="BB2" s="10">
+      <c r="BB2" s="6">
         <v>10</v>
       </c>
-      <c r="BC2" s="10">
+      <c r="BC2" s="6">
         <v>9</v>
       </c>
-      <c r="BD2" s="10">
+      <c r="BD2" s="6">
         <v>8</v>
       </c>
-      <c r="BE2" s="10">
+      <c r="BE2" s="6">
         <v>7</v>
       </c>
-      <c r="BF2" s="10">
+      <c r="BF2" s="6">
         <v>6</v>
       </c>
-      <c r="BG2" s="10">
+      <c r="BG2" s="6">
         <v>5</v>
       </c>
-      <c r="BH2" s="10">
+      <c r="BH2" s="6">
         <v>4</v>
       </c>
-      <c r="BI2" s="10">
+      <c r="BI2" s="6">
         <v>3</v>
       </c>
-      <c r="BJ2" s="10">
+      <c r="BJ2" s="6">
         <v>2</v>
       </c>
-      <c r="BK2" s="10">
+      <c r="BK2" s="6">
         <v>1</v>
       </c>
-      <c r="BL2" s="10">
+      <c r="BL2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="59" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="53">
         <v>0</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="59" t="s">
+      <c r="S3" s="82"/>
+      <c r="T3" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87" t="s">
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87" t="s">
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="87"/>
-      <c r="BJ3" s="87"/>
-      <c r="BK3" s="87"/>
-      <c r="BL3" s="87"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -7744,1114 +9598,1114 @@
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="68" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+    <row r="14" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>63</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>62</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>61</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>60</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>59</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="8">
         <v>58</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>57</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="8">
         <v>56</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <v>55</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>54</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="8">
         <v>53</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <v>52</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <v>51</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="8">
         <v>50</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="8">
         <v>49</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="8">
         <v>48</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="6">
         <v>47</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="6">
         <v>46</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="6">
         <v>45</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="6">
         <v>44</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="6">
         <v>43</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="6">
         <v>42</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="6">
         <v>41</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="6">
         <v>40</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="6">
         <v>39</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="6">
         <v>38</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="6">
         <v>37</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="6">
         <v>36</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="6">
         <v>35</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="6">
         <v>34</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="6">
         <v>33</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="6">
         <v>32</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="8">
         <v>31</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="8">
         <v>30</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="8">
         <v>29</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="8">
         <v>28</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AK14" s="8">
         <v>27</v>
       </c>
-      <c r="AL14" s="12">
+      <c r="AL14" s="8">
         <v>26</v>
       </c>
-      <c r="AM14" s="12">
+      <c r="AM14" s="8">
         <v>25</v>
       </c>
-      <c r="AN14" s="12">
+      <c r="AN14" s="8">
         <v>24</v>
       </c>
-      <c r="AO14" s="12">
+      <c r="AO14" s="8">
         <v>23</v>
       </c>
-      <c r="AP14" s="12">
+      <c r="AP14" s="8">
         <v>22</v>
       </c>
-      <c r="AQ14" s="12">
+      <c r="AQ14" s="8">
         <v>21</v>
       </c>
-      <c r="AR14" s="12">
+      <c r="AR14" s="8">
         <v>20</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AS14" s="8">
         <v>19</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AT14" s="8">
         <v>18</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AU14" s="8">
         <v>17</v>
       </c>
-      <c r="AV14" s="12">
+      <c r="AV14" s="8">
         <v>16</v>
       </c>
-      <c r="AW14" s="10">
+      <c r="AW14" s="6">
         <v>15</v>
       </c>
-      <c r="AX14" s="10">
+      <c r="AX14" s="6">
         <v>14</v>
       </c>
-      <c r="AY14" s="10">
+      <c r="AY14" s="6">
         <v>13</v>
       </c>
-      <c r="AZ14" s="10">
+      <c r="AZ14" s="6">
         <v>12</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BA14" s="6">
         <v>11</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BB14" s="6">
         <v>10</v>
       </c>
-      <c r="BC14" s="10">
+      <c r="BC14" s="6">
         <v>9</v>
       </c>
-      <c r="BD14" s="10">
+      <c r="BD14" s="6">
         <v>8</v>
       </c>
-      <c r="BE14" s="10">
+      <c r="BE14" s="6">
         <v>7</v>
       </c>
-      <c r="BF14" s="10">
+      <c r="BF14" s="6">
         <v>6</v>
       </c>
-      <c r="BG14" s="10">
+      <c r="BG14" s="6">
         <v>5</v>
       </c>
-      <c r="BH14" s="10">
+      <c r="BH14" s="6">
         <v>4</v>
       </c>
-      <c r="BI14" s="10">
+      <c r="BI14" s="6">
         <v>3</v>
       </c>
-      <c r="BJ14" s="10">
+      <c r="BJ14" s="6">
         <v>2</v>
       </c>
-      <c r="BK14" s="10">
+      <c r="BK14" s="6">
         <v>1</v>
       </c>
-      <c r="BL14" s="10">
+      <c r="BL14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="59" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="53">
         <v>0</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="89" t="s">
+      <c r="M15" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
       <c r="Q15" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="87"/>
-      <c r="T15" s="62">
+      <c r="S15" s="82"/>
+      <c r="T15" s="56">
         <v>1</v>
       </c>
-      <c r="U15" s="63">
+      <c r="U15" s="57">
         <v>0</v>
       </c>
-      <c r="V15" s="63" t="s">
+      <c r="V15" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="63" t="s">
+      <c r="W15" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="63" t="s">
+      <c r="X15" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="87" t="s">
+      <c r="Y15" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87" t="s">
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87" t="s">
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="87"/>
-      <c r="BD15" s="87"/>
-      <c r="BE15" s="87"/>
-      <c r="BF15" s="87"/>
-      <c r="BG15" s="87"/>
-      <c r="BH15" s="87"/>
-      <c r="BI15" s="87"/>
-      <c r="BJ15" s="87"/>
-      <c r="BK15" s="87"/>
-      <c r="BL15" s="87"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+    <row r="18" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>63</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="8">
         <v>62</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <v>61</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>60</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <v>59</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <v>58</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <v>57</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="8">
         <v>56</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="8">
         <v>55</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="8">
         <v>54</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="8">
         <v>53</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="8">
         <v>52</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="8">
         <v>51</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="8">
         <v>50</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="8">
         <v>49</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="8">
         <v>48</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="6">
         <v>47</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="6">
         <v>46</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="6">
         <v>45</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="6">
         <v>44</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="6">
         <v>43</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18" s="6">
         <v>42</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="6">
         <v>41</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="6">
         <v>40</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="6">
         <v>39</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="6">
         <v>38</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="6">
         <v>37</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="6">
         <v>36</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="6">
         <v>35</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="6">
         <v>34</v>
       </c>
-      <c r="AE18" s="10">
+      <c r="AE18" s="6">
         <v>33</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="6">
         <v>32</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AG18" s="8">
         <v>31</v>
       </c>
-      <c r="AH18" s="12">
+      <c r="AH18" s="8">
         <v>30</v>
       </c>
-      <c r="AI18" s="12">
+      <c r="AI18" s="8">
         <v>29</v>
       </c>
-      <c r="AJ18" s="12">
+      <c r="AJ18" s="8">
         <v>28</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="AK18" s="8">
         <v>27</v>
       </c>
-      <c r="AL18" s="12">
+      <c r="AL18" s="8">
         <v>26</v>
       </c>
-      <c r="AM18" s="12">
+      <c r="AM18" s="8">
         <v>25</v>
       </c>
-      <c r="AN18" s="12">
+      <c r="AN18" s="8">
         <v>24</v>
       </c>
-      <c r="AO18" s="12">
+      <c r="AO18" s="8">
         <v>23</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="AP18" s="8">
         <v>22</v>
       </c>
-      <c r="AQ18" s="12">
+      <c r="AQ18" s="8">
         <v>21</v>
       </c>
-      <c r="AR18" s="12">
+      <c r="AR18" s="8">
         <v>20</v>
       </c>
-      <c r="AS18" s="12">
+      <c r="AS18" s="8">
         <v>19</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="AT18" s="8">
         <v>18</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="AU18" s="8">
         <v>17</v>
       </c>
-      <c r="AV18" s="12">
+      <c r="AV18" s="8">
         <v>16</v>
       </c>
-      <c r="AW18" s="10">
+      <c r="AW18" s="6">
         <v>15</v>
       </c>
-      <c r="AX18" s="10">
+      <c r="AX18" s="6">
         <v>14</v>
       </c>
-      <c r="AY18" s="10">
+      <c r="AY18" s="6">
         <v>13</v>
       </c>
-      <c r="AZ18" s="10">
+      <c r="AZ18" s="6">
         <v>12</v>
       </c>
-      <c r="BA18" s="10">
+      <c r="BA18" s="6">
         <v>11</v>
       </c>
-      <c r="BB18" s="10">
+      <c r="BB18" s="6">
         <v>10</v>
       </c>
-      <c r="BC18" s="10">
+      <c r="BC18" s="6">
         <v>9</v>
       </c>
-      <c r="BD18" s="10">
+      <c r="BD18" s="6">
         <v>8</v>
       </c>
-      <c r="BE18" s="10">
+      <c r="BE18" s="6">
         <v>7</v>
       </c>
-      <c r="BF18" s="10">
+      <c r="BF18" s="6">
         <v>6</v>
       </c>
-      <c r="BG18" s="10">
+      <c r="BG18" s="6">
         <v>5</v>
       </c>
-      <c r="BH18" s="10">
+      <c r="BH18" s="6">
         <v>4</v>
       </c>
-      <c r="BI18" s="10">
+      <c r="BI18" s="6">
         <v>3</v>
       </c>
-      <c r="BJ18" s="10">
+      <c r="BJ18" s="6">
         <v>2</v>
       </c>
-      <c r="BK18" s="10">
+      <c r="BK18" s="6">
         <v>1</v>
       </c>
-      <c r="BL18" s="10">
+      <c r="BL18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="59" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="53">
         <v>0</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="89" t="s">
+      <c r="M19" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
       <c r="Q19" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="87" t="s">
+      <c r="R19" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S19" s="87"/>
-      <c r="T19" s="62">
+      <c r="S19" s="82"/>
+      <c r="T19" s="56">
         <v>1</v>
       </c>
-      <c r="U19" s="63">
+      <c r="U19" s="57">
         <v>0</v>
       </c>
-      <c r="V19" s="63" t="s">
+      <c r="V19" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="W19" s="63" t="s">
+      <c r="W19" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="63" t="s">
+      <c r="X19" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="Y19" s="87" t="s">
+      <c r="Y19" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87" t="s">
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87" t="s">
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="87"/>
-      <c r="BA19" s="87"/>
-      <c r="BB19" s="87"/>
-      <c r="BC19" s="87"/>
-      <c r="BD19" s="87"/>
-      <c r="BE19" s="87"/>
-      <c r="BF19" s="87"/>
-      <c r="BG19" s="87"/>
-      <c r="BH19" s="87"/>
-      <c r="BI19" s="87"/>
-      <c r="BJ19" s="87"/>
-      <c r="BK19" s="87"/>
-      <c r="BL19" s="87"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="82"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="82"/>
+      <c r="BE19" s="82"/>
+      <c r="BF19" s="82"/>
+      <c r="BG19" s="82"/>
+      <c r="BH19" s="82"/>
+      <c r="BI19" s="82"/>
+      <c r="BJ19" s="82"/>
+      <c r="BK19" s="82"/>
+      <c r="BL19" s="82"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:64" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+    <row r="22" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>63</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <v>62</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <v>61</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>60</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <v>59</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <v>58</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <v>57</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="8">
         <v>56</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="8">
         <v>55</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="8">
         <v>54</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="8">
         <v>53</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="8">
         <v>52</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="8">
         <v>51</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="8">
         <v>50</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="8">
         <v>49</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="8">
         <v>48</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="6">
         <v>47</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="6">
         <v>46</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="6">
         <v>45</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="6">
         <v>44</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="6">
         <v>43</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="6">
         <v>42</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="6">
         <v>41</v>
       </c>
-      <c r="X22" s="10">
+      <c r="X22" s="6">
         <v>40</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="6">
         <v>39</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="6">
         <v>38</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AA22" s="6">
         <v>37</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="6">
         <v>36</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="6">
         <v>35</v>
       </c>
-      <c r="AD22" s="10">
+      <c r="AD22" s="6">
         <v>34</v>
       </c>
-      <c r="AE22" s="10">
+      <c r="AE22" s="6">
         <v>33</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="6">
         <v>32</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22" s="8">
         <v>31</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="AH22" s="8">
         <v>30</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="AI22" s="8">
         <v>29</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="AJ22" s="8">
         <v>28</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="8">
         <v>27</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AL22" s="8">
         <v>26</v>
       </c>
-      <c r="AM22" s="12">
+      <c r="AM22" s="8">
         <v>25</v>
       </c>
-      <c r="AN22" s="12">
+      <c r="AN22" s="8">
         <v>24</v>
       </c>
-      <c r="AO22" s="12">
+      <c r="AO22" s="8">
         <v>23</v>
       </c>
-      <c r="AP22" s="12">
+      <c r="AP22" s="8">
         <v>22</v>
       </c>
-      <c r="AQ22" s="12">
+      <c r="AQ22" s="8">
         <v>21</v>
       </c>
-      <c r="AR22" s="12">
+      <c r="AR22" s="8">
         <v>20</v>
       </c>
-      <c r="AS22" s="12">
+      <c r="AS22" s="8">
         <v>19</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AT22" s="8">
         <v>18</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AU22" s="8">
         <v>17</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="AV22" s="8">
         <v>16</v>
       </c>
-      <c r="AW22" s="10">
+      <c r="AW22" s="6">
         <v>15</v>
       </c>
-      <c r="AX22" s="10">
+      <c r="AX22" s="6">
         <v>14</v>
       </c>
-      <c r="AY22" s="10">
+      <c r="AY22" s="6">
         <v>13</v>
       </c>
-      <c r="AZ22" s="10">
+      <c r="AZ22" s="6">
         <v>12</v>
       </c>
-      <c r="BA22" s="10">
+      <c r="BA22" s="6">
         <v>11</v>
       </c>
-      <c r="BB22" s="10">
+      <c r="BB22" s="6">
         <v>10</v>
       </c>
-      <c r="BC22" s="10">
+      <c r="BC22" s="6">
         <v>9</v>
       </c>
-      <c r="BD22" s="10">
+      <c r="BD22" s="6">
         <v>8</v>
       </c>
-      <c r="BE22" s="10">
+      <c r="BE22" s="6">
         <v>7</v>
       </c>
-      <c r="BF22" s="10">
+      <c r="BF22" s="6">
         <v>6</v>
       </c>
-      <c r="BG22" s="10">
+      <c r="BG22" s="6">
         <v>5</v>
       </c>
-      <c r="BH22" s="10">
+      <c r="BH22" s="6">
         <v>4</v>
       </c>
-      <c r="BI22" s="10">
+      <c r="BI22" s="6">
         <v>3</v>
       </c>
-      <c r="BJ22" s="10">
+      <c r="BJ22" s="6">
         <v>2</v>
       </c>
-      <c r="BK22" s="10">
+      <c r="BK22" s="6">
         <v>1</v>
       </c>
-      <c r="BL22" s="10">
+      <c r="BL22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="59" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="59">
+      <c r="J23" s="57"/>
+      <c r="K23" s="53">
         <v>0</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="89" t="s">
+      <c r="L23" s="53"/>
+      <c r="M23" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
       <c r="Q23" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="87" t="s">
+      <c r="R23" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S23" s="87"/>
-      <c r="T23" s="62">
+      <c r="S23" s="82"/>
+      <c r="T23" s="56">
         <v>0</v>
       </c>
-      <c r="U23" s="88" t="s">
+      <c r="U23" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="87" t="s">
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87" t="s">
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87" t="s">
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="87"/>
-      <c r="AZ23" s="87"/>
-      <c r="BA23" s="87"/>
-      <c r="BB23" s="87"/>
-      <c r="BC23" s="87"/>
-      <c r="BD23" s="87"/>
-      <c r="BE23" s="87"/>
-      <c r="BF23" s="87"/>
-      <c r="BG23" s="87"/>
-      <c r="BH23" s="87"/>
-      <c r="BI23" s="87"/>
-      <c r="BJ23" s="87"/>
-      <c r="BK23" s="87"/>
-      <c r="BL23" s="87"/>
-    </row>
-    <row r="25" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75" t="s">
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="82"/>
+      <c r="BG23" s="82"/>
+      <c r="BH23" s="82"/>
+      <c r="BI23" s="82"/>
+      <c r="BJ23" s="82"/>
+      <c r="BK23" s="82"/>
+      <c r="BL23" s="82"/>
+    </row>
+    <row r="25" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="F25" s="57"/>
-    </row>
-    <row r="26" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+      <c r="C25" s="51"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>63</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>62</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="8">
         <v>61</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>60</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="8">
         <v>59</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="8">
         <v>58</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="8">
         <v>57</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="8">
         <v>56</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="8">
         <v>55</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="8">
         <v>54</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="8">
         <v>53</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="8">
         <v>52</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="8">
         <v>51</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="8">
         <v>50</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="8">
         <v>49</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="8">
         <v>48</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="6">
         <v>47</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="6">
         <v>46</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="6">
         <v>45</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="6">
         <v>44</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="6">
         <v>43</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V26" s="6">
         <v>42</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W26" s="6">
         <v>41</v>
       </c>
-      <c r="X26" s="10">
+      <c r="X26" s="6">
         <v>40</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="6">
         <v>39</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="6">
         <v>38</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AA26" s="6">
         <v>37</v>
       </c>
-      <c r="AB26" s="10">
+      <c r="AB26" s="6">
         <v>36</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="6">
         <v>35</v>
       </c>
-      <c r="AD26" s="10">
+      <c r="AD26" s="6">
         <v>34</v>
       </c>
-      <c r="AE26" s="10">
+      <c r="AE26" s="6">
         <v>33</v>
       </c>
-      <c r="AF26" s="10">
+      <c r="AF26" s="6">
         <v>32</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AG26" s="8">
         <v>31</v>
       </c>
-      <c r="AH26" s="12">
+      <c r="AH26" s="8">
         <v>30</v>
       </c>
-      <c r="AI26" s="12">
+      <c r="AI26" s="8">
         <v>29</v>
       </c>
-      <c r="AJ26" s="12">
+      <c r="AJ26" s="8">
         <v>28</v>
       </c>
-      <c r="AK26" s="12">
+      <c r="AK26" s="8">
         <v>27</v>
       </c>
-      <c r="AL26" s="12">
+      <c r="AL26" s="8">
         <v>26</v>
       </c>
-      <c r="AM26" s="12">
+      <c r="AM26" s="8">
         <v>25</v>
       </c>
-      <c r="AN26" s="12">
+      <c r="AN26" s="8">
         <v>24</v>
       </c>
-      <c r="AO26" s="12">
+      <c r="AO26" s="8">
         <v>23</v>
       </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="8">
         <v>22</v>
       </c>
-      <c r="AQ26" s="12">
+      <c r="AQ26" s="8">
         <v>21</v>
       </c>
-      <c r="AR26" s="12">
+      <c r="AR26" s="8">
         <v>20</v>
       </c>
-      <c r="AS26" s="12">
+      <c r="AS26" s="8">
         <v>19</v>
       </c>
-      <c r="AT26" s="12">
+      <c r="AT26" s="8">
         <v>18</v>
       </c>
-      <c r="AU26" s="12">
+      <c r="AU26" s="8">
         <v>17</v>
       </c>
-      <c r="AV26" s="12">
+      <c r="AV26" s="8">
         <v>16</v>
       </c>
-      <c r="AW26" s="10">
+      <c r="AW26" s="6">
         <v>15</v>
       </c>
-      <c r="AX26" s="10">
+      <c r="AX26" s="6">
         <v>14</v>
       </c>
-      <c r="AY26" s="10">
+      <c r="AY26" s="6">
         <v>13</v>
       </c>
-      <c r="AZ26" s="10">
+      <c r="AZ26" s="6">
         <v>12</v>
       </c>
-      <c r="BA26" s="10">
+      <c r="BA26" s="6">
         <v>11</v>
       </c>
-      <c r="BB26" s="10">
+      <c r="BB26" s="6">
         <v>10</v>
       </c>
-      <c r="BC26" s="10">
+      <c r="BC26" s="6">
         <v>9</v>
       </c>
-      <c r="BD26" s="10">
+      <c r="BD26" s="6">
         <v>8</v>
       </c>
-      <c r="BE26" s="10">
+      <c r="BE26" s="6">
         <v>7</v>
       </c>
-      <c r="BF26" s="10">
+      <c r="BF26" s="6">
         <v>6</v>
       </c>
-      <c r="BG26" s="10">
+      <c r="BG26" s="6">
         <v>5</v>
       </c>
-      <c r="BH26" s="10">
+      <c r="BH26" s="6">
         <v>4</v>
       </c>
-      <c r="BI26" s="10">
+      <c r="BI26" s="6">
         <v>3</v>
       </c>
-      <c r="BJ26" s="10">
+      <c r="BJ26" s="6">
         <v>2</v>
       </c>
-      <c r="BK26" s="10">
+      <c r="BK26" s="6">
         <v>1</v>
       </c>
-      <c r="BL26" s="10">
+      <c r="BL26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
       <c r="Q27" t="s">
         <v>91</v>
       </c>
-      <c r="R27" s="87" t="s">
+      <c r="R27" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S27" s="87"/>
-      <c r="T27" s="59">
+      <c r="S27" s="82"/>
+      <c r="T27" s="53">
         <v>0</v>
       </c>
       <c r="U27">
@@ -8875,324 +10729,324 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AG27" s="87" t="s">
+      <c r="AG27" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87" t="s">
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
-      <c r="BD27" s="87"/>
-      <c r="BE27" s="87"/>
-      <c r="BF27" s="87"/>
-      <c r="BG27" s="87"/>
-      <c r="BH27" s="87"/>
-      <c r="BI27" s="87"/>
-      <c r="BJ27" s="87"/>
-      <c r="BK27" s="87"/>
-      <c r="BL27" s="87"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
+      <c r="BI27" s="82"/>
+      <c r="BJ27" s="82"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="82"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="59"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="9"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
-      <c r="AW28" s="9"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="9"/>
-      <c r="BA28" s="9"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
-      <c r="BG28" s="9"/>
-      <c r="BH28" s="9"/>
-      <c r="BI28" s="9"/>
-      <c r="BJ28" s="9"/>
-      <c r="BK28" s="9"/>
-      <c r="BL28" s="9"/>
-    </row>
-    <row r="29" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="53"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+    </row>
+    <row r="29" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="F29" s="57"/>
-    </row>
-    <row r="30" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
+      <c r="C29" s="51"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>63</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="8">
         <v>62</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="8">
         <v>61</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="8">
         <v>60</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>59</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="8">
         <v>58</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="8">
         <v>57</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="8">
         <v>56</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="8">
         <v>55</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="8">
         <v>54</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="8">
         <v>53</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="8">
         <v>52</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="8">
         <v>51</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="8">
         <v>50</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="8">
         <v>49</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="8">
         <v>48</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="6">
         <v>47</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="6">
         <v>46</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="6">
         <v>45</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="6">
         <v>44</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="6">
         <v>43</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="6">
         <v>42</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="6">
         <v>41</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X30" s="6">
         <v>40</v>
       </c>
-      <c r="Y30" s="10">
+      <c r="Y30" s="6">
         <v>39</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="6">
         <v>38</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="6">
         <v>37</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="6">
         <v>36</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="6">
         <v>35</v>
       </c>
-      <c r="AD30" s="10">
+      <c r="AD30" s="6">
         <v>34</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE30" s="6">
         <v>33</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="6">
         <v>32</v>
       </c>
-      <c r="AG30" s="12">
+      <c r="AG30" s="8">
         <v>31</v>
       </c>
-      <c r="AH30" s="12">
+      <c r="AH30" s="8">
         <v>30</v>
       </c>
-      <c r="AI30" s="12">
+      <c r="AI30" s="8">
         <v>29</v>
       </c>
-      <c r="AJ30" s="12">
+      <c r="AJ30" s="8">
         <v>28</v>
       </c>
-      <c r="AK30" s="12">
+      <c r="AK30" s="8">
         <v>27</v>
       </c>
-      <c r="AL30" s="12">
+      <c r="AL30" s="8">
         <v>26</v>
       </c>
-      <c r="AM30" s="12">
+      <c r="AM30" s="8">
         <v>25</v>
       </c>
-      <c r="AN30" s="12">
+      <c r="AN30" s="8">
         <v>24</v>
       </c>
-      <c r="AO30" s="12">
+      <c r="AO30" s="8">
         <v>23</v>
       </c>
-      <c r="AP30" s="12">
+      <c r="AP30" s="8">
         <v>22</v>
       </c>
-      <c r="AQ30" s="12">
+      <c r="AQ30" s="8">
         <v>21</v>
       </c>
-      <c r="AR30" s="12">
+      <c r="AR30" s="8">
         <v>20</v>
       </c>
-      <c r="AS30" s="12">
+      <c r="AS30" s="8">
         <v>19</v>
       </c>
-      <c r="AT30" s="12">
+      <c r="AT30" s="8">
         <v>18</v>
       </c>
-      <c r="AU30" s="12">
+      <c r="AU30" s="8">
         <v>17</v>
       </c>
-      <c r="AV30" s="12">
+      <c r="AV30" s="8">
         <v>16</v>
       </c>
-      <c r="AW30" s="10">
+      <c r="AW30" s="6">
         <v>15</v>
       </c>
-      <c r="AX30" s="10">
+      <c r="AX30" s="6">
         <v>14</v>
       </c>
-      <c r="AY30" s="10">
+      <c r="AY30" s="6">
         <v>13</v>
       </c>
-      <c r="AZ30" s="10">
+      <c r="AZ30" s="6">
         <v>12</v>
       </c>
-      <c r="BA30" s="10">
+      <c r="BA30" s="6">
         <v>11</v>
       </c>
-      <c r="BB30" s="10">
+      <c r="BB30" s="6">
         <v>10</v>
       </c>
-      <c r="BC30" s="10">
+      <c r="BC30" s="6">
         <v>9</v>
       </c>
-      <c r="BD30" s="10">
+      <c r="BD30" s="6">
         <v>8</v>
       </c>
-      <c r="BE30" s="10">
+      <c r="BE30" s="6">
         <v>7</v>
       </c>
-      <c r="BF30" s="10">
+      <c r="BF30" s="6">
         <v>6</v>
       </c>
-      <c r="BG30" s="10">
+      <c r="BG30" s="6">
         <v>5</v>
       </c>
-      <c r="BH30" s="10">
+      <c r="BH30" s="6">
         <v>4</v>
       </c>
-      <c r="BI30" s="10">
+      <c r="BI30" s="6">
         <v>3</v>
       </c>
-      <c r="BJ30" s="10">
+      <c r="BJ30" s="6">
         <v>2</v>
       </c>
-      <c r="BK30" s="10">
+      <c r="BK30" s="6">
         <v>1</v>
       </c>
-      <c r="BL30" s="10">
+      <c r="BL30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
       <c r="Q31" t="s">
         <v>91</v>
       </c>
-      <c r="R31" s="87" t="s">
+      <c r="R31" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="87"/>
-      <c r="T31" s="59">
+      <c r="S31" s="82"/>
+      <c r="T31" s="53">
         <v>0</v>
       </c>
       <c r="U31">
@@ -9216,60 +11070,52 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AG31" s="87" t="s">
+      <c r="AG31" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="87"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87" t="s">
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="87"/>
-      <c r="BA31" s="87"/>
-      <c r="BB31" s="87"/>
-      <c r="BC31" s="87"/>
-      <c r="BD31" s="87"/>
-      <c r="BE31" s="87"/>
-      <c r="BF31" s="87"/>
-      <c r="BG31" s="87"/>
-      <c r="BH31" s="87"/>
-      <c r="BI31" s="87"/>
-      <c r="BJ31" s="87"/>
-      <c r="BK31" s="87"/>
-      <c r="BL31" s="87"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="82"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="82"/>
+      <c r="BK31" s="82"/>
+      <c r="BL31" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="AW27:BL27"/>
-    <mergeCell ref="AG27:AV27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="AG31:AV31"/>
-    <mergeCell ref="AW31:BL31"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AG3:AV3"/>
-    <mergeCell ref="AW3:BL3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AW23:BL23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AV23"/>
     <mergeCell ref="AG15:AV15"/>
     <mergeCell ref="AW15:BL15"/>
     <mergeCell ref="A19:H19"/>
@@ -9282,13 +11128,21 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AW23:BL23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AV23"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AG3:AV3"/>
+    <mergeCell ref="AW3:BL3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="AW27:BL27"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="AG31:AV31"/>
+    <mergeCell ref="AW31:BL31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -9306,936 +11160,936 @@
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="90" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="84" t="s">
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="79" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="90"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="85"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="85"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="80"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="90"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="85"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="85"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="90"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="85"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="85"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="80"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="90"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="85"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="85"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="80"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="90"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="85"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="85"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="80"/>
     </row>
     <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="90"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="85"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="85"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="80"/>
     </row>
     <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="90"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="86"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="85"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="81"/>
       <c r="AO8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="90"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="84" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="85"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="90"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="85"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="85"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="80"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="90"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="85"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="85"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="80"/>
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27">
+      <c r="A12" s="23">
         <v>31</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="24">
         <v>30</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>29</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>28</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>27</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <v>26</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="24">
         <v>25</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="24">
         <v>24</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="24">
         <v>23</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="24">
         <v>22</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="24">
         <v>21</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="24">
         <v>20</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="24">
         <v>19</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="24">
         <v>18</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="24">
         <v>17</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="24">
         <v>16</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="24">
         <v>15</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="24">
         <v>14</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="24">
         <v>13</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="24">
         <v>12</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="24">
         <v>11</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="24">
         <v>10</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="24">
         <v>9</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="24">
         <v>8</v>
       </c>
-      <c r="Y12" s="28">
+      <c r="Y12" s="24">
         <v>7</v>
       </c>
-      <c r="Z12" s="28">
+      <c r="Z12" s="24">
         <v>6</v>
       </c>
-      <c r="AA12" s="28">
+      <c r="AA12" s="24">
         <v>5</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="24">
         <v>4</v>
       </c>
-      <c r="AC12" s="28">
+      <c r="AC12" s="24">
         <v>3</v>
       </c>
-      <c r="AD12" s="28">
+      <c r="AD12" s="24">
         <v>2</v>
       </c>
-      <c r="AE12" s="28">
+      <c r="AE12" s="24">
         <v>1</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="25">
         <v>0</v>
       </c>
-      <c r="AG12" s="90"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="80"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="85"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="80"/>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="85"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="80"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="90" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="85"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="80"/>
     </row>
     <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="90"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="86"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="85"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="81"/>
       <c r="AO16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="90"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="84" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="85"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="90"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="85"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="85"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="80"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="90"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="85"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="85"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="80"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="90"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="85"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="85"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="80"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="90"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="85"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="85"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="80"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27">
+      <c r="A22" s="23">
         <v>31</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="24">
         <v>30</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>29</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="24">
         <v>28</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <v>27</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="24">
         <v>26</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="24">
         <v>25</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="24">
         <v>24</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="24">
         <v>23</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="24">
         <v>22</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="24">
         <v>21</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="24">
         <v>20</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="24">
         <v>19</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="24">
         <v>18</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="24">
         <v>17</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="24">
         <v>16</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="24">
         <v>15</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="24">
         <v>14</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="24">
         <v>13</v>
       </c>
-      <c r="T22" s="28">
+      <c r="T22" s="24">
         <v>12</v>
       </c>
-      <c r="U22" s="28">
+      <c r="U22" s="24">
         <v>11</v>
       </c>
-      <c r="V22" s="28">
+      <c r="V22" s="24">
         <v>10</v>
       </c>
-      <c r="W22" s="28">
+      <c r="W22" s="24">
         <v>9</v>
       </c>
-      <c r="X22" s="28">
+      <c r="X22" s="24">
         <v>8</v>
       </c>
-      <c r="Y22" s="28">
+      <c r="Y22" s="24">
         <v>7</v>
       </c>
-      <c r="Z22" s="28">
+      <c r="Z22" s="24">
         <v>6</v>
       </c>
-      <c r="AA22" s="28">
+      <c r="AA22" s="24">
         <v>5</v>
       </c>
-      <c r="AB22" s="28">
+      <c r="AB22" s="24">
         <v>4</v>
       </c>
-      <c r="AC22" s="28">
+      <c r="AC22" s="24">
         <v>3</v>
       </c>
-      <c r="AD22" s="28">
+      <c r="AD22" s="24">
         <v>2</v>
       </c>
-      <c r="AE22" s="28">
+      <c r="AE22" s="24">
         <v>1</v>
       </c>
-      <c r="AF22" s="29">
+      <c r="AF22" s="25">
         <v>0</v>
       </c>
-      <c r="AG22" s="90"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="80"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="85"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="80"/>
     </row>
     <row r="24" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="86"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="81"/>
       <c r="AO24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="84" t="s">
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="79" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10243,257 +12097,257 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="85"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="80"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="35"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="85"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="31"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="80"/>
     </row>
     <row r="28" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="27">
+      <c r="A28" s="23">
         <v>31</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="24">
         <v>30</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="24">
         <v>29</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="24">
         <v>28</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="24">
         <v>27</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="24">
         <v>26</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="24">
         <v>25</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="24">
         <v>24</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="24">
         <v>23</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="24">
         <v>22</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="24">
         <v>21</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="24">
         <v>20</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="24">
         <v>19</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="24">
         <v>18</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="24">
         <v>17</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="24">
         <v>16</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="24">
         <v>15</v>
       </c>
-      <c r="R28" s="28">
+      <c r="R28" s="24">
         <v>14</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="24">
         <v>13</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="24">
         <v>12</v>
       </c>
-      <c r="U28" s="28">
+      <c r="U28" s="24">
         <v>11</v>
       </c>
-      <c r="V28" s="28">
+      <c r="V28" s="24">
         <v>10</v>
       </c>
-      <c r="W28" s="28">
+      <c r="W28" s="24">
         <v>9</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="24">
         <v>8</v>
       </c>
-      <c r="Y28" s="28">
+      <c r="Y28" s="24">
         <v>7</v>
       </c>
-      <c r="Z28" s="28">
+      <c r="Z28" s="24">
         <v>6</v>
       </c>
-      <c r="AA28" s="28">
+      <c r="AA28" s="24">
         <v>5</v>
       </c>
-      <c r="AB28" s="28">
+      <c r="AB28" s="24">
         <v>4</v>
       </c>
-      <c r="AC28" s="28">
+      <c r="AC28" s="24">
         <v>3</v>
       </c>
-      <c r="AD28" s="28">
+      <c r="AD28" s="24">
         <v>2</v>
       </c>
-      <c r="AE28" s="28">
+      <c r="AE28" s="24">
         <v>1</v>
       </c>
-      <c r="AF28" s="29">
+      <c r="AF28" s="25">
         <v>0</v>
       </c>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="85"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="80"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="85"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="80"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="85"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="80"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="85"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="80"/>
     </row>
     <row r="32" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="86"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="81"/>
       <c r="AO32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="84" t="s">
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="79" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="85"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="80"/>
     </row>
     <row r="35" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="85"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="80"/>
     </row>
     <row r="36" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="85"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="80"/>
     </row>
     <row r="37" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="85"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="80"/>
     </row>
     <row r="38" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL38" s="23"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="85"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="80"/>
     </row>
     <row r="39" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="85"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="80"/>
     </row>
     <row r="40" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="86"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="81"/>
       <c r="AO40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="84" t="s">
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="79" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL42" s="23"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="85"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="80"/>
     </row>
     <row r="43" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="24"/>
-      <c r="AN43" s="85"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="80"/>
     </row>
     <row r="44" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="85"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="80"/>
     </row>
     <row r="45" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="85"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="80"/>
     </row>
     <row r="46" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="85"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="80"/>
     </row>
     <row r="47" spans="38:41" x14ac:dyDescent="0.35">
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="85"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="80"/>
     </row>
     <row r="48" spans="38:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="26"/>
-      <c r="AN48" s="86"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="81"/>
       <c r="AO48" t="s">
         <v>30</v>
       </c>
@@ -10517,7 +12371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1486DB-0A26-46D6-A9D5-2957CBBFE03E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safemaster\Desktop\bunings\Bunnings Addendas since 12.10.12\exploring_cs\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E647D17-815E-417C-94A1-194451033BA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3BC72-0A42-4D61-BE6A-DF9FB1B3B44A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="497" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="pro" sheetId="2" r:id="rId2"/>
     <sheet name="int" sheetId="3" r:id="rId3"/>
-    <sheet name="mem" sheetId="4" r:id="rId4"/>
-    <sheet name="pag" sheetId="5" r:id="rId5"/>
-    <sheet name="io" sheetId="6" r:id="rId6"/>
-    <sheet name="fs" sheetId="7" r:id="rId7"/>
-    <sheet name="ini" sheetId="8" r:id="rId8"/>
-    <sheet name="arc" sheetId="9" r:id="rId9"/>
-    <sheet name="des" sheetId="10" r:id="rId10"/>
-    <sheet name="reg" sheetId="11" r:id="rId11"/>
+    <sheet name="sys" sheetId="12" r:id="rId4"/>
+    <sheet name="mem" sheetId="4" r:id="rId5"/>
+    <sheet name="pag" sheetId="5" r:id="rId6"/>
+    <sheet name="io" sheetId="6" r:id="rId7"/>
+    <sheet name="fs" sheetId="7" r:id="rId8"/>
+    <sheet name="ini" sheetId="8" r:id="rId9"/>
+    <sheet name="arc" sheetId="9" r:id="rId10"/>
+    <sheet name="des" sheetId="10" r:id="rId11"/>
+    <sheet name="reg" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="599">
   <si>
     <t>Part 1: Our First Assembly Program</t>
   </si>
@@ -682,28 +683,6 @@
   </si>
   <si>
     <t>irq13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>if counter &lt;=0, kernel?exit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE181E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>schedule()</t>
-    </r>
   </si>
   <si>
     <t>HARD DISK INTERRUPT</t>
@@ -1347,6 +1326,582 @@
   </si>
   <si>
     <t>? Process 0 ?</t>
+  </si>
+  <si>
+    <t>sys_setup()</t>
+  </si>
+  <si>
+    <t>sys_fork()</t>
+  </si>
+  <si>
+    <t>sys_write()</t>
+  </si>
+  <si>
+    <t>sys_execve()</t>
+  </si>
+  <si>
+    <t>sys_dup()</t>
+  </si>
+  <si>
+    <t>执行程序.</t>
+  </si>
+  <si>
+    <t>使用文件句柄取文件的状态信息</t>
+  </si>
+  <si>
+    <t>检查用户对一个文件的访问权限</t>
+  </si>
+  <si>
+    <t>取进程组id，等于getpgid(0)</t>
+  </si>
+  <si>
+    <t>删除一个文件名或删除文件</t>
+  </si>
+  <si>
+    <t>系统启动初始化设置函数</t>
+  </si>
+  <si>
+    <t>sys_exit()</t>
+  </si>
+  <si>
+    <t>程序退出</t>
+  </si>
+  <si>
+    <t>创建进程</t>
+  </si>
+  <si>
+    <t>sys_read()</t>
+  </si>
+  <si>
+    <t>读文件</t>
+  </si>
+  <si>
+    <t>写文件</t>
+  </si>
+  <si>
+    <t>sys_open()</t>
+  </si>
+  <si>
+    <t>打开文件</t>
+  </si>
+  <si>
+    <t>sys_close()</t>
+  </si>
+  <si>
+    <t>关闭文件</t>
+  </si>
+  <si>
+    <t>sys_waitpid()</t>
+  </si>
+  <si>
+    <t>等待进程终止</t>
+  </si>
+  <si>
+    <t>sys_creat()</t>
+  </si>
+  <si>
+    <t>创建文件</t>
+  </si>
+  <si>
+    <t>sys_link()</t>
+  </si>
+  <si>
+    <t>创建一个文件的硬连接</t>
+  </si>
+  <si>
+    <t>sys_unlink()</t>
+  </si>
+  <si>
+    <t>sys_chdir()</t>
+  </si>
+  <si>
+    <t>更改当前目录</t>
+  </si>
+  <si>
+    <t>sys_time()</t>
+  </si>
+  <si>
+    <t>取当前时间</t>
+  </si>
+  <si>
+    <t>sys_mknod()</t>
+  </si>
+  <si>
+    <t>建立块/字符特殊文件</t>
+  </si>
+  <si>
+    <t>sys_chmod()</t>
+  </si>
+  <si>
+    <t>修改文件属性</t>
+  </si>
+  <si>
+    <t>sys_chown()</t>
+  </si>
+  <si>
+    <t>修改文件宿主和所属组</t>
+  </si>
+  <si>
+    <t>sys_break()</t>
+  </si>
+  <si>
+    <t>sys_stat()</t>
+  </si>
+  <si>
+    <t>使用路径名取文件状态信息</t>
+  </si>
+  <si>
+    <t>sys_lseek()</t>
+  </si>
+  <si>
+    <t>重新定位读/写文件偏移</t>
+  </si>
+  <si>
+    <t>sys_getpid()</t>
+  </si>
+  <si>
+    <t>取进程id</t>
+  </si>
+  <si>
+    <t>sys_mount()</t>
+  </si>
+  <si>
+    <t>安装文件系统</t>
+  </si>
+  <si>
+    <t>sys_umount()</t>
+  </si>
+  <si>
+    <t>卸载文件系统</t>
+  </si>
+  <si>
+    <t>sys_setuid()</t>
+  </si>
+  <si>
+    <t>设置进程用户id</t>
+  </si>
+  <si>
+    <t>sys_getuid()</t>
+  </si>
+  <si>
+    <t>取进程用户id</t>
+  </si>
+  <si>
+    <t>sys_stime()</t>
+  </si>
+  <si>
+    <t>设置系统时间日期</t>
+  </si>
+  <si>
+    <t>sys_ptrace()</t>
+  </si>
+  <si>
+    <t>程序调试</t>
+  </si>
+  <si>
+    <t>sys_alarm()</t>
+  </si>
+  <si>
+    <t>设置报警</t>
+  </si>
+  <si>
+    <t>sys_fstat()</t>
+  </si>
+  <si>
+    <t>暂停进程运行</t>
+  </si>
+  <si>
+    <t>sys_utime()</t>
+  </si>
+  <si>
+    <t>改变文件的访问和修改时间</t>
+  </si>
+  <si>
+    <t>sys_stty()</t>
+  </si>
+  <si>
+    <t>修改终端行设置</t>
+  </si>
+  <si>
+    <t>sys_gtty()</t>
+  </si>
+  <si>
+    <t>取终端行设置信息</t>
+  </si>
+  <si>
+    <t>sys_access()</t>
+  </si>
+  <si>
+    <t>sys_nice()</t>
+  </si>
+  <si>
+    <t>设置进程执行优先权</t>
+  </si>
+  <si>
+    <t>sys_ftime()</t>
+  </si>
+  <si>
+    <t>取日期和时间</t>
+  </si>
+  <si>
+    <t>sys_sync()</t>
+  </si>
+  <si>
+    <t>同步高速缓冲与设备中数据</t>
+  </si>
+  <si>
+    <t>sys_kill()</t>
+  </si>
+  <si>
+    <t>终止一个进程</t>
+  </si>
+  <si>
+    <t>sys_rename()</t>
+  </si>
+  <si>
+    <t>更改文件名</t>
+  </si>
+  <si>
+    <t>sys_mkdir()</t>
+  </si>
+  <si>
+    <t>创建目录</t>
+  </si>
+  <si>
+    <t>sys_rmdir()</t>
+  </si>
+  <si>
+    <t>删除目录</t>
+  </si>
+  <si>
+    <t>复制文件句柄.</t>
+  </si>
+  <si>
+    <t>sys_pipe()</t>
+  </si>
+  <si>
+    <t>创建管道</t>
+  </si>
+  <si>
+    <t>sys_times()</t>
+  </si>
+  <si>
+    <t>取运行时间</t>
+  </si>
+  <si>
+    <t>sys_prof()</t>
+  </si>
+  <si>
+    <t>程序执行时间区域</t>
+  </si>
+  <si>
+    <t>sys_brk()</t>
+  </si>
+  <si>
+    <t>修改数据段长度.</t>
+  </si>
+  <si>
+    <t>sys_setgid()</t>
+  </si>
+  <si>
+    <t>设置进程组id</t>
+  </si>
+  <si>
+    <t>sys_getgid()</t>
+  </si>
+  <si>
+    <t>取进程组id</t>
+  </si>
+  <si>
+    <t>sys_signal()</t>
+  </si>
+  <si>
+    <t>信号处理</t>
+  </si>
+  <si>
+    <t>sys_geteuid()</t>
+  </si>
+  <si>
+    <t>取进程有效用户id</t>
+  </si>
+  <si>
+    <t>sys_getegid()</t>
+  </si>
+  <si>
+    <t>取进程有效组id</t>
+  </si>
+  <si>
+    <t>sys_acct()</t>
+  </si>
+  <si>
+    <t>进程记账</t>
+  </si>
+  <si>
+    <t>sys_phys()</t>
+  </si>
+  <si>
+    <t>sys_lock()</t>
+  </si>
+  <si>
+    <t>sys_ioctl()</t>
+  </si>
+  <si>
+    <t>设备输入输出控制.</t>
+  </si>
+  <si>
+    <t>sys_fcntl()</t>
+  </si>
+  <si>
+    <t>文件句柄控制操作</t>
+  </si>
+  <si>
+    <t>sys_mpx()</t>
+  </si>
+  <si>
+    <t>sys_setpgid()</t>
+  </si>
+  <si>
+    <t>sys_ulimit()</t>
+  </si>
+  <si>
+    <t>统计进程使用资源情况</t>
+  </si>
+  <si>
+    <t>sys_uname()</t>
+  </si>
+  <si>
+    <t>显示系统信息</t>
+  </si>
+  <si>
+    <t>sys_umask()</t>
+  </si>
+  <si>
+    <t>取默认文件创建属性码</t>
+  </si>
+  <si>
+    <t>sys_chroot()</t>
+  </si>
+  <si>
+    <t>改变根目录</t>
+  </si>
+  <si>
+    <t>sys_ustat()</t>
+  </si>
+  <si>
+    <t>取文件系统信息</t>
+  </si>
+  <si>
+    <t>sys_dup2()</t>
+  </si>
+  <si>
+    <t>复制文件句柄</t>
+  </si>
+  <si>
+    <t>sys_getppid()</t>
+  </si>
+  <si>
+    <t>取父进程id</t>
+  </si>
+  <si>
+    <t>sys_getpgrp()</t>
+  </si>
+  <si>
+    <t>sys_setsid()</t>
+  </si>
+  <si>
+    <t>在新会话中运行程序</t>
+  </si>
+  <si>
+    <t>sys_sigaction()</t>
+  </si>
+  <si>
+    <t>改变信号处理过程</t>
+  </si>
+  <si>
+    <t>sys_sgetmask()</t>
+  </si>
+  <si>
+    <t>取信号屏蔽码</t>
+  </si>
+  <si>
+    <t>sys_ssetmask()</t>
+  </si>
+  <si>
+    <t>设置信号屏蔽码</t>
+  </si>
+  <si>
+    <t>sys_setreuid()</t>
+  </si>
+  <si>
+    <t>设置真实与/或有效用户id</t>
+  </si>
+  <si>
+    <t>sys_setregid()</t>
+  </si>
+  <si>
+    <t>设置真实与/或有效用户组id</t>
+  </si>
+  <si>
+    <t>sys_sigpending()</t>
+  </si>
+  <si>
+    <t>检查暂未处理的信号</t>
+  </si>
+  <si>
+    <t>sys_sigsuspend()</t>
+  </si>
+  <si>
+    <t>使用新屏蔽码挂起进程</t>
+  </si>
+  <si>
+    <t>sys_sethostname()</t>
+  </si>
+  <si>
+    <t>设置主机名</t>
+  </si>
+  <si>
+    <t>sys_setrlimit()</t>
+  </si>
+  <si>
+    <t>设置资源使用限制</t>
+  </si>
+  <si>
+    <t>sys_getrlimit()</t>
+  </si>
+  <si>
+    <t>取得进程使用资源的限制</t>
+  </si>
+  <si>
+    <t>sys_getrusage()</t>
+  </si>
+  <si>
+    <t>sys_gettimeofday()</t>
+  </si>
+  <si>
+    <t>获取当日时间</t>
+  </si>
+  <si>
+    <t>sys_settimeofday()</t>
+  </si>
+  <si>
+    <t>设置当日时间</t>
+  </si>
+  <si>
+    <t>sys_getgroups()</t>
+  </si>
+  <si>
+    <t>取得进程所有组标识号</t>
+  </si>
+  <si>
+    <t>sys_setgroups()</t>
+  </si>
+  <si>
+    <t>设置进程标识号数组</t>
+  </si>
+  <si>
+    <t>sys_select()</t>
+  </si>
+  <si>
+    <t>等待文件描述符状态改变</t>
+  </si>
+  <si>
+    <t>sys_symlink()</t>
+  </si>
+  <si>
+    <t>建立符号链接</t>
+  </si>
+  <si>
+    <t>sys_lstat()</t>
+  </si>
+  <si>
+    <t>取符号链接文件状态</t>
+  </si>
+  <si>
+    <t>sys_readlink()</t>
+  </si>
+  <si>
+    <t>读取符号链接文件信息</t>
+  </si>
+  <si>
+    <t>sys_uselib()</t>
+  </si>
+  <si>
+    <t>选择共享库</t>
+  </si>
+  <si>
+    <t>kernel/blk_drv/hd.c</t>
+  </si>
+  <si>
+    <t>kernel/exit.c</t>
+  </si>
+  <si>
+    <t>kernel/sys_call.s</t>
+  </si>
+  <si>
+    <t>fs/read_write.c</t>
+  </si>
+  <si>
+    <t>fs/open.c</t>
+  </si>
+  <si>
+    <t>fs/namei.c</t>
+  </si>
+  <si>
+    <t>fs/stat.c</t>
+  </si>
+  <si>
+    <t>kernel/sched.c</t>
+  </si>
+  <si>
+    <t>fs/super.c</t>
+  </si>
+  <si>
+    <t>kernel/sys.c</t>
+  </si>
+  <si>
+    <t>fs/pipe.c</t>
+  </si>
+  <si>
+    <t>kernel/signal.c</t>
+  </si>
+  <si>
+    <t>fs/fcntl.c</t>
+  </si>
+  <si>
+    <t>fs/select.c</t>
+  </si>
+  <si>
+    <t>fs/exec.c</t>
+  </si>
+  <si>
+    <t>fs/buffer.c</t>
+  </si>
+  <si>
+    <t>fs/ioctl.c</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <r>
+      <t>if counter &lt;=0, kernel?exit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>schedule()</t>
+    </r>
+  </si>
+  <si>
+    <t>floppy_interrupt</t>
+  </si>
+  <si>
+    <t>hd_interrupt</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +2064,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,6 +2177,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2233,7 +2800,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2582,6 +3149,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2624,6 +3255,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2635,24 +3269,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2684,6 +3300,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2708,70 +3342,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -10882,6 +11452,78 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="C7:F101"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="1025" width="8.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="117"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="118"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C96" s="235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="235"/>
+      <c r="E96" s="235"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C97" s="236" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="236"/>
+      <c r="E97" s="236"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C98" s="237" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="237"/>
+      <c r="E98" s="237"/>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C99" s="238" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="238"/>
+      <c r="E99" s="238"/>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="119"/>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D101" s="120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D101" location="list!A1" display="LIST" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
@@ -10904,7 +11546,7 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -11102,138 +11744,138 @@
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="239" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="124" t="s">
+      <c r="J3" s="124" t="s">
         <v>294</v>
-      </c>
-      <c r="J3" s="124" t="s">
-        <v>295</v>
       </c>
       <c r="K3" s="124">
         <v>0</v>
       </c>
       <c r="L3" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="239" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="210" t="s">
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" t="s">
         <v>297</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" t="s">
+      <c r="R3" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="210" t="s">
+      <c r="S3" s="239"/>
+      <c r="T3" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="S3" s="210"/>
-      <c r="T3" s="124" t="s">
+      <c r="U3" s="239" t="s">
         <v>300</v>
       </c>
-      <c r="U3" s="210" t="s">
+      <c r="V3" s="239"/>
+      <c r="W3" s="239"/>
+      <c r="X3" s="239"/>
+      <c r="Y3" s="239" t="s">
         <v>301</v>
       </c>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210" t="s">
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="239"/>
+      <c r="AE3" s="239"/>
+      <c r="AF3" s="239"/>
+      <c r="AG3" s="239" t="s">
         <v>302</v>
       </c>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="210"/>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="210" t="s">
+      <c r="AH3" s="239"/>
+      <c r="AI3" s="239"/>
+      <c r="AJ3" s="239"/>
+      <c r="AK3" s="239"/>
+      <c r="AL3" s="239"/>
+      <c r="AM3" s="239"/>
+      <c r="AN3" s="239"/>
+      <c r="AO3" s="239"/>
+      <c r="AP3" s="239"/>
+      <c r="AQ3" s="239"/>
+      <c r="AR3" s="239"/>
+      <c r="AS3" s="239"/>
+      <c r="AT3" s="239"/>
+      <c r="AU3" s="239"/>
+      <c r="AV3" s="239"/>
+      <c r="AW3" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="210"/>
-      <c r="AJ3" s="210"/>
-      <c r="AK3" s="210"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="210"/>
-      <c r="AN3" s="210"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="210"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="210"/>
-      <c r="AT3" s="210"/>
-      <c r="AU3" s="210"/>
-      <c r="AV3" s="210"/>
-      <c r="AW3" s="210" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX3" s="210"/>
-      <c r="AY3" s="210"/>
-      <c r="AZ3" s="210"/>
-      <c r="BA3" s="210"/>
-      <c r="BB3" s="210"/>
-      <c r="BC3" s="210"/>
-      <c r="BD3" s="210"/>
-      <c r="BE3" s="210"/>
-      <c r="BF3" s="210"/>
-      <c r="BG3" s="210"/>
-      <c r="BH3" s="210"/>
-      <c r="BI3" s="210"/>
-      <c r="BJ3" s="210"/>
-      <c r="BK3" s="210"/>
-      <c r="BL3" s="210"/>
+      <c r="AX3" s="239"/>
+      <c r="AY3" s="239"/>
+      <c r="AZ3" s="239"/>
+      <c r="BA3" s="239"/>
+      <c r="BB3" s="239"/>
+      <c r="BC3" s="239"/>
+      <c r="BD3" s="239"/>
+      <c r="BE3" s="239"/>
+      <c r="BF3" s="239"/>
+      <c r="BG3" s="239"/>
+      <c r="BH3" s="239"/>
+      <c r="BI3" s="239"/>
+      <c r="BJ3" s="239"/>
+      <c r="BK3" s="239"/>
+      <c r="BL3" s="239"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
         <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -11431,96 +12073,96 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="239" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="124" t="s">
         <v>293</v>
-      </c>
-      <c r="B15" s="210"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="124" t="s">
-        <v>294</v>
       </c>
       <c r="J15" s="126"/>
       <c r="K15" s="124">
         <v>0</v>
       </c>
       <c r="L15" s="124"/>
-      <c r="M15" s="210" t="s">
+      <c r="M15" s="239" t="s">
+        <v>296</v>
+      </c>
+      <c r="N15" s="239"/>
+      <c r="O15" s="239"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" t="s">
         <v>297</v>
       </c>
-      <c r="N15" s="210"/>
-      <c r="O15" s="210"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" t="s">
+      <c r="R15" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R15" s="210" t="s">
-        <v>299</v>
-      </c>
-      <c r="S15" s="210"/>
+      <c r="S15" s="239"/>
       <c r="T15" s="125">
         <v>0</v>
       </c>
-      <c r="U15" s="211" t="s">
+      <c r="U15" s="240" t="s">
+        <v>300</v>
+      </c>
+      <c r="V15" s="240"/>
+      <c r="W15" s="240"/>
+      <c r="X15" s="240"/>
+      <c r="Y15" s="239" t="s">
         <v>301</v>
       </c>
-      <c r="V15" s="211"/>
-      <c r="W15" s="211"/>
-      <c r="X15" s="211"/>
-      <c r="Y15" s="210" t="s">
+      <c r="Z15" s="239"/>
+      <c r="AA15" s="239"/>
+      <c r="AB15" s="239"/>
+      <c r="AC15" s="239"/>
+      <c r="AD15" s="239"/>
+      <c r="AE15" s="239"/>
+      <c r="AF15" s="239"/>
+      <c r="AG15" s="239" t="s">
         <v>302</v>
       </c>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="210"/>
-      <c r="AD15" s="210"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="210" t="s">
+      <c r="AH15" s="239"/>
+      <c r="AI15" s="239"/>
+      <c r="AJ15" s="239"/>
+      <c r="AK15" s="239"/>
+      <c r="AL15" s="239"/>
+      <c r="AM15" s="239"/>
+      <c r="AN15" s="239"/>
+      <c r="AO15" s="239"/>
+      <c r="AP15" s="239"/>
+      <c r="AQ15" s="239"/>
+      <c r="AR15" s="239"/>
+      <c r="AS15" s="239"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="210"/>
-      <c r="AJ15" s="210"/>
-      <c r="AK15" s="210"/>
-      <c r="AL15" s="210"/>
-      <c r="AM15" s="210"/>
-      <c r="AN15" s="210"/>
-      <c r="AO15" s="210"/>
-      <c r="AP15" s="210"/>
-      <c r="AQ15" s="210"/>
-      <c r="AR15" s="210"/>
-      <c r="AS15" s="210"/>
-      <c r="AT15" s="210"/>
-      <c r="AU15" s="210"/>
-      <c r="AV15" s="210"/>
-      <c r="AW15" s="210" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX15" s="210"/>
-      <c r="AY15" s="210"/>
-      <c r="AZ15" s="210"/>
-      <c r="BA15" s="210"/>
-      <c r="BB15" s="210"/>
-      <c r="BC15" s="210"/>
-      <c r="BD15" s="210"/>
-      <c r="BE15" s="210"/>
-      <c r="BF15" s="210"/>
-      <c r="BG15" s="210"/>
-      <c r="BH15" s="210"/>
-      <c r="BI15" s="210"/>
-      <c r="BJ15" s="210"/>
-      <c r="BK15" s="210"/>
-      <c r="BL15" s="210"/>
+      <c r="AX15" s="239"/>
+      <c r="AY15" s="239"/>
+      <c r="AZ15" s="239"/>
+      <c r="BA15" s="239"/>
+      <c r="BB15" s="239"/>
+      <c r="BC15" s="239"/>
+      <c r="BD15" s="239"/>
+      <c r="BE15" s="239"/>
+      <c r="BF15" s="239"/>
+      <c r="BG15" s="239"/>
+      <c r="BH15" s="239"/>
+      <c r="BI15" s="239"/>
+      <c r="BJ15" s="239"/>
+      <c r="BK15" s="239"/>
+      <c r="BL15" s="239"/>
     </row>
     <row r="17" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="115"/>
       <c r="F17" s="115"/>
@@ -11720,31 +12362,31 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="210" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="210"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
-      <c r="P19" s="210"/>
+      <c r="A19" s="239" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="239"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="239"/>
       <c r="Q19" t="s">
+        <v>297</v>
+      </c>
+      <c r="R19" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R19" s="210" t="s">
-        <v>299</v>
-      </c>
-      <c r="S19" s="210"/>
+      <c r="S19" s="239"/>
       <c r="T19" s="125">
         <v>0</v>
       </c>
@@ -11769,42 +12411,42 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AG19" s="210" t="s">
+      <c r="AG19" s="239" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH19" s="239"/>
+      <c r="AI19" s="239"/>
+      <c r="AJ19" s="239"/>
+      <c r="AK19" s="239"/>
+      <c r="AL19" s="239"/>
+      <c r="AM19" s="239"/>
+      <c r="AN19" s="239"/>
+      <c r="AO19" s="239"/>
+      <c r="AP19" s="239"/>
+      <c r="AQ19" s="239"/>
+      <c r="AR19" s="239"/>
+      <c r="AS19" s="239"/>
+      <c r="AT19" s="239"/>
+      <c r="AU19" s="239"/>
+      <c r="AV19" s="239"/>
+      <c r="AW19" s="239" t="s">
         <v>324</v>
       </c>
-      <c r="AH19" s="210"/>
-      <c r="AI19" s="210"/>
-      <c r="AJ19" s="210"/>
-      <c r="AK19" s="210"/>
-      <c r="AL19" s="210"/>
-      <c r="AM19" s="210"/>
-      <c r="AN19" s="210"/>
-      <c r="AO19" s="210"/>
-      <c r="AP19" s="210"/>
-      <c r="AQ19" s="210"/>
-      <c r="AR19" s="210"/>
-      <c r="AS19" s="210"/>
-      <c r="AT19" s="210"/>
-      <c r="AU19" s="210"/>
-      <c r="AV19" s="210"/>
-      <c r="AW19" s="210" t="s">
-        <v>325</v>
-      </c>
-      <c r="AX19" s="210"/>
-      <c r="AY19" s="210"/>
-      <c r="AZ19" s="210"/>
-      <c r="BA19" s="210"/>
-      <c r="BB19" s="210"/>
-      <c r="BC19" s="210"/>
-      <c r="BD19" s="210"/>
-      <c r="BE19" s="210"/>
-      <c r="BF19" s="210"/>
-      <c r="BG19" s="210"/>
-      <c r="BH19" s="210"/>
-      <c r="BI19" s="210"/>
-      <c r="BJ19" s="210"/>
-      <c r="BK19" s="210"/>
-      <c r="BL19" s="210"/>
+      <c r="AX19" s="239"/>
+      <c r="AY19" s="239"/>
+      <c r="AZ19" s="239"/>
+      <c r="BA19" s="239"/>
+      <c r="BB19" s="239"/>
+      <c r="BC19" s="239"/>
+      <c r="BD19" s="239"/>
+      <c r="BE19" s="239"/>
+      <c r="BF19" s="239"/>
+      <c r="BG19" s="239"/>
+      <c r="BH19" s="239"/>
+      <c r="BI19" s="239"/>
+      <c r="BJ19" s="239"/>
+      <c r="BK19" s="239"/>
+      <c r="BL19" s="239"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -11861,7 +12503,7 @@
     </row>
     <row r="21" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="115"/>
       <c r="F21" s="115"/>
@@ -12061,31 +12703,31 @@
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="210" t="s">
-        <v>323</v>
-      </c>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
-      <c r="O23" s="210"/>
-      <c r="P23" s="210"/>
+      <c r="A23" s="239" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="239"/>
       <c r="Q23" t="s">
+        <v>297</v>
+      </c>
+      <c r="R23" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R23" s="210" t="s">
-        <v>299</v>
-      </c>
-      <c r="S23" s="210"/>
+      <c r="S23" s="239"/>
       <c r="T23" s="125">
         <v>0</v>
       </c>
@@ -12110,46 +12752,46 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AG23" s="210" t="s">
+      <c r="AG23" s="239" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH23" s="239"/>
+      <c r="AI23" s="239"/>
+      <c r="AJ23" s="239"/>
+      <c r="AK23" s="239"/>
+      <c r="AL23" s="239"/>
+      <c r="AM23" s="239"/>
+      <c r="AN23" s="239"/>
+      <c r="AO23" s="239"/>
+      <c r="AP23" s="239"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="239"/>
+      <c r="AS23" s="239"/>
+      <c r="AT23" s="239"/>
+      <c r="AU23" s="239"/>
+      <c r="AV23" s="239"/>
+      <c r="AW23" s="239" t="s">
         <v>324</v>
       </c>
-      <c r="AH23" s="210"/>
-      <c r="AI23" s="210"/>
-      <c r="AJ23" s="210"/>
-      <c r="AK23" s="210"/>
-      <c r="AL23" s="210"/>
-      <c r="AM23" s="210"/>
-      <c r="AN23" s="210"/>
-      <c r="AO23" s="210"/>
-      <c r="AP23" s="210"/>
-      <c r="AQ23" s="210"/>
-      <c r="AR23" s="210"/>
-      <c r="AS23" s="210"/>
-      <c r="AT23" s="210"/>
-      <c r="AU23" s="210"/>
-      <c r="AV23" s="210"/>
-      <c r="AW23" s="210" t="s">
-        <v>325</v>
-      </c>
-      <c r="AX23" s="210"/>
-      <c r="AY23" s="210"/>
-      <c r="AZ23" s="210"/>
-      <c r="BA23" s="210"/>
-      <c r="BB23" s="210"/>
-      <c r="BC23" s="210"/>
-      <c r="BD23" s="210"/>
-      <c r="BE23" s="210"/>
-      <c r="BF23" s="210"/>
-      <c r="BG23" s="210"/>
-      <c r="BH23" s="210"/>
-      <c r="BI23" s="210"/>
-      <c r="BJ23" s="210"/>
-      <c r="BK23" s="210"/>
-      <c r="BL23" s="210"/>
+      <c r="AX23" s="239"/>
+      <c r="AY23" s="239"/>
+      <c r="AZ23" s="239"/>
+      <c r="BA23" s="239"/>
+      <c r="BB23" s="239"/>
+      <c r="BC23" s="239"/>
+      <c r="BD23" s="239"/>
+      <c r="BE23" s="239"/>
+      <c r="BF23" s="239"/>
+      <c r="BG23" s="239"/>
+      <c r="BH23" s="239"/>
+      <c r="BI23" s="239"/>
+      <c r="BJ23" s="239"/>
+      <c r="BK23" s="239"/>
+      <c r="BL23" s="239"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -12347,41 +12989,41 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="210" t="s">
+      <c r="A27" s="239" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="124" t="s">
-        <v>294</v>
-      </c>
       <c r="J27" s="126" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K27" s="124">
         <v>0</v>
       </c>
       <c r="L27" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="M27" s="239" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="210" t="s">
+      <c r="N27" s="239"/>
+      <c r="O27" s="239"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" t="s">
         <v>297</v>
       </c>
-      <c r="N27" s="210"/>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" t="s">
+      <c r="R27" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R27" s="210" t="s">
-        <v>299</v>
-      </c>
-      <c r="S27" s="210"/>
+      <c r="S27" s="239"/>
       <c r="T27" s="125">
         <v>1</v>
       </c>
@@ -12389,64 +13031,64 @@
         <v>1</v>
       </c>
       <c r="V27" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="W27" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="W27" s="126" t="s">
-        <v>320</v>
-      </c>
       <c r="X27" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y27" s="210" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y27" s="239" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z27" s="239"/>
+      <c r="AA27" s="239"/>
+      <c r="AB27" s="239"/>
+      <c r="AC27" s="239"/>
+      <c r="AD27" s="239"/>
+      <c r="AE27" s="239"/>
+      <c r="AF27" s="239"/>
+      <c r="AG27" s="239" t="s">
         <v>302</v>
       </c>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="210" t="s">
+      <c r="AH27" s="239"/>
+      <c r="AI27" s="239"/>
+      <c r="AJ27" s="239"/>
+      <c r="AK27" s="239"/>
+      <c r="AL27" s="239"/>
+      <c r="AM27" s="239"/>
+      <c r="AN27" s="239"/>
+      <c r="AO27" s="239"/>
+      <c r="AP27" s="239"/>
+      <c r="AQ27" s="239"/>
+      <c r="AR27" s="239"/>
+      <c r="AS27" s="239"/>
+      <c r="AT27" s="239"/>
+      <c r="AU27" s="239"/>
+      <c r="AV27" s="239"/>
+      <c r="AW27" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="210"/>
-      <c r="AJ27" s="210"/>
-      <c r="AK27" s="210"/>
-      <c r="AL27" s="210"/>
-      <c r="AM27" s="210"/>
-      <c r="AN27" s="210"/>
-      <c r="AO27" s="210"/>
-      <c r="AP27" s="210"/>
-      <c r="AQ27" s="210"/>
-      <c r="AR27" s="210"/>
-      <c r="AS27" s="210"/>
-      <c r="AT27" s="210"/>
-      <c r="AU27" s="210"/>
-      <c r="AV27" s="210"/>
-      <c r="AW27" s="210" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX27" s="210"/>
-      <c r="AY27" s="210"/>
-      <c r="AZ27" s="210"/>
-      <c r="BA27" s="210"/>
-      <c r="BB27" s="210"/>
-      <c r="BC27" s="210"/>
-      <c r="BD27" s="210"/>
-      <c r="BE27" s="210"/>
-      <c r="BF27" s="210"/>
-      <c r="BG27" s="210"/>
-      <c r="BH27" s="210"/>
-      <c r="BI27" s="210"/>
-      <c r="BJ27" s="210"/>
-      <c r="BK27" s="210"/>
-      <c r="BL27" s="210"/>
+      <c r="AX27" s="239"/>
+      <c r="AY27" s="239"/>
+      <c r="AZ27" s="239"/>
+      <c r="BA27" s="239"/>
+      <c r="BB27" s="239"/>
+      <c r="BC27" s="239"/>
+      <c r="BD27" s="239"/>
+      <c r="BE27" s="239"/>
+      <c r="BF27" s="239"/>
+      <c r="BG27" s="239"/>
+      <c r="BH27" s="239"/>
+      <c r="BI27" s="239"/>
+      <c r="BJ27" s="239"/>
+      <c r="BK27" s="239"/>
+      <c r="BL27" s="239"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29" s="121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -12644,41 +13286,41 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="210" t="s">
+      <c r="A31" s="239" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="124" t="s">
-        <v>294</v>
-      </c>
       <c r="J31" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K31" s="124">
         <v>0</v>
       </c>
       <c r="L31" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" s="239" t="s">
         <v>296</v>
       </c>
-      <c r="M31" s="210" t="s">
+      <c r="N31" s="239"/>
+      <c r="O31" s="239"/>
+      <c r="P31" s="239"/>
+      <c r="Q31" t="s">
         <v>297</v>
       </c>
-      <c r="N31" s="210"/>
-      <c r="O31" s="210"/>
-      <c r="P31" s="210"/>
-      <c r="Q31" t="s">
+      <c r="R31" s="239" t="s">
         <v>298</v>
       </c>
-      <c r="R31" s="210" t="s">
-        <v>299</v>
-      </c>
-      <c r="S31" s="210"/>
+      <c r="S31" s="239"/>
       <c r="T31" s="125">
         <v>1</v>
       </c>
@@ -12686,63 +13328,81 @@
         <v>0</v>
       </c>
       <c r="V31" s="126" t="s">
+        <v>313</v>
+      </c>
+      <c r="W31" s="126" t="s">
         <v>314</v>
       </c>
-      <c r="W31" s="126" t="s">
+      <c r="X31" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="X31" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y31" s="210" t="s">
+      <c r="Y31" s="239" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z31" s="239"/>
+      <c r="AA31" s="239"/>
+      <c r="AB31" s="239"/>
+      <c r="AC31" s="239"/>
+      <c r="AD31" s="239"/>
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="239"/>
+      <c r="AG31" s="239" t="s">
         <v>302</v>
       </c>
-      <c r="Z31" s="210"/>
-      <c r="AA31" s="210"/>
-      <c r="AB31" s="210"/>
-      <c r="AC31" s="210"/>
-      <c r="AD31" s="210"/>
-      <c r="AE31" s="210"/>
-      <c r="AF31" s="210"/>
-      <c r="AG31" s="210" t="s">
+      <c r="AH31" s="239"/>
+      <c r="AI31" s="239"/>
+      <c r="AJ31" s="239"/>
+      <c r="AK31" s="239"/>
+      <c r="AL31" s="239"/>
+      <c r="AM31" s="239"/>
+      <c r="AN31" s="239"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="239"/>
+      <c r="AS31" s="239"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="AH31" s="210"/>
-      <c r="AI31" s="210"/>
-      <c r="AJ31" s="210"/>
-      <c r="AK31" s="210"/>
-      <c r="AL31" s="210"/>
-      <c r="AM31" s="210"/>
-      <c r="AN31" s="210"/>
-      <c r="AO31" s="210"/>
-      <c r="AP31" s="210"/>
-      <c r="AQ31" s="210"/>
-      <c r="AR31" s="210"/>
-      <c r="AS31" s="210"/>
-      <c r="AT31" s="210"/>
-      <c r="AU31" s="210"/>
-      <c r="AV31" s="210"/>
-      <c r="AW31" s="210" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX31" s="210"/>
-      <c r="AY31" s="210"/>
-      <c r="AZ31" s="210"/>
-      <c r="BA31" s="210"/>
-      <c r="BB31" s="210"/>
-      <c r="BC31" s="210"/>
-      <c r="BD31" s="210"/>
-      <c r="BE31" s="210"/>
-      <c r="BF31" s="210"/>
-      <c r="BG31" s="210"/>
-      <c r="BH31" s="210"/>
-      <c r="BI31" s="210"/>
-      <c r="BJ31" s="210"/>
-      <c r="BK31" s="210"/>
-      <c r="BL31" s="210"/>
+      <c r="AX31" s="239"/>
+      <c r="AY31" s="239"/>
+      <c r="AZ31" s="239"/>
+      <c r="BA31" s="239"/>
+      <c r="BB31" s="239"/>
+      <c r="BC31" s="239"/>
+      <c r="BD31" s="239"/>
+      <c r="BE31" s="239"/>
+      <c r="BF31" s="239"/>
+      <c r="BG31" s="239"/>
+      <c r="BH31" s="239"/>
+      <c r="BI31" s="239"/>
+      <c r="BJ31" s="239"/>
+      <c r="BK31" s="239"/>
+      <c r="BL31" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="AG19:AV19"/>
+    <mergeCell ref="AW19:BL19"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="AG23:AV23"/>
+    <mergeCell ref="AW23:BL23"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AV15"/>
+    <mergeCell ref="AW15:BL15"/>
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="AW3:BL3"/>
     <mergeCell ref="A31:H31"/>
@@ -12759,35 +13419,17 @@
     <mergeCell ref="AW27:BL27"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AV15"/>
-    <mergeCell ref="AW15:BL15"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AV27"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="AG19:AV19"/>
-    <mergeCell ref="AW19:BL19"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="AG23:AV23"/>
-    <mergeCell ref="AW23:BL23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -12797,17 +13439,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="212" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
+      <c r="A1" s="241" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="130"/>
       <c r="C2" s="130"/>
@@ -12860,7 +13502,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="107" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -12913,7 +13555,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="108"/>
       <c r="C4" s="108"/>
@@ -12966,7 +13608,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -13019,7 +13661,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
@@ -13072,7 +13714,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B8" s="130"/>
       <c r="C8" s="130"/>
@@ -13125,7 +13767,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="108"/>
       <c r="C9" s="108"/>
@@ -13178,7 +13820,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10" s="108"/>
       <c r="C10" s="108"/>
@@ -13231,7 +13873,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="108"/>
       <c r="C11" s="108"/>
@@ -13284,7 +13926,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="104" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
@@ -13337,7 +13979,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="129" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="130"/>
       <c r="C14" s="130"/>
@@ -13390,7 +14032,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="133" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -13459,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P16" s="108"/>
       <c r="Q16" s="108"/>
@@ -13514,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P17" s="108"/>
       <c r="Q17" s="108"/>
@@ -13649,10 +14291,10 @@
       <c r="L19" s="105"/>
       <c r="M19" s="105"/>
       <c r="N19" s="105"/>
-      <c r="O19" s="213" t="s">
-        <v>341</v>
-      </c>
-      <c r="P19" s="213"/>
+      <c r="O19" s="242" t="s">
+        <v>340</v>
+      </c>
+      <c r="P19" s="242"/>
       <c r="Q19" s="105"/>
       <c r="R19" s="105"/>
       <c r="S19" s="105"/>
@@ -13694,7 +14336,7 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B21" s="130"/>
       <c r="C21" s="130"/>
@@ -13800,7 +14442,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="108"/>
       <c r="C23" s="108"/>
@@ -13909,7 +14551,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="129" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" s="130"/>
       <c r="C26" s="130"/>
@@ -13962,7 +14604,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="108"/>
       <c r="C27" s="88"/>
@@ -14015,7 +14657,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
@@ -14048,24 +14690,24 @@
       <c r="AD28" s="88"/>
       <c r="AE28" s="88"/>
       <c r="AF28" s="88"/>
-      <c r="AG28" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH28" s="195"/>
-      <c r="AI28" s="195"/>
-      <c r="AJ28" s="195"/>
-      <c r="AK28" s="195"/>
-      <c r="AL28" s="195"/>
-      <c r="AM28" s="195"/>
-      <c r="AN28" s="195"/>
-      <c r="AO28" s="195"/>
-      <c r="AP28" s="195"/>
-      <c r="AQ28" s="195"/>
-      <c r="AR28" s="195"/>
-      <c r="AS28" s="195"/>
-      <c r="AT28" s="195"/>
-      <c r="AU28" s="195"/>
-      <c r="AV28" s="195"/>
+      <c r="AG28" s="232" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="232"/>
+      <c r="AJ28" s="232"/>
+      <c r="AK28" s="232"/>
+      <c r="AL28" s="232"/>
+      <c r="AM28" s="232"/>
+      <c r="AN28" s="232"/>
+      <c r="AO28" s="232"/>
+      <c r="AP28" s="232"/>
+      <c r="AQ28" s="232"/>
+      <c r="AR28" s="232"/>
+      <c r="AS28" s="232"/>
+      <c r="AT28" s="232"/>
+      <c r="AU28" s="232"/>
+      <c r="AV28" s="232"/>
       <c r="AW28" s="132"/>
     </row>
     <row r="29" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14217,7 +14859,7 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B30" s="108"/>
       <c r="C30" s="108"/>
@@ -14270,7 +14912,7 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
@@ -14303,24 +14945,24 @@
       <c r="AD31" s="88"/>
       <c r="AE31" s="88"/>
       <c r="AF31" s="88"/>
-      <c r="AG31" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH31" s="195"/>
-      <c r="AI31" s="195"/>
-      <c r="AJ31" s="195"/>
-      <c r="AK31" s="195"/>
-      <c r="AL31" s="195"/>
-      <c r="AM31" s="195"/>
-      <c r="AN31" s="195"/>
-      <c r="AO31" s="195"/>
-      <c r="AP31" s="195"/>
-      <c r="AQ31" s="195"/>
-      <c r="AR31" s="195"/>
-      <c r="AS31" s="195"/>
-      <c r="AT31" s="195"/>
-      <c r="AU31" s="195"/>
-      <c r="AV31" s="195"/>
+      <c r="AG31" s="232" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH31" s="232"/>
+      <c r="AI31" s="232"/>
+      <c r="AJ31" s="232"/>
+      <c r="AK31" s="232"/>
+      <c r="AL31" s="232"/>
+      <c r="AM31" s="232"/>
+      <c r="AN31" s="232"/>
+      <c r="AO31" s="232"/>
+      <c r="AP31" s="232"/>
+      <c r="AQ31" s="232"/>
+      <c r="AR31" s="232"/>
+      <c r="AS31" s="232"/>
+      <c r="AT31" s="232"/>
+      <c r="AU31" s="232"/>
+      <c r="AV31" s="232"/>
       <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14472,7 +15114,7 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="133" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B33" s="108"/>
       <c r="C33" s="108"/>
@@ -14525,7 +15167,7 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="88"/>
       <c r="C34" s="88"/>
@@ -14558,24 +15200,24 @@
       <c r="AD34" s="88"/>
       <c r="AE34" s="88"/>
       <c r="AF34" s="88"/>
-      <c r="AG34" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH34" s="195"/>
-      <c r="AI34" s="195"/>
-      <c r="AJ34" s="195"/>
-      <c r="AK34" s="195"/>
-      <c r="AL34" s="195"/>
-      <c r="AM34" s="195"/>
-      <c r="AN34" s="195"/>
-      <c r="AO34" s="195"/>
-      <c r="AP34" s="195"/>
-      <c r="AQ34" s="195"/>
-      <c r="AR34" s="195"/>
-      <c r="AS34" s="195"/>
-      <c r="AT34" s="195"/>
-      <c r="AU34" s="195"/>
-      <c r="AV34" s="195"/>
+      <c r="AG34" s="232" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH34" s="232"/>
+      <c r="AI34" s="232"/>
+      <c r="AJ34" s="232"/>
+      <c r="AK34" s="232"/>
+      <c r="AL34" s="232"/>
+      <c r="AM34" s="232"/>
+      <c r="AN34" s="232"/>
+      <c r="AO34" s="232"/>
+      <c r="AP34" s="232"/>
+      <c r="AQ34" s="232"/>
+      <c r="AR34" s="232"/>
+      <c r="AS34" s="232"/>
+      <c r="AT34" s="232"/>
+      <c r="AU34" s="232"/>
+      <c r="AV34" s="232"/>
       <c r="AW34" s="132"/>
     </row>
     <row r="35" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14730,7 +15372,7 @@
     </row>
     <row r="37" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="144" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="105"/>
       <c r="C37" s="105"/>
@@ -14786,7 +15428,7 @@
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="129" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="130"/>
       <c r="C39" s="130"/>
@@ -14839,11 +15481,11 @@
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="149"/>
       <c r="C40" s="149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
@@ -14894,11 +15536,11 @@
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="133" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" s="108"/>
       <c r="C41" s="151" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" s="108"/>
       <c r="E41" s="108"/>
@@ -14949,7 +15591,7 @@
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="108"/>
       <c r="C42" s="108"/>
@@ -15002,7 +15644,7 @@
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B43" s="108"/>
       <c r="C43" s="108"/>
@@ -15225,7 +15867,7 @@
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -15245,8 +15887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15271,11 +15913,11 @@
       <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
       <c r="O2" s="6"/>
       <c r="P2" s="5" t="s">
         <v>18</v>
@@ -15286,11 +15928,11 @@
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
       <c r="O3" s="8" t="s">
         <v>21</v>
       </c>
@@ -15301,11 +15943,11 @@
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
       <c r="O4" s="154"/>
       <c r="P4" s="155" t="s">
         <v>24</v>
@@ -15318,11 +15960,11 @@
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
       <c r="O5" s="154"/>
       <c r="P5" s="155" t="s">
         <v>27</v>
@@ -15409,11 +16051,11 @@
       <c r="B14" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
+      <c r="D14" s="211" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="212"/>
+      <c r="F14" s="213"/>
       <c r="H14" s="5" t="s">
         <v>67</v>
       </c>
@@ -15428,13 +16070,13 @@
       <c r="B15" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="207"/>
       <c r="H15" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>41</v>
@@ -15447,13 +16089,13 @@
       <c r="B16" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="177" t="s">
-        <v>375</v>
-      </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
+      <c r="D16" s="205" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
       <c r="H16" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>44</v>
@@ -15463,13 +16105,13 @@
       <c r="B17" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="177" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
+      <c r="D17" s="205" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
       <c r="H17" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>45</v>
@@ -15479,13 +16121,13 @@
       <c r="B18" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="210"/>
       <c r="H18" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P18" s="6"/>
     </row>
@@ -15495,7 +16137,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N19" s="157" t="s">
         <v>47</v>
@@ -15519,7 +16161,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="159" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="N21" s="157"/>
       <c r="O21" s="156"/>
@@ -15530,7 +16172,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="159" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C22" s="162"/>
       <c r="N22" s="157"/>
@@ -15700,7 +16342,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E35" s="161" t="s">
         <v>59</v>
@@ -15746,7 +16388,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B38" s="154"/>
       <c r="C38" s="156"/>
@@ -15783,26 +16425,26 @@
       <c r="F40" s="156"/>
       <c r="G40" s="156"/>
       <c r="H40" s="156" t="s">
+        <v>379</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="M40" s="156"/>
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C41" s="156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D41" s="156"/>
       <c r="E41" s="156"/>
@@ -15820,7 +16462,7 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B42" s="154"/>
       <c r="C42" s="156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D42" s="156"/>
       <c r="E42" s="156"/>
@@ -15834,7 +16476,7 @@
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B43" s="154"/>
       <c r="C43" s="156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D43" s="156"/>
       <c r="E43" s="156"/>
@@ -15880,7 +16522,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" s="156"/>
       <c r="C46" s="156"/>
@@ -15897,15 +16539,15 @@
     </row>
     <row r="47" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="156" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C47" s="156"/>
       <c r="D47" s="154" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E47" s="156"/>
       <c r="F47" s="156" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G47" s="156"/>
       <c r="H47" s="156"/>
@@ -15939,7 +16581,7 @@
       </c>
       <c r="E49" s="161"/>
       <c r="F49" s="161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G49" s="161"/>
       <c r="H49" s="167"/>
@@ -15954,7 +16596,7 @@
       </c>
       <c r="E50" s="161"/>
       <c r="F50" s="161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G50" s="161"/>
       <c r="H50" s="167"/>
@@ -15969,7 +16611,7 @@
       <c r="D51" s="161"/>
       <c r="E51" s="161"/>
       <c r="F51" s="161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G51" s="161"/>
       <c r="H51" s="167"/>
@@ -15986,7 +16628,7 @@
       <c r="D52" s="169"/>
       <c r="E52" s="169"/>
       <c r="F52" s="169" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G52" s="169"/>
       <c r="H52" s="170"/>
@@ -16008,17 +16650,17 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B54" s="176"/>
+      <c r="C54" s="177" t="s">
         <v>393</v>
       </c>
-      <c r="B54" s="222"/>
-      <c r="C54" s="223" t="s">
-        <v>394</v>
-      </c>
-      <c r="D54" s="224"/>
-      <c r="E54" s="224"/>
-      <c r="F54" s="224"/>
-      <c r="G54" s="224"/>
-      <c r="H54" s="225"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="179"/>
       <c r="O54" s="6"/>
       <c r="R54" s="7"/>
       <c r="S54" s="21"/>
@@ -16026,15 +16668,15 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="21"/>
-      <c r="B55" s="226"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="220" t="s">
-        <v>396</v>
+      <c r="D55" s="175" t="s">
+        <v>395</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="227"/>
+      <c r="H55" s="181"/>
       <c r="O55" s="6"/>
       <c r="R55" s="7" t="s">
         <v>82</v>
@@ -16044,22 +16686,22 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="21"/>
-      <c r="B56" s="228"/>
-      <c r="C56" s="217" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="220"/>
-      <c r="G56" s="220" t="s">
+      <c r="B56" s="182"/>
+      <c r="C56" s="198" t="s">
         <v>400</v>
       </c>
-      <c r="H56" s="229"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
-      <c r="M56" s="216"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="175" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="183"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
       <c r="O56" s="6"/>
       <c r="R56" s="7" t="s">
         <v>83</v>
@@ -16069,22 +16711,22 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="21"/>
-      <c r="B57" s="228"/>
-      <c r="C57" s="220"/>
-      <c r="D57" s="220" t="s">
-        <v>409</v>
-      </c>
-      <c r="E57" s="220"/>
-      <c r="F57" s="220"/>
-      <c r="G57" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H57" s="229"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="216"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="175" t="s">
+        <v>408</v>
+      </c>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="183"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
       <c r="O57" s="6"/>
       <c r="R57" s="23" t="s">
         <v>84</v>
@@ -16094,81 +16736,81 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="21"/>
-      <c r="B58" s="228"/>
-      <c r="C58" s="218" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="220" t="s">
-        <v>397</v>
-      </c>
-      <c r="H58" s="229"/>
-      <c r="I58" s="216"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="216"/>
-      <c r="M58" s="216"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="214" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="214"/>
+      <c r="E58" s="214"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="175" t="s">
+        <v>396</v>
+      </c>
+      <c r="H58" s="183"/>
+      <c r="I58" s="173"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
-      <c r="B59" s="228"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="E59" s="220"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H59" s="229"/>
-      <c r="I59" s="216"/>
-      <c r="J59" s="216"/>
-      <c r="K59" s="216"/>
-      <c r="L59" s="216"/>
-      <c r="M59" s="216"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="175"/>
+      <c r="D59" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="E59" s="175"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H59" s="183"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
-      <c r="B60" s="228"/>
-      <c r="C60" s="218" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="220" t="s">
-        <v>398</v>
-      </c>
-      <c r="H60" s="229"/>
-      <c r="I60" s="216"/>
-      <c r="J60" s="216"/>
-      <c r="K60" s="216"/>
-      <c r="L60" s="216"/>
-      <c r="M60" s="216"/>
-      <c r="R60" s="176" t="s">
+      <c r="B60" s="182"/>
+      <c r="C60" s="214" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="214"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="175" t="s">
+        <v>397</v>
+      </c>
+      <c r="H60" s="183"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="R60" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="176"/>
+      <c r="S60" s="204"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="21"/>
-      <c r="B61" s="228"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="E61" s="220"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="220"/>
-      <c r="H61" s="229"/>
-      <c r="I61" s="216"/>
-      <c r="J61" s="216"/>
-      <c r="K61" s="216"/>
-      <c r="L61" s="216"/>
-      <c r="M61" s="216"/>
+      <c r="B61" s="182"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="175"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
       <c r="R61" s="12">
         <v>63</v>
       </c>
@@ -16176,22 +16818,22 @@
     </row>
     <row r="62" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A62" s="21"/>
-      <c r="B62" s="230" t="s">
-        <v>402</v>
-      </c>
-      <c r="C62" s="217"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="217"/>
-      <c r="G62" s="220" t="s">
-        <v>400</v>
-      </c>
-      <c r="H62" s="231"/>
-      <c r="I62" s="216"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="216"/>
-      <c r="L62" s="216"/>
-      <c r="M62" s="216"/>
+      <c r="B62" s="199" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="198"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="198"/>
+      <c r="G62" s="175" t="s">
+        <v>399</v>
+      </c>
+      <c r="H62" s="184"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="173"/>
+      <c r="L62" s="173"/>
+      <c r="M62" s="173"/>
       <c r="R62" s="12">
         <v>62</v>
       </c>
@@ -16199,22 +16841,22 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="21"/>
-      <c r="B63" s="228"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="E63" s="220"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" s="175"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H63" s="227"/>
-      <c r="I63" s="216"/>
-      <c r="J63" s="216"/>
-      <c r="K63" s="216"/>
-      <c r="L63" s="216"/>
-      <c r="M63" s="216"/>
+      <c r="G63" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H63" s="181"/>
+      <c r="I63" s="173"/>
+      <c r="J63" s="173"/>
+      <c r="K63" s="173"/>
+      <c r="L63" s="173"/>
+      <c r="M63" s="173"/>
       <c r="R63" s="12">
         <v>61</v>
       </c>
@@ -16222,24 +16864,24 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="21"/>
-      <c r="B64" s="228"/>
-      <c r="C64" s="217" t="s">
-        <v>403</v>
-      </c>
-      <c r="D64" s="217"/>
-      <c r="E64" s="217"/>
-      <c r="F64" s="220" t="s">
-        <v>399</v>
-      </c>
-      <c r="G64" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H64" s="227"/>
-      <c r="I64" s="216"/>
-      <c r="J64" s="216"/>
-      <c r="K64" s="216"/>
-      <c r="L64" s="216"/>
-      <c r="M64" s="216"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="198" t="s">
+        <v>402</v>
+      </c>
+      <c r="D64" s="198"/>
+      <c r="E64" s="198"/>
+      <c r="F64" s="175" t="s">
+        <v>398</v>
+      </c>
+      <c r="G64" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H64" s="181"/>
+      <c r="I64" s="173"/>
+      <c r="J64" s="173"/>
+      <c r="K64" s="173"/>
+      <c r="L64" s="173"/>
+      <c r="M64" s="173"/>
       <c r="R64" s="12">
         <v>60</v>
       </c>
@@ -16247,22 +16889,22 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="21"/>
-      <c r="B65" s="228"/>
-      <c r="C65" s="220"/>
-      <c r="D65" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="E65" s="220"/>
-      <c r="F65" s="220"/>
-      <c r="G65" s="220" t="s">
+      <c r="B65" s="182"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="229"/>
-      <c r="I65" s="216"/>
-      <c r="J65" s="216"/>
-      <c r="K65" s="216"/>
-      <c r="L65" s="216"/>
-      <c r="M65" s="216"/>
+      <c r="H65" s="183"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="173"/>
+      <c r="L65" s="173"/>
+      <c r="M65" s="173"/>
       <c r="R65" s="12">
         <v>59</v>
       </c>
@@ -16270,301 +16912,301 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="21"/>
-      <c r="B66" s="228"/>
-      <c r="C66" s="232"/>
-      <c r="D66" s="233" t="s">
-        <v>396</v>
-      </c>
-      <c r="E66" s="232"/>
-      <c r="F66" s="232"/>
-      <c r="G66" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H66" s="229"/>
-      <c r="I66" s="216"/>
-      <c r="J66" s="216"/>
-      <c r="K66" s="216"/>
-      <c r="L66" s="216"/>
-      <c r="M66" s="216"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="185"/>
+      <c r="D66" s="186" t="s">
+        <v>395</v>
+      </c>
+      <c r="E66" s="185"/>
+      <c r="F66" s="185"/>
+      <c r="G66" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H66" s="183"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="173"/>
+      <c r="K66" s="173"/>
+      <c r="L66" s="173"/>
+      <c r="M66" s="173"/>
       <c r="R66" s="12">
         <v>58</v>
       </c>
       <c r="S66" s="14"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B67" s="228"/>
-      <c r="C67" s="232" t="s">
-        <v>404</v>
-      </c>
-      <c r="D67" s="232"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="185" t="s">
+        <v>403</v>
+      </c>
+      <c r="D67" s="185"/>
       <c r="E67" s="153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F67" s="153" t="s">
-        <v>395</v>
-      </c>
-      <c r="G67" s="220"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="216"/>
-      <c r="J67" s="216"/>
-      <c r="K67" s="216"/>
-      <c r="L67" s="216"/>
-      <c r="M67" s="216"/>
+        <v>394</v>
+      </c>
+      <c r="G67" s="175"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="173"/>
+      <c r="J67" s="173"/>
+      <c r="K67" s="173"/>
+      <c r="L67" s="173"/>
+      <c r="M67" s="173"/>
       <c r="R67" s="12">
         <v>57</v>
       </c>
       <c r="S67" s="14"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B68" s="228"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="233" t="s">
-        <v>396</v>
-      </c>
-      <c r="E68" s="220"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="220"/>
-      <c r="H68" s="229"/>
-      <c r="I68" s="216"/>
-      <c r="J68" s="216"/>
-      <c r="K68" s="216"/>
-      <c r="L68" s="216"/>
-      <c r="M68" s="216"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="186" t="s">
+        <v>395</v>
+      </c>
+      <c r="E68" s="175"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="183"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
       <c r="R68" s="12">
         <v>56</v>
       </c>
       <c r="S68" s="14"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B69" s="226"/>
-      <c r="C69" s="215" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" s="215"/>
-      <c r="E69" s="215"/>
-      <c r="F69" s="220" t="s">
-        <v>408</v>
-      </c>
-      <c r="G69" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H69" s="227"/>
+      <c r="B69" s="180"/>
+      <c r="C69" s="196" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" s="196"/>
+      <c r="E69" s="196"/>
+      <c r="F69" s="175" t="s">
+        <v>407</v>
+      </c>
+      <c r="G69" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="181"/>
       <c r="R69" s="12" t="s">
         <v>53</v>
       </c>
       <c r="S69" s="14"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B70" s="228"/>
-      <c r="C70" s="219"/>
-      <c r="D70" s="220" t="s">
-        <v>410</v>
-      </c>
-      <c r="E70" s="219"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H70" s="229"/>
-      <c r="I70" s="220"/>
-      <c r="J70" s="220"/>
-      <c r="K70" s="216"/>
-      <c r="L70" s="216"/>
+      <c r="B70" s="182"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="175" t="s">
+        <v>409</v>
+      </c>
+      <c r="E70" s="174"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H70" s="183"/>
+      <c r="I70" s="175"/>
+      <c r="J70" s="175"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="173"/>
       <c r="R70" s="12">
         <v>8</v>
       </c>
       <c r="S70" s="14"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B71" s="234"/>
-      <c r="C71" s="215" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="215"/>
-      <c r="E71" s="215"/>
-      <c r="F71" s="220" t="s">
-        <v>408</v>
-      </c>
-      <c r="G71" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H71" s="229"/>
-      <c r="I71" s="220"/>
-      <c r="J71" s="220"/>
-      <c r="K71" s="216"/>
-      <c r="L71" s="216"/>
+      <c r="B71" s="187"/>
+      <c r="C71" s="196" t="s">
+        <v>410</v>
+      </c>
+      <c r="D71" s="196"/>
+      <c r="E71" s="196"/>
+      <c r="F71" s="175" t="s">
+        <v>407</v>
+      </c>
+      <c r="G71" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H71" s="183"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="175"/>
+      <c r="K71" s="173"/>
+      <c r="L71" s="173"/>
       <c r="R71" s="12">
         <v>7</v>
       </c>
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B72" s="234"/>
-      <c r="C72" s="220"/>
-      <c r="D72" s="220" t="s">
-        <v>410</v>
-      </c>
-      <c r="E72" s="219"/>
-      <c r="F72" s="220"/>
-      <c r="G72" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H72" s="229"/>
-      <c r="I72" s="220"/>
-      <c r="J72" s="220"/>
-      <c r="K72" s="216"/>
-      <c r="L72" s="216"/>
+      <c r="B72" s="187"/>
+      <c r="C72" s="175"/>
+      <c r="D72" s="175" t="s">
+        <v>409</v>
+      </c>
+      <c r="E72" s="174"/>
+      <c r="F72" s="175"/>
+      <c r="G72" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H72" s="183"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="173"/>
       <c r="R72" s="12">
         <v>6</v>
       </c>
       <c r="S72" s="14"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B73" s="234"/>
-      <c r="C73" s="221" t="s">
-        <v>406</v>
-      </c>
-      <c r="D73" s="221"/>
-      <c r="E73" s="221"/>
-      <c r="F73" s="220" t="s">
-        <v>399</v>
-      </c>
-      <c r="G73" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H73" s="229"/>
-      <c r="I73" s="220"/>
-      <c r="J73" s="220"/>
-      <c r="K73" s="216"/>
-      <c r="L73" s="216"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="197" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="175" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H73" s="183"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="175"/>
+      <c r="K73" s="173"/>
+      <c r="L73" s="173"/>
       <c r="R73" s="12">
         <v>5</v>
       </c>
       <c r="S73" s="14"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B74" s="234"/>
-      <c r="C74" s="220"/>
-      <c r="D74" s="220" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" s="220"/>
-      <c r="F74" s="220"/>
-      <c r="G74" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H74" s="229"/>
-      <c r="I74" s="216"/>
-      <c r="J74" s="220"/>
-      <c r="K74" s="216"/>
-      <c r="L74" s="216"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="175" t="s">
+        <v>408</v>
+      </c>
+      <c r="E74" s="175"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H74" s="183"/>
+      <c r="I74" s="173"/>
+      <c r="J74" s="175"/>
+      <c r="K74" s="173"/>
+      <c r="L74" s="173"/>
       <c r="R74" s="12">
         <v>4</v>
       </c>
       <c r="S74" s="14"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B75" s="235"/>
-      <c r="C75" s="220"/>
-      <c r="D75" s="220" t="s">
+      <c r="B75" s="188"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="220"/>
-      <c r="F75" s="220"/>
-      <c r="G75" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H75" s="229"/>
-      <c r="I75" s="216"/>
-      <c r="J75" s="220"/>
-      <c r="K75" s="216"/>
-      <c r="L75" s="216"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H75" s="183"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="175"/>
+      <c r="K75" s="173"/>
+      <c r="L75" s="173"/>
       <c r="R75" s="12">
         <v>3</v>
       </c>
       <c r="S75" s="14"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B76" s="235"/>
-      <c r="C76" s="220"/>
-      <c r="D76" s="233" t="s">
-        <v>396</v>
-      </c>
-      <c r="E76" s="220"/>
-      <c r="F76" s="220"/>
-      <c r="G76" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H76" s="229"/>
-      <c r="I76" s="216"/>
-      <c r="J76" s="220"/>
-      <c r="K76" s="216"/>
-      <c r="L76" s="216"/>
+      <c r="B76" s="188"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="186" t="s">
+        <v>395</v>
+      </c>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
+      <c r="G76" s="175" t="s">
+        <v>395</v>
+      </c>
+      <c r="H76" s="183"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="175"/>
+      <c r="K76" s="173"/>
+      <c r="L76" s="173"/>
       <c r="R76" s="12">
         <v>2</v>
       </c>
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B77" s="228"/>
-      <c r="C77" s="217" t="s">
-        <v>407</v>
-      </c>
-      <c r="D77" s="217"/>
-      <c r="E77" s="217"/>
+      <c r="B77" s="182"/>
+      <c r="C77" s="198" t="s">
+        <v>406</v>
+      </c>
+      <c r="D77" s="198"/>
+      <c r="E77" s="198"/>
       <c r="F77" s="153" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="175" t="s">
         <v>395</v>
       </c>
-      <c r="G77" s="220" t="s">
-        <v>396</v>
-      </c>
-      <c r="H77" s="229"/>
-      <c r="I77" s="216"/>
-      <c r="J77" s="220"/>
-      <c r="K77" s="216"/>
-      <c r="L77" s="216"/>
+      <c r="H77" s="183"/>
+      <c r="I77" s="173"/>
+      <c r="J77" s="175"/>
+      <c r="K77" s="173"/>
+      <c r="L77" s="173"/>
       <c r="R77" s="12">
         <v>1</v>
       </c>
       <c r="S77" s="14"/>
     </row>
     <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="228"/>
-      <c r="C78" s="220"/>
-      <c r="D78" s="233" t="s">
-        <v>396</v>
-      </c>
-      <c r="E78" s="220"/>
-      <c r="F78" s="220"/>
-      <c r="G78" s="220"/>
-      <c r="H78" s="229"/>
-      <c r="I78" s="216"/>
-      <c r="J78" s="220"/>
-      <c r="K78" s="216"/>
-      <c r="L78" s="216"/>
+      <c r="B78" s="182"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="186" t="s">
+        <v>395</v>
+      </c>
+      <c r="E78" s="175"/>
+      <c r="F78" s="175"/>
+      <c r="G78" s="175"/>
+      <c r="H78" s="183"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="175"/>
+      <c r="K78" s="173"/>
+      <c r="L78" s="173"/>
       <c r="R78" s="16">
         <v>0</v>
       </c>
       <c r="S78" s="17"/>
     </row>
     <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="236"/>
-      <c r="C79" s="237"/>
-      <c r="D79" s="238" t="s">
-        <v>398</v>
-      </c>
-      <c r="E79" s="237"/>
-      <c r="F79" s="237"/>
-      <c r="G79" s="237"/>
-      <c r="H79" s="239"/>
+      <c r="B79" s="189"/>
+      <c r="C79" s="190"/>
+      <c r="D79" s="191" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="190"/>
+      <c r="F79" s="190"/>
+      <c r="G79" s="190"/>
+      <c r="H79" s="192"/>
       <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B80" s="214"/>
+      <c r="B80" s="172"/>
       <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="214"/>
+      <c r="B81" s="172"/>
       <c r="C81" s="29"/>
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
@@ -16629,12 +17271,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="C64:E64"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -16648,6 +17284,12 @@
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="C64:E64"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16663,8 +17305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:O38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16685,16 +17327,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
       <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
@@ -17047,10 +17689,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="29"/>
-      <c r="J8" s="187" t="s">
+      <c r="J8" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="187"/>
+      <c r="K8" s="216"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -17098,10 +17740,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="188" t="s">
+      <c r="J9" s="217" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="188"/>
+      <c r="K9" s="217"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -17200,10 +17842,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="29"/>
-      <c r="J11" s="188" t="s">
+      <c r="J11" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="188"/>
+      <c r="K11" s="217"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
@@ -17251,10 +17893,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="29"/>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="218" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="189"/>
+      <c r="K12" s="218"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
@@ -17880,7 +18522,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>200</v>
@@ -17929,7 +18571,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="36">
@@ -17974,8 +18616,12 @@
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>173</v>
+      </c>
       <c r="H27" s="38"/>
       <c r="I27" s="29"/>
       <c r="J27" s="28"/>
@@ -18044,7 +18690,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="36">
@@ -18098,7 +18744,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="29"/>
       <c r="L30" s="29" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
@@ -18122,7 +18768,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="45">
@@ -18130,15 +18776,17 @@
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="38" t="s">
+        <v>598</v>
+      </c>
       <c r="G31" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="29"/>
       <c r="J31" s="28"/>
       <c r="K31" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -18166,16 +18814,16 @@
         <v>177</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>214</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>215</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>177</v>
@@ -18212,22 +18860,22 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="152" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>177</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="46" t="s">
         <v>177</v>
@@ -18239,7 +18887,7 @@
       <c r="J33" s="28"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
@@ -18265,7 +18913,7 @@
       <c r="K34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
@@ -18291,7 +18939,7 @@
       <c r="K35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
@@ -18317,7 +18965,7 @@
       <c r="K36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
@@ -18343,7 +18991,7 @@
       <c r="K37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
@@ -18371,7 +19019,7 @@
       <c r="K38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
@@ -18538,6 +19186,1341 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5AE176-ACD1-4A69-B093-7A2DF4B4F2A9}">
+  <dimension ref="B1:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="40.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="193">
+        <v>1</v>
+      </c>
+      <c r="C2" s="193" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="193" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="193" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="194">
+        <v>2</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="194" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="194" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="193">
+        <v>7</v>
+      </c>
+      <c r="C8" s="193" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="193" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="193" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="194">
+        <v>11</v>
+      </c>
+      <c r="C12" s="194" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="194" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="194" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="194">
+        <v>13</v>
+      </c>
+      <c r="C14" s="194" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="194" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="195">
+        <v>17</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="193">
+        <v>20</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="193" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="194">
+        <v>23</v>
+      </c>
+      <c r="C24" s="194" t="s">
+        <v>460</v>
+      </c>
+      <c r="D24" s="194" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F24" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="193">
+        <v>24</v>
+      </c>
+      <c r="C25" s="193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="193" t="s">
+        <v>463</v>
+      </c>
+      <c r="E25" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="194">
+        <v>25</v>
+      </c>
+      <c r="C26" s="194" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="194" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="195">
+        <v>26</v>
+      </c>
+      <c r="C27" s="195" t="s">
+        <v>466</v>
+      </c>
+      <c r="D27" s="195" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="193">
+        <v>27</v>
+      </c>
+      <c r="C28" s="193" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" s="193" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="193">
+        <v>29</v>
+      </c>
+      <c r="C30" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="193" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="195">
+        <v>31</v>
+      </c>
+      <c r="C32" s="195" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32" s="195" t="s">
+        <v>475</v>
+      </c>
+      <c r="E32" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="195">
+        <v>32</v>
+      </c>
+      <c r="C33" s="195" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="195" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F33" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+      <c r="D34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E34" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="193">
+        <v>34</v>
+      </c>
+      <c r="C35" s="193" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" s="193" t="s">
+        <v>480</v>
+      </c>
+      <c r="E35" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="195">
+        <v>35</v>
+      </c>
+      <c r="C36" s="195" t="s">
+        <v>481</v>
+      </c>
+      <c r="D36" s="195" t="s">
+        <v>482</v>
+      </c>
+      <c r="E36" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D37" t="s">
+        <v>484</v>
+      </c>
+      <c r="E37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="193">
+        <v>37</v>
+      </c>
+      <c r="C38" s="193" t="s">
+        <v>485</v>
+      </c>
+      <c r="D38" s="193" t="s">
+        <v>486</v>
+      </c>
+      <c r="E38" s="193" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="195">
+        <v>38</v>
+      </c>
+      <c r="C39" s="195" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" s="195" t="s">
+        <v>488</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F39" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" t="s">
+        <v>490</v>
+      </c>
+      <c r="E40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" t="s">
+        <v>492</v>
+      </c>
+      <c r="E41" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>494</v>
+      </c>
+      <c r="D43" t="s">
+        <v>495</v>
+      </c>
+      <c r="E43" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="194">
+        <v>43</v>
+      </c>
+      <c r="C44" s="194" t="s">
+        <v>496</v>
+      </c>
+      <c r="D44" s="194" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F44" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="195">
+        <v>44</v>
+      </c>
+      <c r="C45" s="195" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" s="195" t="s">
+        <v>499</v>
+      </c>
+      <c r="E45" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F45" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="194">
+        <v>45</v>
+      </c>
+      <c r="C46" s="194" t="s">
+        <v>500</v>
+      </c>
+      <c r="D46" s="194" t="s">
+        <v>501</v>
+      </c>
+      <c r="E46" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F46" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="194">
+        <v>46</v>
+      </c>
+      <c r="C47" s="194" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="194" t="s">
+        <v>503</v>
+      </c>
+      <c r="E47" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F47" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="193">
+        <v>47</v>
+      </c>
+      <c r="C48" s="193" t="s">
+        <v>504</v>
+      </c>
+      <c r="D48" s="193" t="s">
+        <v>505</v>
+      </c>
+      <c r="E48" s="193" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="193">
+        <v>48</v>
+      </c>
+      <c r="C49" s="193" t="s">
+        <v>506</v>
+      </c>
+      <c r="D49" s="193" t="s">
+        <v>507</v>
+      </c>
+      <c r="E49" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="193">
+        <v>49</v>
+      </c>
+      <c r="C50" s="193" t="s">
+        <v>508</v>
+      </c>
+      <c r="D50" s="193" t="s">
+        <v>509</v>
+      </c>
+      <c r="E50" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="193">
+        <v>50</v>
+      </c>
+      <c r="C51" s="193" t="s">
+        <v>510</v>
+      </c>
+      <c r="D51" s="193" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="195">
+        <v>51</v>
+      </c>
+      <c r="C52" s="195" t="s">
+        <v>512</v>
+      </c>
+      <c r="D52" s="195" t="s">
+        <v>513</v>
+      </c>
+      <c r="E52" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F52" s="195" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="195">
+        <v>52</v>
+      </c>
+      <c r="C53" s="195" t="s">
+        <v>514</v>
+      </c>
+      <c r="D53" s="195"/>
+      <c r="E53" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F53" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="195">
+        <v>53</v>
+      </c>
+      <c r="C54" s="195" t="s">
+        <v>515</v>
+      </c>
+      <c r="D54" s="195"/>
+      <c r="E54" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F54" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>516</v>
+      </c>
+      <c r="D55" t="s">
+        <v>517</v>
+      </c>
+      <c r="E55" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>518</v>
+      </c>
+      <c r="D56" t="s">
+        <v>519</v>
+      </c>
+      <c r="E56" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="195">
+        <v>56</v>
+      </c>
+      <c r="C57" s="195" t="s">
+        <v>520</v>
+      </c>
+      <c r="D57" s="195"/>
+      <c r="E57" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F57" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="194">
+        <v>57</v>
+      </c>
+      <c r="C58" s="194" t="s">
+        <v>521</v>
+      </c>
+      <c r="D58" s="194" t="s">
+        <v>503</v>
+      </c>
+      <c r="E58" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F58" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="195">
+        <v>58</v>
+      </c>
+      <c r="C59" s="195" t="s">
+        <v>522</v>
+      </c>
+      <c r="D59" s="195" t="s">
+        <v>523</v>
+      </c>
+      <c r="E59" s="195" t="s">
+        <v>587</v>
+      </c>
+      <c r="F59" s="121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="194">
+        <v>59</v>
+      </c>
+      <c r="C60" s="194" t="s">
+        <v>524</v>
+      </c>
+      <c r="D60" s="194" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F60" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="194">
+        <v>60</v>
+      </c>
+      <c r="C61" s="194" t="s">
+        <v>526</v>
+      </c>
+      <c r="D61" s="194" t="s">
+        <v>527</v>
+      </c>
+      <c r="E61" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F61" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>528</v>
+      </c>
+      <c r="D62" t="s">
+        <v>529</v>
+      </c>
+      <c r="E62" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>530</v>
+      </c>
+      <c r="D63" t="s">
+        <v>531</v>
+      </c>
+      <c r="E63" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D64" t="s">
+        <v>533</v>
+      </c>
+      <c r="E64" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="193">
+        <v>64</v>
+      </c>
+      <c r="C65" s="193" t="s">
+        <v>534</v>
+      </c>
+      <c r="D65" s="193" t="s">
+        <v>535</v>
+      </c>
+      <c r="E65" s="193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="194">
+        <v>65</v>
+      </c>
+      <c r="C66" s="194" t="s">
+        <v>536</v>
+      </c>
+      <c r="D66" s="194" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F66" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="194">
+        <v>66</v>
+      </c>
+      <c r="C67" s="194" t="s">
+        <v>537</v>
+      </c>
+      <c r="D67" s="194" t="s">
+        <v>538</v>
+      </c>
+      <c r="E67" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F67" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="193">
+        <v>67</v>
+      </c>
+      <c r="C68" s="193" t="s">
+        <v>539</v>
+      </c>
+      <c r="D68" s="193" t="s">
+        <v>540</v>
+      </c>
+      <c r="E68" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="193">
+        <v>68</v>
+      </c>
+      <c r="C69" s="193" t="s">
+        <v>541</v>
+      </c>
+      <c r="D69" s="193" t="s">
+        <v>542</v>
+      </c>
+      <c r="E69" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="193">
+        <v>69</v>
+      </c>
+      <c r="C70" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="D70" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="E70" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="194">
+        <v>70</v>
+      </c>
+      <c r="C71" s="194" t="s">
+        <v>545</v>
+      </c>
+      <c r="D71" s="194" t="s">
+        <v>546</v>
+      </c>
+      <c r="E71" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F71" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="194">
+        <v>71</v>
+      </c>
+      <c r="C72" s="194" t="s">
+        <v>547</v>
+      </c>
+      <c r="D72" s="194" t="s">
+        <v>548</v>
+      </c>
+      <c r="E72" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F72" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="193">
+        <v>72</v>
+      </c>
+      <c r="C73" s="193" t="s">
+        <v>549</v>
+      </c>
+      <c r="D73" s="193" t="s">
+        <v>550</v>
+      </c>
+      <c r="E73" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="193">
+        <v>73</v>
+      </c>
+      <c r="C74" s="193" t="s">
+        <v>551</v>
+      </c>
+      <c r="D74" s="193" t="s">
+        <v>552</v>
+      </c>
+      <c r="E74" s="193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="194">
+        <v>74</v>
+      </c>
+      <c r="C75" s="194" t="s">
+        <v>553</v>
+      </c>
+      <c r="D75" s="194" t="s">
+        <v>554</v>
+      </c>
+      <c r="E75" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F75" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="194">
+        <v>75</v>
+      </c>
+      <c r="C76" s="194" t="s">
+        <v>555</v>
+      </c>
+      <c r="D76" s="194" t="s">
+        <v>556</v>
+      </c>
+      <c r="E76" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F76" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="194">
+        <v>76</v>
+      </c>
+      <c r="C77" s="194" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77" s="194" t="s">
+        <v>558</v>
+      </c>
+      <c r="E77" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F77" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="194">
+        <v>77</v>
+      </c>
+      <c r="C78" s="194" t="s">
+        <v>559</v>
+      </c>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F78" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="194">
+        <v>78</v>
+      </c>
+      <c r="C79" s="194" t="s">
+        <v>560</v>
+      </c>
+      <c r="D79" s="194" t="s">
+        <v>561</v>
+      </c>
+      <c r="E79" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F79" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="194">
+        <v>79</v>
+      </c>
+      <c r="C80" s="194" t="s">
+        <v>562</v>
+      </c>
+      <c r="D80" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="E80" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F80" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="194">
+        <v>80</v>
+      </c>
+      <c r="C81" s="194" t="s">
+        <v>564</v>
+      </c>
+      <c r="D81" s="194" t="s">
+        <v>565</v>
+      </c>
+      <c r="E81" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F81" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="194">
+        <v>81</v>
+      </c>
+      <c r="C82" s="194" t="s">
+        <v>566</v>
+      </c>
+      <c r="D82" s="194" t="s">
+        <v>567</v>
+      </c>
+      <c r="E82" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="F82" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D83" t="s">
+        <v>569</v>
+      </c>
+      <c r="E83" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>570</v>
+      </c>
+      <c r="D84" t="s">
+        <v>571</v>
+      </c>
+      <c r="E84" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" t="s">
+        <v>573</v>
+      </c>
+      <c r="E85" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>574</v>
+      </c>
+      <c r="D86" t="s">
+        <v>575</v>
+      </c>
+      <c r="E86" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>576</v>
+      </c>
+      <c r="D87" t="s">
+        <v>577</v>
+      </c>
+      <c r="E87" t="s">
+        <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H83"/>
   <sheetViews>
@@ -18565,246 +20548,246 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>229</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>233</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>236</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>239</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>242</v>
-      </c>
       <c r="E6" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="D7" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>244</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="60">
         <v>0</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>248</v>
       </c>
       <c r="D9" s="64">
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="66"/>
       <c r="B11" s="67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="68"/>
       <c r="E11" s="66"/>
       <c r="F11" s="69"/>
-      <c r="G11" s="196" t="s">
-        <v>250</v>
+      <c r="G11" s="219" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="66"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="198" t="s">
+      <c r="B12" s="220"/>
+      <c r="C12" s="221" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="222" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="199" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="200" t="s">
-        <v>250</v>
+      <c r="E12" s="223" t="s">
+        <v>249</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="196"/>
+      <c r="G12" s="219"/>
       <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="66"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="200"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="223"/>
       <c r="F13" s="70"/>
       <c r="G13" s="66"/>
       <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="200"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="223"/>
       <c r="F14" s="70"/>
       <c r="G14" s="66"/>
       <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
-      <c r="B15" s="197"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="200"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="223"/>
       <c r="F15" s="70"/>
       <c r="G15" s="66"/>
       <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="200"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="223"/>
       <c r="F16" s="72"/>
-      <c r="G16" s="196" t="s">
-        <v>253</v>
+      <c r="G16" s="219" t="s">
+        <v>252</v>
       </c>
       <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="66"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="202" t="s">
+      <c r="B17" s="224"/>
+      <c r="C17" s="225" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="226" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="203" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="200"/>
+      <c r="E17" s="223"/>
       <c r="F17" s="70"/>
-      <c r="G17" s="196"/>
+      <c r="G17" s="219"/>
       <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="200"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="223"/>
       <c r="F18" s="70"/>
       <c r="G18" s="66"/>
       <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="66"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="200"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="223"/>
       <c r="F19" s="72"/>
-      <c r="G19" s="196" t="s">
-        <v>256</v>
+      <c r="G19" s="219" t="s">
+        <v>255</v>
       </c>
       <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="66"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="205" t="s">
+      <c r="B20" s="227"/>
+      <c r="C20" s="228" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="226" t="s">
         <v>257</v>
       </c>
-      <c r="D20" s="203" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="200"/>
+      <c r="E20" s="223"/>
       <c r="F20" s="70"/>
-      <c r="G20" s="196"/>
+      <c r="G20" s="219"/>
       <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="66"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="200"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="223"/>
       <c r="F21" s="72"/>
-      <c r="G21" s="196" t="s">
-        <v>259</v>
+      <c r="G21" s="219" t="s">
+        <v>258</v>
       </c>
       <c r="H21" s="71"/>
     </row>
@@ -18812,29 +20795,29 @@
       <c r="A22" s="66"/>
       <c r="B22" s="74"/>
       <c r="C22" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="200"/>
+        <v>259</v>
+      </c>
+      <c r="E22" s="223"/>
       <c r="F22" s="70"/>
-      <c r="G22" s="196"/>
+      <c r="G22" s="219"/>
       <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="66"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="223"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="219" t="s">
         <v>261</v>
-      </c>
-      <c r="E23" s="200"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="196" t="s">
-        <v>262</v>
       </c>
       <c r="H23" s="71"/>
     </row>
@@ -18845,7 +20828,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="196"/>
+      <c r="G24" s="219"/>
       <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -18861,15 +20844,15 @@
     <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="81"/>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G26" s="81"/>
       <c r="H26" s="71"/>
     </row>
     <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="81"/>
-      <c r="D27" s="193" t="s">
-        <v>264</v>
+      <c r="D27" s="229" t="s">
+        <v>263</v>
       </c>
       <c r="G27" s="81"/>
       <c r="H27" s="71"/>
@@ -18877,16 +20860,16 @@
     <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="81"/>
       <c r="B28" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="193"/>
+        <v>264</v>
+      </c>
+      <c r="D28" s="229"/>
       <c r="G28" s="81"/>
       <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="81"/>
       <c r="B29" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -18897,13 +20880,13 @@
     <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="81"/>
       <c r="B30" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="230" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
       <c r="G30" s="81"/>
       <c r="H30" s="71"/>
     </row>
@@ -18921,7 +20904,7 @@
     <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="81"/>
       <c r="B32" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="81"/>
       <c r="H32" s="71"/>
@@ -18929,71 +20912,71 @@
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="81"/>
       <c r="B33" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>256</v>
+        <v>264</v>
+      </c>
+      <c r="D33" s="229" t="s">
+        <v>255</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="71"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="81"/>
-      <c r="B34" s="194" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="193"/>
+      <c r="B34" s="231" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="229"/>
       <c r="G34" s="81"/>
     </row>
     <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="81"/>
-      <c r="B35" s="194"/>
-      <c r="D35" s="195" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
+      <c r="B35" s="231"/>
+      <c r="D35" s="232" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="232"/>
+      <c r="F35" s="232"/>
       <c r="G35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81"/>
-      <c r="B36" s="194"/>
+      <c r="B36" s="231"/>
       <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="81"/>
-      <c r="B37" s="194"/>
-      <c r="D37" s="193" t="s">
-        <v>259</v>
+      <c r="B37" s="231"/>
+      <c r="D37" s="229" t="s">
+        <v>258</v>
       </c>
       <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="81"/>
       <c r="B38" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="193"/>
+        <v>264</v>
+      </c>
+      <c r="D38" s="229"/>
       <c r="G38" s="81"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="81"/>
       <c r="B39" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="81"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="81"/>
       <c r="B40" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G40" s="81"/>
     </row>
     <row r="41" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="81"/>
       <c r="B41" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41" s="81"/>
     </row>
@@ -19007,26 +20990,26 @@
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81"/>
       <c r="B43" s="86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" s="81"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="81"/>
       <c r="B44" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="230" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
+      <c r="E44" s="230"/>
+      <c r="F44" s="230"/>
       <c r="G44" s="81"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="81"/>
       <c r="B45" s="86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G45" s="81"/>
     </row>
@@ -19040,30 +21023,30 @@
     <row r="47" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="81"/>
       <c r="B47" s="86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G47" s="81"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="81"/>
       <c r="B48" s="86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G48" s="81"/>
     </row>
     <row r="49" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="81"/>
       <c r="B49" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="D49" s="191" t="s">
-        <v>357</v>
+        <v>267</v>
+      </c>
+      <c r="D49" s="230" t="s">
+        <v>356</v>
       </c>
       <c r="G49" s="81"/>
     </row>
     <row r="50" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81"/>
-      <c r="D50" s="191"/>
+      <c r="D50" s="230"/>
       <c r="G50" s="81"/>
     </row>
     <row r="51" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -19077,22 +21060,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C56" s="91"/>
       <c r="D56" s="92"/>
@@ -19100,10 +21083,10 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="93"/>
       <c r="C57" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="192" t="s">
-        <v>231</v>
+        <v>273</v>
+      </c>
+      <c r="D57" s="234" t="s">
+        <v>230</v>
       </c>
       <c r="E57" s="71"/>
       <c r="F57" s="71"/>
@@ -19111,61 +21094,61 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="95"/>
       <c r="C58" s="29"/>
-      <c r="D58" s="192"/>
+      <c r="D58" s="234"/>
       <c r="E58" s="71"/>
       <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="95"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="192"/>
+      <c r="D59" s="234"/>
       <c r="E59" s="71"/>
       <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="95"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="192"/>
+      <c r="D60" s="234"/>
       <c r="E60" s="71"/>
       <c r="F60" s="71"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="95"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="192"/>
+      <c r="D61" s="234"/>
       <c r="E61" s="71"/>
       <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="95"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="192"/>
+      <c r="D62" s="234"/>
       <c r="E62" s="71"/>
       <c r="F62" s="71"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="95"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="192"/>
+      <c r="D63" s="234"/>
       <c r="E63" s="71"/>
       <c r="F63" s="71"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="96"/>
       <c r="C64" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" s="192"/>
+        <v>274</v>
+      </c>
+      <c r="D64" s="234"/>
       <c r="E64" s="71"/>
       <c r="F64" s="71"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="93"/>
       <c r="C65" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="192" t="s">
-        <v>231</v>
+        <v>273</v>
+      </c>
+      <c r="D65" s="234" t="s">
+        <v>230</v>
       </c>
       <c r="E65" s="71"/>
       <c r="F65" s="71"/>
@@ -19173,68 +21156,68 @@
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="95"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="192"/>
+      <c r="D66" s="234"/>
       <c r="E66" s="71"/>
       <c r="F66" s="71"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="95"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="192"/>
+      <c r="D67" s="234"/>
       <c r="E67" s="71"/>
       <c r="F67" s="71"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="95"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="192"/>
+      <c r="D68" s="234"/>
       <c r="E68" s="71"/>
       <c r="F68" s="71"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="95"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="192"/>
+      <c r="D69" s="234"/>
       <c r="E69" s="71"/>
       <c r="F69" s="71"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="95"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="192"/>
+      <c r="D70" s="234"/>
       <c r="E70" s="71"/>
       <c r="F70" s="71"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="95"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="192"/>
+      <c r="D71" s="234"/>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="95"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="192"/>
+      <c r="D72" s="234"/>
       <c r="E72" s="71"/>
       <c r="F72" s="71"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="96"/>
       <c r="C73" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="192"/>
+        <v>274</v>
+      </c>
+      <c r="D73" s="234"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="93"/>
       <c r="C74" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74" s="192" t="s">
-        <v>231</v>
+        <v>273</v>
+      </c>
+      <c r="D74" s="234" t="s">
+        <v>230</v>
       </c>
       <c r="E74" s="71"/>
       <c r="F74" s="29"/>
@@ -19242,62 +21225,74 @@
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="95"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="192"/>
+      <c r="D75" s="234"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="95"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="192"/>
+      <c r="D76" s="234"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="95"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="192"/>
+      <c r="D77" s="234"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="95"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="192"/>
+      <c r="D78" s="234"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="95"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="192"/>
+      <c r="D79" s="234"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="95"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="192"/>
+      <c r="D80" s="234"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="96"/>
       <c r="C81" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="234"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="233" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="192"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="190" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="190"/>
-      <c r="D82" s="190"/>
+      <c r="C82" s="233"/>
+      <c r="D82" s="233"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="190"/>
-      <c r="C83" s="190"/>
-      <c r="D83" s="190"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
@@ -19313,18 +21308,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="D74:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19332,7 +21315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
@@ -19587,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -19890,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
@@ -20025,12 +22008,12 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -20039,7 +22022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:C16"/>
   <sheetViews>
@@ -20057,20 +22040,20 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -20080,23 +22063,23 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -20105,7 +22088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20123,7 +22106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK79"/>
   <sheetViews>
@@ -20138,27 +22121,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="116" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="116" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -20166,76 +22149,4 @@
   <pageSetup paperSize="8" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="C7:F101"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="1025" width="8.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="117"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C96" s="206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="206"/>
-      <c r="E96" s="206"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C97" s="207" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="207"/>
-      <c r="E97" s="207"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C98" s="208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="208"/>
-      <c r="E98" s="208"/>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C99" s="209" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="209"/>
-      <c r="E99" s="209"/>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F100" s="119"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D101" s="120" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D101" location="list!A1" display="LIST" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Diagrams/Diagrams.xlsx
+++ b/Diagrams/Diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safemaster\Desktop\bunings\Bunnings Addendas since 12.10.12\exploring_cs\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D3BC72-0A42-4D61-BE6A-DF9FB1B3B44A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5344F83-D9A6-42EF-8053-F21E45F014EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="599">
   <si>
     <t>Part 1: Our First Assembly Program</t>
   </si>
@@ -2064,7 +2064,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2177,12 +2177,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2800,7 +2794,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3199,20 +3193,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3255,8 +3236,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3269,6 +3262,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3299,24 +3310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11472,32 +11465,32 @@
       <c r="E7" s="118"/>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C96" s="235" t="s">
+      <c r="C96" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="235"/>
-      <c r="E96" s="235"/>
+      <c r="D96" s="234"/>
+      <c r="E96" s="234"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C97" s="236" t="s">
+      <c r="C97" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="236"/>
-      <c r="E97" s="236"/>
+      <c r="D97" s="235"/>
+      <c r="E97" s="235"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C98" s="237" t="s">
+      <c r="C98" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="237"/>
-      <c r="E98" s="237"/>
+      <c r="D98" s="236"/>
+      <c r="E98" s="236"/>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C99" s="238" t="s">
+      <c r="C99" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="238"/>
-      <c r="E99" s="238"/>
+      <c r="D99" s="237"/>
+      <c r="E99" s="237"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F100" s="119"/>
@@ -11744,16 +11737,16 @@
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="238" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
       <c r="I3" s="124" t="s">
         <v>293</v>
       </c>
@@ -11766,74 +11759,74 @@
       <c r="L3" s="124" t="s">
         <v>295</v>
       </c>
-      <c r="M3" s="239" t="s">
+      <c r="M3" s="238" t="s">
         <v>296</v>
       </c>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
       <c r="Q3" t="s">
         <v>297</v>
       </c>
-      <c r="R3" s="239" t="s">
+      <c r="R3" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="239"/>
+      <c r="S3" s="238"/>
       <c r="T3" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="U3" s="239" t="s">
+      <c r="U3" s="238" t="s">
         <v>300</v>
       </c>
-      <c r="V3" s="239"/>
-      <c r="W3" s="239"/>
-      <c r="X3" s="239"/>
-      <c r="Y3" s="239" t="s">
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238" t="s">
         <v>301</v>
       </c>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="239"/>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="239" t="s">
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="238"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="238"/>
+      <c r="AG3" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="AH3" s="239"/>
-      <c r="AI3" s="239"/>
-      <c r="AJ3" s="239"/>
-      <c r="AK3" s="239"/>
-      <c r="AL3" s="239"/>
-      <c r="AM3" s="239"/>
-      <c r="AN3" s="239"/>
-      <c r="AO3" s="239"/>
-      <c r="AP3" s="239"/>
-      <c r="AQ3" s="239"/>
-      <c r="AR3" s="239"/>
-      <c r="AS3" s="239"/>
-      <c r="AT3" s="239"/>
-      <c r="AU3" s="239"/>
-      <c r="AV3" s="239"/>
-      <c r="AW3" s="239" t="s">
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="238"/>
+      <c r="AL3" s="238"/>
+      <c r="AM3" s="238"/>
+      <c r="AN3" s="238"/>
+      <c r="AO3" s="238"/>
+      <c r="AP3" s="238"/>
+      <c r="AQ3" s="238"/>
+      <c r="AR3" s="238"/>
+      <c r="AS3" s="238"/>
+      <c r="AT3" s="238"/>
+      <c r="AU3" s="238"/>
+      <c r="AV3" s="238"/>
+      <c r="AW3" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="AX3" s="239"/>
-      <c r="AY3" s="239"/>
-      <c r="AZ3" s="239"/>
-      <c r="BA3" s="239"/>
-      <c r="BB3" s="239"/>
-      <c r="BC3" s="239"/>
-      <c r="BD3" s="239"/>
-      <c r="BE3" s="239"/>
-      <c r="BF3" s="239"/>
-      <c r="BG3" s="239"/>
-      <c r="BH3" s="239"/>
-      <c r="BI3" s="239"/>
-      <c r="BJ3" s="239"/>
-      <c r="BK3" s="239"/>
-      <c r="BL3" s="239"/>
+      <c r="AX3" s="238"/>
+      <c r="AY3" s="238"/>
+      <c r="AZ3" s="238"/>
+      <c r="BA3" s="238"/>
+      <c r="BB3" s="238"/>
+      <c r="BC3" s="238"/>
+      <c r="BD3" s="238"/>
+      <c r="BE3" s="238"/>
+      <c r="BF3" s="238"/>
+      <c r="BG3" s="238"/>
+      <c r="BH3" s="238"/>
+      <c r="BI3" s="238"/>
+      <c r="BJ3" s="238"/>
+      <c r="BK3" s="238"/>
+      <c r="BL3" s="238"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -12073,16 +12066,16 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="238" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
       <c r="I15" s="124" t="s">
         <v>293</v>
       </c>
@@ -12091,74 +12084,74 @@
         <v>0</v>
       </c>
       <c r="L15" s="124"/>
-      <c r="M15" s="239" t="s">
+      <c r="M15" s="238" t="s">
         <v>296</v>
       </c>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="239"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="238"/>
       <c r="Q15" t="s">
         <v>297</v>
       </c>
-      <c r="R15" s="239" t="s">
+      <c r="R15" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S15" s="239"/>
+      <c r="S15" s="238"/>
       <c r="T15" s="125">
         <v>0</v>
       </c>
-      <c r="U15" s="240" t="s">
+      <c r="U15" s="239" t="s">
         <v>300</v>
       </c>
-      <c r="V15" s="240"/>
-      <c r="W15" s="240"/>
-      <c r="X15" s="240"/>
-      <c r="Y15" s="239" t="s">
+      <c r="V15" s="239"/>
+      <c r="W15" s="239"/>
+      <c r="X15" s="239"/>
+      <c r="Y15" s="238" t="s">
         <v>301</v>
       </c>
-      <c r="Z15" s="239"/>
-      <c r="AA15" s="239"/>
-      <c r="AB15" s="239"/>
-      <c r="AC15" s="239"/>
-      <c r="AD15" s="239"/>
-      <c r="AE15" s="239"/>
-      <c r="AF15" s="239"/>
-      <c r="AG15" s="239" t="s">
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="238"/>
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="238"/>
+      <c r="AF15" s="238"/>
+      <c r="AG15" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="AH15" s="239"/>
-      <c r="AI15" s="239"/>
-      <c r="AJ15" s="239"/>
-      <c r="AK15" s="239"/>
-      <c r="AL15" s="239"/>
-      <c r="AM15" s="239"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="239"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="239"/>
-      <c r="AT15" s="239"/>
-      <c r="AU15" s="239"/>
-      <c r="AV15" s="239"/>
-      <c r="AW15" s="239" t="s">
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="238"/>
+      <c r="AJ15" s="238"/>
+      <c r="AK15" s="238"/>
+      <c r="AL15" s="238"/>
+      <c r="AM15" s="238"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="238"/>
+      <c r="AP15" s="238"/>
+      <c r="AQ15" s="238"/>
+      <c r="AR15" s="238"/>
+      <c r="AS15" s="238"/>
+      <c r="AT15" s="238"/>
+      <c r="AU15" s="238"/>
+      <c r="AV15" s="238"/>
+      <c r="AW15" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="AX15" s="239"/>
-      <c r="AY15" s="239"/>
-      <c r="AZ15" s="239"/>
-      <c r="BA15" s="239"/>
-      <c r="BB15" s="239"/>
-      <c r="BC15" s="239"/>
-      <c r="BD15" s="239"/>
-      <c r="BE15" s="239"/>
-      <c r="BF15" s="239"/>
-      <c r="BG15" s="239"/>
-      <c r="BH15" s="239"/>
-      <c r="BI15" s="239"/>
-      <c r="BJ15" s="239"/>
-      <c r="BK15" s="239"/>
-      <c r="BL15" s="239"/>
+      <c r="AX15" s="238"/>
+      <c r="AY15" s="238"/>
+      <c r="AZ15" s="238"/>
+      <c r="BA15" s="238"/>
+      <c r="BB15" s="238"/>
+      <c r="BC15" s="238"/>
+      <c r="BD15" s="238"/>
+      <c r="BE15" s="238"/>
+      <c r="BF15" s="238"/>
+      <c r="BG15" s="238"/>
+      <c r="BH15" s="238"/>
+      <c r="BI15" s="238"/>
+      <c r="BJ15" s="238"/>
+      <c r="BK15" s="238"/>
+      <c r="BL15" s="238"/>
     </row>
     <row r="17" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="127" t="s">
@@ -12362,31 +12355,31 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="238" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="239"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="239"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+      <c r="P19" s="238"/>
       <c r="Q19" t="s">
         <v>297</v>
       </c>
-      <c r="R19" s="239" t="s">
+      <c r="R19" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S19" s="239"/>
+      <c r="S19" s="238"/>
       <c r="T19" s="125">
         <v>0</v>
       </c>
@@ -12411,42 +12404,42 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AG19" s="239" t="s">
+      <c r="AG19" s="238" t="s">
         <v>323</v>
       </c>
-      <c r="AH19" s="239"/>
-      <c r="AI19" s="239"/>
-      <c r="AJ19" s="239"/>
-      <c r="AK19" s="239"/>
-      <c r="AL19" s="239"/>
-      <c r="AM19" s="239"/>
-      <c r="AN19" s="239"/>
-      <c r="AO19" s="239"/>
-      <c r="AP19" s="239"/>
-      <c r="AQ19" s="239"/>
-      <c r="AR19" s="239"/>
-      <c r="AS19" s="239"/>
-      <c r="AT19" s="239"/>
-      <c r="AU19" s="239"/>
-      <c r="AV19" s="239"/>
-      <c r="AW19" s="239" t="s">
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="238"/>
+      <c r="AJ19" s="238"/>
+      <c r="AK19" s="238"/>
+      <c r="AL19" s="238"/>
+      <c r="AM19" s="238"/>
+      <c r="AN19" s="238"/>
+      <c r="AO19" s="238"/>
+      <c r="AP19" s="238"/>
+      <c r="AQ19" s="238"/>
+      <c r="AR19" s="238"/>
+      <c r="AS19" s="238"/>
+      <c r="AT19" s="238"/>
+      <c r="AU19" s="238"/>
+      <c r="AV19" s="238"/>
+      <c r="AW19" s="238" t="s">
         <v>324</v>
       </c>
-      <c r="AX19" s="239"/>
-      <c r="AY19" s="239"/>
-      <c r="AZ19" s="239"/>
-      <c r="BA19" s="239"/>
-      <c r="BB19" s="239"/>
-      <c r="BC19" s="239"/>
-      <c r="BD19" s="239"/>
-      <c r="BE19" s="239"/>
-      <c r="BF19" s="239"/>
-      <c r="BG19" s="239"/>
-      <c r="BH19" s="239"/>
-      <c r="BI19" s="239"/>
-      <c r="BJ19" s="239"/>
-      <c r="BK19" s="239"/>
-      <c r="BL19" s="239"/>
+      <c r="AX19" s="238"/>
+      <c r="AY19" s="238"/>
+      <c r="AZ19" s="238"/>
+      <c r="BA19" s="238"/>
+      <c r="BB19" s="238"/>
+      <c r="BC19" s="238"/>
+      <c r="BD19" s="238"/>
+      <c r="BE19" s="238"/>
+      <c r="BF19" s="238"/>
+      <c r="BG19" s="238"/>
+      <c r="BH19" s="238"/>
+      <c r="BI19" s="238"/>
+      <c r="BJ19" s="238"/>
+      <c r="BK19" s="238"/>
+      <c r="BL19" s="238"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -12703,31 +12696,31 @@
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="239" t="s">
+      <c r="A23" s="238" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="239"/>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
+      <c r="B23" s="238"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="238"/>
       <c r="Q23" t="s">
         <v>297</v>
       </c>
-      <c r="R23" s="239" t="s">
+      <c r="R23" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S23" s="239"/>
+      <c r="S23" s="238"/>
       <c r="T23" s="125">
         <v>0</v>
       </c>
@@ -12752,42 +12745,42 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AG23" s="239" t="s">
+      <c r="AG23" s="238" t="s">
         <v>323</v>
       </c>
-      <c r="AH23" s="239"/>
-      <c r="AI23" s="239"/>
-      <c r="AJ23" s="239"/>
-      <c r="AK23" s="239"/>
-      <c r="AL23" s="239"/>
-      <c r="AM23" s="239"/>
-      <c r="AN23" s="239"/>
-      <c r="AO23" s="239"/>
-      <c r="AP23" s="239"/>
-      <c r="AQ23" s="239"/>
-      <c r="AR23" s="239"/>
-      <c r="AS23" s="239"/>
-      <c r="AT23" s="239"/>
-      <c r="AU23" s="239"/>
-      <c r="AV23" s="239"/>
-      <c r="AW23" s="239" t="s">
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="238"/>
+      <c r="AJ23" s="238"/>
+      <c r="AK23" s="238"/>
+      <c r="AL23" s="238"/>
+      <c r="AM23" s="238"/>
+      <c r="AN23" s="238"/>
+      <c r="AO23" s="238"/>
+      <c r="AP23" s="238"/>
+      <c r="AQ23" s="238"/>
+      <c r="AR23" s="238"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="238"/>
+      <c r="AU23" s="238"/>
+      <c r="AV23" s="238"/>
+      <c r="AW23" s="238" t="s">
         <v>324</v>
       </c>
-      <c r="AX23" s="239"/>
-      <c r="AY23" s="239"/>
-      <c r="AZ23" s="239"/>
-      <c r="BA23" s="239"/>
-      <c r="BB23" s="239"/>
-      <c r="BC23" s="239"/>
-      <c r="BD23" s="239"/>
-      <c r="BE23" s="239"/>
-      <c r="BF23" s="239"/>
-      <c r="BG23" s="239"/>
-      <c r="BH23" s="239"/>
-      <c r="BI23" s="239"/>
-      <c r="BJ23" s="239"/>
-      <c r="BK23" s="239"/>
-      <c r="BL23" s="239"/>
+      <c r="AX23" s="238"/>
+      <c r="AY23" s="238"/>
+      <c r="AZ23" s="238"/>
+      <c r="BA23" s="238"/>
+      <c r="BB23" s="238"/>
+      <c r="BC23" s="238"/>
+      <c r="BD23" s="238"/>
+      <c r="BE23" s="238"/>
+      <c r="BF23" s="238"/>
+      <c r="BG23" s="238"/>
+      <c r="BH23" s="238"/>
+      <c r="BI23" s="238"/>
+      <c r="BJ23" s="238"/>
+      <c r="BK23" s="238"/>
+      <c r="BL23" s="238"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="121" t="s">
@@ -12989,16 +12982,16 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="239" t="s">
+      <c r="A27" s="238" t="s">
         <v>292</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="238"/>
       <c r="I27" s="124" t="s">
         <v>293</v>
       </c>
@@ -13011,19 +13004,19 @@
       <c r="L27" s="124" t="s">
         <v>295</v>
       </c>
-      <c r="M27" s="239" t="s">
+      <c r="M27" s="238" t="s">
         <v>296</v>
       </c>
-      <c r="N27" s="239"/>
-      <c r="O27" s="239"/>
-      <c r="P27" s="239"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="238"/>
       <c r="Q27" t="s">
         <v>297</v>
       </c>
-      <c r="R27" s="239" t="s">
+      <c r="R27" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S27" s="239"/>
+      <c r="S27" s="238"/>
       <c r="T27" s="125">
         <v>1</v>
       </c>
@@ -13039,52 +13032,52 @@
       <c r="X27" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="Y27" s="239" t="s">
+      <c r="Y27" s="238" t="s">
         <v>301</v>
       </c>
-      <c r="Z27" s="239"/>
-      <c r="AA27" s="239"/>
-      <c r="AB27" s="239"/>
-      <c r="AC27" s="239"/>
-      <c r="AD27" s="239"/>
-      <c r="AE27" s="239"/>
-      <c r="AF27" s="239"/>
-      <c r="AG27" s="239" t="s">
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="238"/>
+      <c r="AB27" s="238"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="238"/>
+      <c r="AF27" s="238"/>
+      <c r="AG27" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="AH27" s="239"/>
-      <c r="AI27" s="239"/>
-      <c r="AJ27" s="239"/>
-      <c r="AK27" s="239"/>
-      <c r="AL27" s="239"/>
-      <c r="AM27" s="239"/>
-      <c r="AN27" s="239"/>
-      <c r="AO27" s="239"/>
-      <c r="AP27" s="239"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="239"/>
-      <c r="AS27" s="239"/>
-      <c r="AT27" s="239"/>
-      <c r="AU27" s="239"/>
-      <c r="AV27" s="239"/>
-      <c r="AW27" s="239" t="s">
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="238"/>
+      <c r="AJ27" s="238"/>
+      <c r="AK27" s="238"/>
+      <c r="AL27" s="238"/>
+      <c r="AM27" s="238"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="238"/>
+      <c r="AP27" s="238"/>
+      <c r="AQ27" s="238"/>
+      <c r="AR27" s="238"/>
+      <c r="AS27" s="238"/>
+      <c r="AT27" s="238"/>
+      <c r="AU27" s="238"/>
+      <c r="AV27" s="238"/>
+      <c r="AW27" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="AX27" s="239"/>
-      <c r="AY27" s="239"/>
-      <c r="AZ27" s="239"/>
-      <c r="BA27" s="239"/>
-      <c r="BB27" s="239"/>
-      <c r="BC27" s="239"/>
-      <c r="BD27" s="239"/>
-      <c r="BE27" s="239"/>
-      <c r="BF27" s="239"/>
-      <c r="BG27" s="239"/>
-      <c r="BH27" s="239"/>
-      <c r="BI27" s="239"/>
-      <c r="BJ27" s="239"/>
-      <c r="BK27" s="239"/>
-      <c r="BL27" s="239"/>
+      <c r="AX27" s="238"/>
+      <c r="AY27" s="238"/>
+      <c r="AZ27" s="238"/>
+      <c r="BA27" s="238"/>
+      <c r="BB27" s="238"/>
+      <c r="BC27" s="238"/>
+      <c r="BD27" s="238"/>
+      <c r="BE27" s="238"/>
+      <c r="BF27" s="238"/>
+      <c r="BG27" s="238"/>
+      <c r="BH27" s="238"/>
+      <c r="BI27" s="238"/>
+      <c r="BJ27" s="238"/>
+      <c r="BK27" s="238"/>
+      <c r="BL27" s="238"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29" s="121" t="s">
@@ -13286,16 +13279,16 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="239" t="s">
+      <c r="A31" s="238" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
       <c r="I31" s="124" t="s">
         <v>293</v>
       </c>
@@ -13308,19 +13301,19 @@
       <c r="L31" s="124" t="s">
         <v>295</v>
       </c>
-      <c r="M31" s="239" t="s">
+      <c r="M31" s="238" t="s">
         <v>296</v>
       </c>
-      <c r="N31" s="239"/>
-      <c r="O31" s="239"/>
-      <c r="P31" s="239"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="238"/>
       <c r="Q31" t="s">
         <v>297</v>
       </c>
-      <c r="R31" s="239" t="s">
+      <c r="R31" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="S31" s="239"/>
+      <c r="S31" s="238"/>
       <c r="T31" s="125">
         <v>1</v>
       </c>
@@ -13336,73 +13329,55 @@
       <c r="X31" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="Y31" s="239" t="s">
+      <c r="Y31" s="238" t="s">
         <v>301</v>
       </c>
-      <c r="Z31" s="239"/>
-      <c r="AA31" s="239"/>
-      <c r="AB31" s="239"/>
-      <c r="AC31" s="239"/>
-      <c r="AD31" s="239"/>
-      <c r="AE31" s="239"/>
-      <c r="AF31" s="239"/>
-      <c r="AG31" s="239" t="s">
+      <c r="Z31" s="238"/>
+      <c r="AA31" s="238"/>
+      <c r="AB31" s="238"/>
+      <c r="AC31" s="238"/>
+      <c r="AD31" s="238"/>
+      <c r="AE31" s="238"/>
+      <c r="AF31" s="238"/>
+      <c r="AG31" s="238" t="s">
         <v>302</v>
       </c>
-      <c r="AH31" s="239"/>
-      <c r="AI31" s="239"/>
-      <c r="AJ31" s="239"/>
-      <c r="AK31" s="239"/>
-      <c r="AL31" s="239"/>
-      <c r="AM31" s="239"/>
-      <c r="AN31" s="239"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="239"/>
-      <c r="AQ31" s="239"/>
-      <c r="AR31" s="239"/>
-      <c r="AS31" s="239"/>
-      <c r="AT31" s="239"/>
-      <c r="AU31" s="239"/>
-      <c r="AV31" s="239"/>
-      <c r="AW31" s="239" t="s">
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="238"/>
+      <c r="AJ31" s="238"/>
+      <c r="AK31" s="238"/>
+      <c r="AL31" s="238"/>
+      <c r="AM31" s="238"/>
+      <c r="AN31" s="238"/>
+      <c r="AO31" s="238"/>
+      <c r="AP31" s="238"/>
+      <c r="AQ31" s="238"/>
+      <c r="AR31" s="238"/>
+      <c r="AS31" s="238"/>
+      <c r="AT31" s="238"/>
+      <c r="AU31" s="238"/>
+      <c r="AV31" s="238"/>
+      <c r="AW31" s="238" t="s">
         <v>303</v>
       </c>
-      <c r="AX31" s="239"/>
-      <c r="AY31" s="239"/>
-      <c r="AZ31" s="239"/>
-      <c r="BA31" s="239"/>
-      <c r="BB31" s="239"/>
-      <c r="BC31" s="239"/>
-      <c r="BD31" s="239"/>
-      <c r="BE31" s="239"/>
-      <c r="BF31" s="239"/>
-      <c r="BG31" s="239"/>
-      <c r="BH31" s="239"/>
-      <c r="BI31" s="239"/>
-      <c r="BJ31" s="239"/>
-      <c r="BK31" s="239"/>
-      <c r="BL31" s="239"/>
+      <c r="AX31" s="238"/>
+      <c r="AY31" s="238"/>
+      <c r="AZ31" s="238"/>
+      <c r="BA31" s="238"/>
+      <c r="BB31" s="238"/>
+      <c r="BC31" s="238"/>
+      <c r="BD31" s="238"/>
+      <c r="BE31" s="238"/>
+      <c r="BF31" s="238"/>
+      <c r="BG31" s="238"/>
+      <c r="BH31" s="238"/>
+      <c r="BI31" s="238"/>
+      <c r="BJ31" s="238"/>
+      <c r="BK31" s="238"/>
+      <c r="BL31" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="AG19:AV19"/>
-    <mergeCell ref="AW19:BL19"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="AG23:AV23"/>
-    <mergeCell ref="AW23:BL23"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AV27"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AV15"/>
-    <mergeCell ref="AW15:BL15"/>
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="AW3:BL3"/>
     <mergeCell ref="A31:H31"/>
@@ -13419,6 +13394,24 @@
     <mergeCell ref="AW27:BL27"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AV15"/>
+    <mergeCell ref="AW15:BL15"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AV27"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="AG19:AV19"/>
+    <mergeCell ref="AW19:BL19"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="AG23:AV23"/>
+    <mergeCell ref="AW23:BL23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13439,13 +13432,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="240" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="129" t="s">
@@ -14291,10 +14284,10 @@
       <c r="L19" s="105"/>
       <c r="M19" s="105"/>
       <c r="N19" s="105"/>
-      <c r="O19" s="242" t="s">
+      <c r="O19" s="241" t="s">
         <v>340</v>
       </c>
-      <c r="P19" s="242"/>
+      <c r="P19" s="241"/>
       <c r="Q19" s="105"/>
       <c r="R19" s="105"/>
       <c r="S19" s="105"/>
@@ -14690,24 +14683,24 @@
       <c r="AD28" s="88"/>
       <c r="AE28" s="88"/>
       <c r="AF28" s="88"/>
-      <c r="AG28" s="232" t="s">
+      <c r="AG28" s="223" t="s">
         <v>346</v>
       </c>
-      <c r="AH28" s="232"/>
-      <c r="AI28" s="232"/>
-      <c r="AJ28" s="232"/>
-      <c r="AK28" s="232"/>
-      <c r="AL28" s="232"/>
-      <c r="AM28" s="232"/>
-      <c r="AN28" s="232"/>
-      <c r="AO28" s="232"/>
-      <c r="AP28" s="232"/>
-      <c r="AQ28" s="232"/>
-      <c r="AR28" s="232"/>
-      <c r="AS28" s="232"/>
-      <c r="AT28" s="232"/>
-      <c r="AU28" s="232"/>
-      <c r="AV28" s="232"/>
+      <c r="AH28" s="223"/>
+      <c r="AI28" s="223"/>
+      <c r="AJ28" s="223"/>
+      <c r="AK28" s="223"/>
+      <c r="AL28" s="223"/>
+      <c r="AM28" s="223"/>
+      <c r="AN28" s="223"/>
+      <c r="AO28" s="223"/>
+      <c r="AP28" s="223"/>
+      <c r="AQ28" s="223"/>
+      <c r="AR28" s="223"/>
+      <c r="AS28" s="223"/>
+      <c r="AT28" s="223"/>
+      <c r="AU28" s="223"/>
+      <c r="AV28" s="223"/>
       <c r="AW28" s="132"/>
     </row>
     <row r="29" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14945,24 +14938,24 @@
       <c r="AD31" s="88"/>
       <c r="AE31" s="88"/>
       <c r="AF31" s="88"/>
-      <c r="AG31" s="232" t="s">
+      <c r="AG31" s="223" t="s">
         <v>346</v>
       </c>
-      <c r="AH31" s="232"/>
-      <c r="AI31" s="232"/>
-      <c r="AJ31" s="232"/>
-      <c r="AK31" s="232"/>
-      <c r="AL31" s="232"/>
-      <c r="AM31" s="232"/>
-      <c r="AN31" s="232"/>
-      <c r="AO31" s="232"/>
-      <c r="AP31" s="232"/>
-      <c r="AQ31" s="232"/>
-      <c r="AR31" s="232"/>
-      <c r="AS31" s="232"/>
-      <c r="AT31" s="232"/>
-      <c r="AU31" s="232"/>
-      <c r="AV31" s="232"/>
+      <c r="AH31" s="223"/>
+      <c r="AI31" s="223"/>
+      <c r="AJ31" s="223"/>
+      <c r="AK31" s="223"/>
+      <c r="AL31" s="223"/>
+      <c r="AM31" s="223"/>
+      <c r="AN31" s="223"/>
+      <c r="AO31" s="223"/>
+      <c r="AP31" s="223"/>
+      <c r="AQ31" s="223"/>
+      <c r="AR31" s="223"/>
+      <c r="AS31" s="223"/>
+      <c r="AT31" s="223"/>
+      <c r="AU31" s="223"/>
+      <c r="AV31" s="223"/>
       <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15200,24 +15193,24 @@
       <c r="AD34" s="88"/>
       <c r="AE34" s="88"/>
       <c r="AF34" s="88"/>
-      <c r="AG34" s="232" t="s">
+      <c r="AG34" s="223" t="s">
         <v>346</v>
       </c>
-      <c r="AH34" s="232"/>
-      <c r="AI34" s="232"/>
-      <c r="AJ34" s="232"/>
-      <c r="AK34" s="232"/>
-      <c r="AL34" s="232"/>
-      <c r="AM34" s="232"/>
-      <c r="AN34" s="232"/>
-      <c r="AO34" s="232"/>
-      <c r="AP34" s="232"/>
-      <c r="AQ34" s="232"/>
-      <c r="AR34" s="232"/>
-      <c r="AS34" s="232"/>
-      <c r="AT34" s="232"/>
-      <c r="AU34" s="232"/>
-      <c r="AV34" s="232"/>
+      <c r="AH34" s="223"/>
+      <c r="AI34" s="223"/>
+      <c r="AJ34" s="223"/>
+      <c r="AK34" s="223"/>
+      <c r="AL34" s="223"/>
+      <c r="AM34" s="223"/>
+      <c r="AN34" s="223"/>
+      <c r="AO34" s="223"/>
+      <c r="AP34" s="223"/>
+      <c r="AQ34" s="223"/>
+      <c r="AR34" s="223"/>
+      <c r="AS34" s="223"/>
+      <c r="AT34" s="223"/>
+      <c r="AU34" s="223"/>
+      <c r="AV34" s="223"/>
       <c r="AW34" s="132"/>
     </row>
     <row r="35" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15913,11 +15906,11 @@
       <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
       <c r="O2" s="6"/>
       <c r="P2" s="5" t="s">
         <v>18</v>
@@ -15928,11 +15921,11 @@
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
       <c r="O3" s="8" t="s">
         <v>21</v>
       </c>
@@ -15943,11 +15936,11 @@
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
       <c r="O4" s="154"/>
       <c r="P4" s="155" t="s">
         <v>24</v>
@@ -15960,11 +15953,11 @@
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
       <c r="O5" s="154"/>
       <c r="P5" s="155" t="s">
         <v>27</v>
@@ -16051,11 +16044,11 @@
       <c r="B14" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="211" t="s">
+      <c r="D14" s="206" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
       <c r="H14" s="5" t="s">
         <v>67</v>
       </c>
@@ -16070,11 +16063,11 @@
       <c r="B15" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="205" t="s">
+      <c r="D15" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
       <c r="H15" s="5" t="s">
         <v>368</v>
       </c>
@@ -16089,11 +16082,11 @@
       <c r="B16" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="205" t="s">
+      <c r="D16" s="200" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
       <c r="H16" s="5" t="s">
         <v>372</v>
       </c>
@@ -16105,11 +16098,11 @@
       <c r="B17" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="205" t="s">
+      <c r="D17" s="200" t="s">
         <v>373</v>
       </c>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="H17" s="5" t="s">
         <v>369</v>
       </c>
@@ -16121,11 +16114,11 @@
       <c r="B18" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="D18" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="210"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
       <c r="H18" s="5" t="s">
         <v>370</v>
       </c>
@@ -16687,11 +16680,11 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="21"/>
       <c r="B56" s="182"/>
-      <c r="C56" s="198" t="s">
+      <c r="C56" s="209" t="s">
         <v>400</v>
       </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="198"/>
+      <c r="D56" s="209"/>
+      <c r="E56" s="209"/>
       <c r="F56" s="175"/>
       <c r="G56" s="175" t="s">
         <v>399</v>
@@ -16737,11 +16730,11 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="21"/>
       <c r="B58" s="182"/>
-      <c r="C58" s="214" t="s">
+      <c r="C58" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="214"/>
-      <c r="E58" s="214"/>
+      <c r="D58" s="210"/>
+      <c r="E58" s="210"/>
       <c r="F58" s="175"/>
       <c r="G58" s="175" t="s">
         <v>396</v>
@@ -16775,11 +16768,11 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="182"/>
-      <c r="C60" s="214" t="s">
+      <c r="C60" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="214"/>
-      <c r="E60" s="214"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
       <c r="F60" s="175"/>
       <c r="G60" s="175" t="s">
         <v>397</v>
@@ -16790,10 +16783,10 @@
       <c r="K60" s="173"/>
       <c r="L60" s="173"/>
       <c r="M60" s="173"/>
-      <c r="R60" s="204" t="s">
+      <c r="R60" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="204"/>
+      <c r="S60" s="199"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="21"/>
@@ -16818,13 +16811,13 @@
     </row>
     <row r="62" spans="1:20" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A62" s="21"/>
-      <c r="B62" s="199" t="s">
+      <c r="B62" s="213" t="s">
         <v>401</v>
       </c>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
+      <c r="F62" s="209"/>
       <c r="G62" s="175" t="s">
         <v>399</v>
       </c>
@@ -16865,11 +16858,11 @@
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="21"/>
       <c r="B64" s="182"/>
-      <c r="C64" s="198" t="s">
+      <c r="C64" s="209" t="s">
         <v>402</v>
       </c>
-      <c r="D64" s="198"/>
-      <c r="E64" s="198"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
       <c r="F64" s="175" t="s">
         <v>398</v>
       </c>
@@ -16979,11 +16972,11 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B69" s="180"/>
-      <c r="C69" s="196" t="s">
+      <c r="C69" s="211" t="s">
         <v>404</v>
       </c>
-      <c r="D69" s="196"/>
-      <c r="E69" s="196"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="211"/>
       <c r="F69" s="175" t="s">
         <v>407</v>
       </c>
@@ -17019,11 +17012,11 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B71" s="187"/>
-      <c r="C71" s="196" t="s">
+      <c r="C71" s="211" t="s">
         <v>410</v>
       </c>
-      <c r="D71" s="196"/>
-      <c r="E71" s="196"/>
+      <c r="D71" s="211"/>
+      <c r="E71" s="211"/>
       <c r="F71" s="175" t="s">
         <v>407</v>
       </c>
@@ -17063,11 +17056,11 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B73" s="187"/>
-      <c r="C73" s="197" t="s">
+      <c r="C73" s="212" t="s">
         <v>405</v>
       </c>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="212"/>
       <c r="F73" s="175" t="s">
         <v>398</v>
       </c>
@@ -17149,11 +17142,11 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B77" s="182"/>
-      <c r="C77" s="198" t="s">
+      <c r="C77" s="209" t="s">
         <v>406</v>
       </c>
-      <c r="D77" s="198"/>
-      <c r="E77" s="198"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
       <c r="F77" s="153" t="s">
         <v>394</v>
       </c>
@@ -17271,6 +17264,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="C64:E64"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -17284,12 +17283,6 @@
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="C64:E64"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -17305,7 +17298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -17327,16 +17320,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
       <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
@@ -17689,10 +17682,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="29"/>
-      <c r="J8" s="216" t="s">
+      <c r="J8" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="216"/>
+      <c r="K8" s="215"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -17740,10 +17733,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="217" t="s">
+      <c r="J9" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="217"/>
+      <c r="K9" s="216"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -17842,10 +17835,10 @@
         <v>100</v>
       </c>
       <c r="I11" s="29"/>
-      <c r="J11" s="217" t="s">
+      <c r="J11" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="217"/>
+      <c r="K11" s="216"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
@@ -17893,10 +17886,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="29"/>
-      <c r="J12" s="218" t="s">
+      <c r="J12" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="218"/>
+      <c r="K12" s="217"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
@@ -19189,8 +19182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5AE176-ACD1-4A69-B093-7A2DF4B4F2A9}">
   <dimension ref="B1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19228,21 +19221,24 @@
       <c r="E2" s="193" t="s">
         <v>579</v>
       </c>
+      <c r="F2" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="194">
+      <c r="B3" s="193">
         <v>2</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="193" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="193" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="193" t="s">
         <v>580</v>
       </c>
-      <c r="F3" s="194" t="s">
+      <c r="F3" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -19315,6 +19311,9 @@
       <c r="E8" s="193" t="s">
         <v>579</v>
       </c>
+      <c r="F8" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9">
@@ -19359,19 +19358,19 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="194">
+      <c r="B12" s="193">
         <v>11</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="193" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="193" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="193" t="s">
         <v>580</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -19390,19 +19389,19 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="194">
+      <c r="B14" s="193">
         <v>13</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="193" t="s">
         <v>441</v>
       </c>
-      <c r="D14" s="194" t="s">
+      <c r="D14" s="193" t="s">
         <v>442</v>
       </c>
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F14" s="194" t="s">
+      <c r="F14" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -19449,17 +19448,17 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="195">
+      <c r="B18" s="194">
         <v>17</v>
       </c>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="194" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195" t="s">
+      <c r="D18" s="194"/>
+      <c r="E18" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -19504,6 +19503,9 @@
       <c r="E21" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F21" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
@@ -19534,19 +19536,19 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="194">
+      <c r="B24" s="193">
         <v>23</v>
       </c>
-      <c r="C24" s="194" t="s">
+      <c r="C24" s="193" t="s">
         <v>460</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="193" t="s">
         <v>461</v>
       </c>
-      <c r="E24" s="194" t="s">
+      <c r="E24" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F24" s="194" t="s">
+      <c r="F24" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -19563,38 +19565,41 @@
       <c r="E25" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F25" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="194">
+      <c r="B26" s="193">
         <v>25</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="193" t="s">
         <v>464</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="193" t="s">
         <v>465</v>
       </c>
-      <c r="E26" s="194" t="s">
+      <c r="E26" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F26" s="194" t="s">
+      <c r="F26" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="195">
+      <c r="B27" s="194">
         <v>26</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="194" t="s">
         <v>466</v>
       </c>
-      <c r="D27" s="195" t="s">
+      <c r="D27" s="194" t="s">
         <v>467</v>
       </c>
-      <c r="E27" s="195" t="s">
+      <c r="E27" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -19611,6 +19616,9 @@
       <c r="E28" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F28" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
@@ -19639,6 +19647,9 @@
       <c r="E30" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F30" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
@@ -19655,36 +19666,36 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="195">
+      <c r="B32" s="194">
         <v>31</v>
       </c>
-      <c r="C32" s="195" t="s">
+      <c r="C32" s="194" t="s">
         <v>474</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>475</v>
       </c>
-      <c r="E32" s="195" t="s">
+      <c r="E32" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F32" s="121" t="s">
+      <c r="F32" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="195">
+      <c r="B33" s="194">
         <v>32</v>
       </c>
-      <c r="C33" s="195" t="s">
+      <c r="C33" s="194" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="194" t="s">
         <v>477</v>
       </c>
-      <c r="E33" s="195" t="s">
+      <c r="E33" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F33" s="121" t="s">
+      <c r="F33" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -19715,21 +19726,24 @@
       <c r="E35" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F35" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="195">
+      <c r="B36" s="194">
         <v>35</v>
       </c>
-      <c r="C36" s="195" t="s">
+      <c r="C36" s="194" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="195" t="s">
+      <c r="D36" s="194" t="s">
         <v>482</v>
       </c>
-      <c r="E36" s="195" t="s">
+      <c r="E36" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F36" s="121" t="s">
+      <c r="F36" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -19762,19 +19776,19 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="195">
+      <c r="B39" s="194">
         <v>38</v>
       </c>
-      <c r="C39" s="195" t="s">
+      <c r="C39" s="194" t="s">
         <v>487</v>
       </c>
-      <c r="D39" s="195" t="s">
+      <c r="D39" s="194" t="s">
         <v>488</v>
       </c>
-      <c r="E39" s="195" t="s">
+      <c r="E39" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F39" s="121" t="s">
+      <c r="F39" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -19835,70 +19849,70 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="194">
+      <c r="B44" s="193">
         <v>43</v>
       </c>
-      <c r="C44" s="194" t="s">
+      <c r="C44" s="193" t="s">
         <v>496</v>
       </c>
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="193" t="s">
         <v>497</v>
       </c>
-      <c r="E44" s="194" t="s">
+      <c r="E44" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F44" s="194" t="s">
+      <c r="F44" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="195">
+      <c r="B45" s="194">
         <v>44</v>
       </c>
-      <c r="C45" s="195" t="s">
+      <c r="C45" s="194" t="s">
         <v>498</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>499</v>
       </c>
-      <c r="E45" s="195" t="s">
+      <c r="E45" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F45" s="121" t="s">
+      <c r="F45" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="194">
+      <c r="B46" s="193">
         <v>45</v>
       </c>
-      <c r="C46" s="194" t="s">
+      <c r="C46" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="193" t="s">
         <v>501</v>
       </c>
-      <c r="E46" s="194" t="s">
+      <c r="E46" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F46" s="194" t="s">
+      <c r="F46" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="194">
+      <c r="B47" s="193">
         <v>46</v>
       </c>
-      <c r="C47" s="194" t="s">
+      <c r="C47" s="193" t="s">
         <v>502</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>503</v>
       </c>
-      <c r="E47" s="194" t="s">
+      <c r="E47" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F47" s="194" t="s">
+      <c r="F47" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -19913,7 +19927,10 @@
         <v>505</v>
       </c>
       <c r="E48" s="193" t="s">
-        <v>587</v>
+        <v>589</v>
+      </c>
+      <c r="F48" s="193" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
@@ -19929,6 +19946,9 @@
       <c r="E49" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F49" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="193">
@@ -19943,6 +19963,9 @@
       <c r="E50" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F50" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="193">
@@ -19957,51 +19980,54 @@
       <c r="E51" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F51" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="195">
+      <c r="B52" s="194">
         <v>51</v>
       </c>
-      <c r="C52" s="195" t="s">
+      <c r="C52" s="194" t="s">
         <v>512</v>
       </c>
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="194" t="s">
         <v>513</v>
       </c>
-      <c r="E52" s="195" t="s">
+      <c r="E52" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F52" s="195" t="s">
+      <c r="F52" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="195">
+      <c r="B53" s="194">
         <v>52</v>
       </c>
-      <c r="C53" s="195" t="s">
+      <c r="C53" s="194" t="s">
         <v>514</v>
       </c>
-      <c r="D53" s="195"/>
-      <c r="E53" s="195" t="s">
+      <c r="D53" s="194"/>
+      <c r="E53" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F53" s="121" t="s">
+      <c r="F53" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="195">
+      <c r="B54" s="194">
         <v>53</v>
       </c>
-      <c r="C54" s="195" t="s">
+      <c r="C54" s="194" t="s">
         <v>515</v>
       </c>
-      <c r="D54" s="195"/>
-      <c r="E54" s="195" t="s">
+      <c r="D54" s="194"/>
+      <c r="E54" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F54" s="121" t="s">
+      <c r="F54" s="194" t="s">
         <v>595</v>
       </c>
     </row>
@@ -20034,85 +20060,85 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="195">
+      <c r="B57" s="194">
         <v>56</v>
       </c>
-      <c r="C57" s="195" t="s">
+      <c r="C57" s="194" t="s">
         <v>520</v>
       </c>
-      <c r="D57" s="195"/>
-      <c r="E57" s="195" t="s">
+      <c r="D57" s="194"/>
+      <c r="E57" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F57" s="121" t="s">
+      <c r="F57" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="194">
+      <c r="B58" s="193">
         <v>57</v>
       </c>
-      <c r="C58" s="194" t="s">
+      <c r="C58" s="193" t="s">
         <v>521</v>
       </c>
-      <c r="D58" s="194" t="s">
+      <c r="D58" s="193" t="s">
         <v>503</v>
       </c>
-      <c r="E58" s="194" t="s">
+      <c r="E58" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F58" s="194" t="s">
+      <c r="F58" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="195">
+      <c r="B59" s="194">
         <v>58</v>
       </c>
-      <c r="C59" s="195" t="s">
+      <c r="C59" s="194" t="s">
         <v>522</v>
       </c>
-      <c r="D59" s="195" t="s">
+      <c r="D59" s="194" t="s">
         <v>523</v>
       </c>
-      <c r="E59" s="195" t="s">
+      <c r="E59" s="194" t="s">
         <v>587</v>
       </c>
-      <c r="F59" s="121" t="s">
+      <c r="F59" s="194" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="194">
+      <c r="B60" s="193">
         <v>59</v>
       </c>
-      <c r="C60" s="194" t="s">
+      <c r="C60" s="193" t="s">
         <v>524</v>
       </c>
-      <c r="D60" s="194" t="s">
+      <c r="D60" s="193" t="s">
         <v>525</v>
       </c>
-      <c r="E60" s="194" t="s">
+      <c r="E60" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F60" s="194" t="s">
+      <c r="F60" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="194">
+      <c r="B61" s="193">
         <v>60</v>
       </c>
-      <c r="C61" s="194" t="s">
+      <c r="C61" s="193" t="s">
         <v>526</v>
       </c>
-      <c r="D61" s="194" t="s">
+      <c r="D61" s="193" t="s">
         <v>527</v>
       </c>
-      <c r="E61" s="194" t="s">
+      <c r="E61" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F61" s="194" t="s">
+      <c r="F61" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -20171,38 +20197,41 @@
       <c r="E65" s="193" t="s">
         <v>585</v>
       </c>
+      <c r="F65" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="194">
+      <c r="B66" s="193">
         <v>65</v>
       </c>
-      <c r="C66" s="194" t="s">
+      <c r="C66" s="193" t="s">
         <v>536</v>
       </c>
-      <c r="D66" s="194" t="s">
+      <c r="D66" s="193" t="s">
         <v>419</v>
       </c>
-      <c r="E66" s="194" t="s">
+      <c r="E66" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F66" s="194" t="s">
+      <c r="F66" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="194">
+      <c r="B67" s="193">
         <v>66</v>
       </c>
-      <c r="C67" s="194" t="s">
+      <c r="C67" s="193" t="s">
         <v>537</v>
       </c>
-      <c r="D67" s="194" t="s">
+      <c r="D67" s="193" t="s">
         <v>538</v>
       </c>
-      <c r="E67" s="194" t="s">
+      <c r="E67" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F67" s="194" t="s">
+      <c r="F67" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -20219,6 +20248,9 @@
       <c r="E68" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F68" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="193">
@@ -20233,6 +20265,9 @@
       <c r="E69" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F69" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="193">
@@ -20247,38 +20282,41 @@
       <c r="E70" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F70" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="194">
+      <c r="B71" s="193">
         <v>70</v>
       </c>
-      <c r="C71" s="194" t="s">
+      <c r="C71" s="193" t="s">
         <v>545</v>
       </c>
-      <c r="D71" s="194" t="s">
+      <c r="D71" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="E71" s="194" t="s">
+      <c r="E71" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F71" s="194" t="s">
+      <c r="F71" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="194">
+      <c r="B72" s="193">
         <v>71</v>
       </c>
-      <c r="C72" s="194" t="s">
+      <c r="C72" s="193" t="s">
         <v>547</v>
       </c>
-      <c r="D72" s="194" t="s">
+      <c r="D72" s="193" t="s">
         <v>548</v>
       </c>
-      <c r="E72" s="194" t="s">
+      <c r="E72" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F72" s="194" t="s">
+      <c r="F72" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -20295,6 +20333,9 @@
       <c r="E73" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F73" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="193">
@@ -20309,138 +20350,141 @@
       <c r="E74" s="193" t="s">
         <v>589</v>
       </c>
+      <c r="F74" s="193" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="194">
+      <c r="B75" s="193">
         <v>74</v>
       </c>
-      <c r="C75" s="194" t="s">
+      <c r="C75" s="193" t="s">
         <v>553</v>
       </c>
-      <c r="D75" s="194" t="s">
+      <c r="D75" s="193" t="s">
         <v>554</v>
       </c>
-      <c r="E75" s="194" t="s">
+      <c r="E75" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F75" s="194" t="s">
+      <c r="F75" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="194">
+      <c r="B76" s="193">
         <v>75</v>
       </c>
-      <c r="C76" s="194" t="s">
+      <c r="C76" s="193" t="s">
         <v>555</v>
       </c>
-      <c r="D76" s="194" t="s">
+      <c r="D76" s="193" t="s">
         <v>556</v>
       </c>
-      <c r="E76" s="194" t="s">
+      <c r="E76" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F76" s="194" t="s">
+      <c r="F76" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="194">
+      <c r="B77" s="193">
         <v>76</v>
       </c>
-      <c r="C77" s="194" t="s">
+      <c r="C77" s="193" t="s">
         <v>557</v>
       </c>
-      <c r="D77" s="194" t="s">
+      <c r="D77" s="193" t="s">
         <v>558</v>
       </c>
-      <c r="E77" s="194" t="s">
+      <c r="E77" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F77" s="194" t="s">
+      <c r="F77" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="194">
+      <c r="B78" s="193">
         <v>77</v>
       </c>
-      <c r="C78" s="194" t="s">
+      <c r="C78" s="193" t="s">
         <v>559</v>
       </c>
-      <c r="D78" s="194"/>
-      <c r="E78" s="194" t="s">
+      <c r="D78" s="193"/>
+      <c r="E78" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F78" s="194" t="s">
+      <c r="F78" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="194">
+      <c r="B79" s="193">
         <v>78</v>
       </c>
-      <c r="C79" s="194" t="s">
+      <c r="C79" s="193" t="s">
         <v>560</v>
       </c>
-      <c r="D79" s="194" t="s">
+      <c r="D79" s="193" t="s">
         <v>561</v>
       </c>
-      <c r="E79" s="194" t="s">
+      <c r="E79" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F79" s="194" t="s">
+      <c r="F79" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="194">
+      <c r="B80" s="193">
         <v>79</v>
       </c>
-      <c r="C80" s="194" t="s">
+      <c r="C80" s="193" t="s">
         <v>562</v>
       </c>
-      <c r="D80" s="194" t="s">
+      <c r="D80" s="193" t="s">
         <v>563</v>
       </c>
-      <c r="E80" s="194" t="s">
+      <c r="E80" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F80" s="194" t="s">
+      <c r="F80" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="194">
+      <c r="B81" s="193">
         <v>80</v>
       </c>
-      <c r="C81" s="194" t="s">
+      <c r="C81" s="193" t="s">
         <v>564</v>
       </c>
-      <c r="D81" s="194" t="s">
+      <c r="D81" s="193" t="s">
         <v>565</v>
       </c>
-      <c r="E81" s="194" t="s">
+      <c r="E81" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F81" s="194" t="s">
+      <c r="F81" s="193" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="194">
+      <c r="B82" s="193">
         <v>81</v>
       </c>
-      <c r="C82" s="194" t="s">
+      <c r="C82" s="193" t="s">
         <v>566</v>
       </c>
-      <c r="D82" s="194" t="s">
+      <c r="D82" s="193" t="s">
         <v>567</v>
       </c>
-      <c r="E82" s="194" t="s">
+      <c r="E82" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="F82" s="194" t="s">
+      <c r="F82" s="193" t="s">
         <v>99</v>
       </c>
     </row>
@@ -20667,126 +20711,126 @@
       <c r="D11" s="68"/>
       <c r="E11" s="66"/>
       <c r="F11" s="69"/>
-      <c r="G11" s="219" t="s">
+      <c r="G11" s="224" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="66"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="221" t="s">
+      <c r="B12" s="225"/>
+      <c r="C12" s="226" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="227" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="228" t="s">
         <v>249</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="219"/>
+      <c r="G12" s="224"/>
       <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="66"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="223"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="70"/>
       <c r="G13" s="66"/>
       <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="223"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="228"/>
       <c r="F14" s="70"/>
       <c r="G14" s="66"/>
       <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="228"/>
       <c r="F15" s="70"/>
       <c r="G15" s="66"/>
       <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="223"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228"/>
       <c r="F16" s="72"/>
-      <c r="G16" s="219" t="s">
+      <c r="G16" s="224" t="s">
         <v>252</v>
       </c>
       <c r="H16" s="71"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="66"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="225" t="s">
+      <c r="B17" s="229"/>
+      <c r="C17" s="230" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="226" t="s">
+      <c r="D17" s="231" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="223"/>
+      <c r="E17" s="228"/>
       <c r="F17" s="70"/>
-      <c r="G17" s="219"/>
+      <c r="G17" s="224"/>
       <c r="H17" s="71"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="223"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="228"/>
       <c r="F18" s="70"/>
       <c r="G18" s="66"/>
       <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="66"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="223"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="228"/>
       <c r="F19" s="72"/>
-      <c r="G19" s="219" t="s">
+      <c r="G19" s="224" t="s">
         <v>255</v>
       </c>
       <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="66"/>
-      <c r="B20" s="227"/>
-      <c r="C20" s="228" t="s">
+      <c r="B20" s="232"/>
+      <c r="C20" s="233" t="s">
         <v>256</v>
       </c>
-      <c r="D20" s="226" t="s">
+      <c r="D20" s="231" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="223"/>
+      <c r="E20" s="228"/>
       <c r="F20" s="70"/>
-      <c r="G20" s="219"/>
+      <c r="G20" s="224"/>
       <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="66"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="228"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="223"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="228"/>
       <c r="F21" s="72"/>
-      <c r="G21" s="219" t="s">
+      <c r="G21" s="224" t="s">
         <v>258</v>
       </c>
       <c r="H21" s="71"/>
@@ -20800,9 +20844,9 @@
       <c r="D22" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="223"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="70"/>
-      <c r="G22" s="219"/>
+      <c r="G22" s="224"/>
       <c r="H22" s="71"/>
     </row>
     <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -20814,9 +20858,9 @@
       <c r="D23" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="223"/>
+      <c r="E23" s="228"/>
       <c r="F23" s="72"/>
-      <c r="G23" s="219" t="s">
+      <c r="G23" s="224" t="s">
         <v>261</v>
       </c>
       <c r="H23" s="71"/>
@@ -20828,7 +20872,7 @@
       <c r="D24" s="80"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="219"/>
+      <c r="G24" s="224"/>
       <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -20851,7 +20895,7 @@
     </row>
     <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="81"/>
-      <c r="D27" s="229" t="s">
+      <c r="D27" s="221" t="s">
         <v>263</v>
       </c>
       <c r="G27" s="81"/>
@@ -20862,7 +20906,7 @@
       <c r="B28" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="229"/>
+      <c r="D28" s="221"/>
       <c r="G28" s="81"/>
       <c r="H28" s="71"/>
     </row>
@@ -20882,11 +20926,11 @@
       <c r="B30" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="D30" s="230" t="s">
+      <c r="D30" s="219" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
       <c r="G30" s="81"/>
       <c r="H30" s="71"/>
     </row>
@@ -20914,7 +20958,7 @@
       <c r="B33" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="221" t="s">
         <v>255</v>
       </c>
       <c r="G33" s="81"/>
@@ -20922,31 +20966,31 @@
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="81"/>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="222" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="229"/>
+      <c r="D34" s="221"/>
       <c r="G34" s="81"/>
     </row>
     <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="81"/>
-      <c r="B35" s="231"/>
-      <c r="D35" s="232" t="s">
+      <c r="B35" s="222"/>
+      <c r="D35" s="223" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81"/>
-      <c r="B36" s="231"/>
+      <c r="B36" s="222"/>
       <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="81"/>
-      <c r="B37" s="231"/>
-      <c r="D37" s="229" t="s">
+      <c r="B37" s="222"/>
+      <c r="D37" s="221" t="s">
         <v>258</v>
       </c>
       <c r="G37" s="81"/>
@@ -20956,7 +21000,7 @@
       <c r="B38" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="D38" s="229"/>
+      <c r="D38" s="221"/>
       <c r="G38" s="81"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -20999,11 +21043,11 @@
       <c r="B44" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="230" t="s">
+      <c r="D44" s="219" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="230"/>
-      <c r="F44" s="230"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
       <c r="G44" s="81"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -21039,14 +21083,14 @@
       <c r="B49" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="230" t="s">
+      <c r="D49" s="219" t="s">
         <v>356</v>
       </c>
       <c r="G49" s="81"/>
     </row>
     <row r="50" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81"/>
-      <c r="D50" s="230"/>
+      <c r="D50" s="219"/>
       <c r="G50" s="81"/>
     </row>
     <row r="51" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -21085,7 +21129,7 @@
       <c r="C57" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D57" s="234" t="s">
+      <c r="D57" s="220" t="s">
         <v>230</v>
       </c>
       <c r="E57" s="71"/>
@@ -21094,42 +21138,42 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="95"/>
       <c r="C58" s="29"/>
-      <c r="D58" s="234"/>
+      <c r="D58" s="220"/>
       <c r="E58" s="71"/>
       <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="95"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="234"/>
+      <c r="D59" s="220"/>
       <c r="E59" s="71"/>
       <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="95"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="234"/>
+      <c r="D60" s="220"/>
       <c r="E60" s="71"/>
       <c r="F60" s="71"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="95"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="234"/>
+      <c r="D61" s="220"/>
       <c r="E61" s="71"/>
       <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="95"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="234"/>
+      <c r="D62" s="220"/>
       <c r="E62" s="71"/>
       <c r="F62" s="71"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="95"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="234"/>
+      <c r="D63" s="220"/>
       <c r="E63" s="71"/>
       <c r="F63" s="71"/>
     </row>
@@ -21138,7 +21182,7 @@
       <c r="C64" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D64" s="234"/>
+      <c r="D64" s="220"/>
       <c r="E64" s="71"/>
       <c r="F64" s="71"/>
     </row>
@@ -21147,7 +21191,7 @@
       <c r="C65" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D65" s="234" t="s">
+      <c r="D65" s="220" t="s">
         <v>230</v>
       </c>
       <c r="E65" s="71"/>
@@ -21156,49 +21200,49 @@
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="95"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="234"/>
+      <c r="D66" s="220"/>
       <c r="E66" s="71"/>
       <c r="F66" s="71"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="95"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="234"/>
+      <c r="D67" s="220"/>
       <c r="E67" s="71"/>
       <c r="F67" s="71"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="95"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="234"/>
+      <c r="D68" s="220"/>
       <c r="E68" s="71"/>
       <c r="F68" s="71"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="95"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="234"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="71"/>
       <c r="F69" s="71"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="95"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="234"/>
+      <c r="D70" s="220"/>
       <c r="E70" s="71"/>
       <c r="F70" s="71"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="95"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="234"/>
+      <c r="D71" s="220"/>
       <c r="E71" s="71"/>
       <c r="F71" s="71"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="95"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="234"/>
+      <c r="D72" s="220"/>
       <c r="E72" s="71"/>
       <c r="F72" s="71"/>
     </row>
@@ -21207,7 +21251,7 @@
       <c r="C73" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="234"/>
+      <c r="D73" s="220"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
     </row>
@@ -21216,7 +21260,7 @@
       <c r="C74" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="234" t="s">
+      <c r="D74" s="220" t="s">
         <v>230</v>
       </c>
       <c r="E74" s="71"/>
@@ -21225,74 +21269,62 @@
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="95"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="234"/>
+      <c r="D75" s="220"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="95"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="234"/>
+      <c r="D76" s="220"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="95"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="234"/>
+      <c r="D77" s="220"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="95"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="234"/>
+      <c r="D78" s="220"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="95"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="234"/>
+      <c r="D79" s="220"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="95"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="234"/>
+      <c r="D80" s="220"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="96"/>
       <c r="C81" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="234"/>
+      <c r="D81" s="220"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="233" t="s">
+      <c r="B82" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="233"/>
-      <c r="D82" s="233"/>
+      <c r="C82" s="218"/>
+      <c r="D82" s="218"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="233"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="233"/>
+      <c r="B83" s="218"/>
+      <c r="C83" s="218"/>
+      <c r="D83" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:D38"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
@@ -21308,6 +21340,18 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="D74:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
